--- a/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
@@ -427,10 +427,10 @@
         <v>1.013777981353328</v>
       </c>
       <c r="E2">
-        <v>0.9158565851138003</v>
+        <v>0.9158565851138002</v>
       </c>
       <c r="F2">
-        <v>0.9489751572576992</v>
+        <v>0.948975157257699</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.025048647007998</v>
       </c>
       <c r="L2">
-        <v>0.9286275315326622</v>
+        <v>0.928627531532662</v>
       </c>
       <c r="M2">
-        <v>0.9611942935376082</v>
+        <v>0.961194293537608</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9150110376407601</v>
+        <v>0.9150110376407583</v>
       </c>
       <c r="D3">
-        <v>1.019905797986648</v>
+        <v>1.019905797986647</v>
       </c>
       <c r="E3">
-        <v>0.9345578249898401</v>
+        <v>0.9345578249898385</v>
       </c>
       <c r="F3">
-        <v>0.9651227098080486</v>
+        <v>0.9651227098080474</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043604876244761</v>
+        <v>1.04360487624476</v>
       </c>
       <c r="J3">
-        <v>0.9381210437141116</v>
+        <v>0.9381210437141098</v>
       </c>
       <c r="K3">
-        <v>1.030290161425371</v>
+        <v>1.03029016142537</v>
       </c>
       <c r="L3">
-        <v>0.9461026907700146</v>
+        <v>0.9461026907700131</v>
       </c>
       <c r="M3">
-        <v>0.9762221984425826</v>
+        <v>0.976222198442581</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,19 +494,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>0.927993673597581</v>
+        <v>0.9279936735975801</v>
       </c>
       <c r="D4">
         <v>1.023595413712846</v>
       </c>
       <c r="E4">
-        <v>0.9456417917382911</v>
+        <v>0.9456417917382903</v>
       </c>
       <c r="F4">
-        <v>0.9747254470763564</v>
+        <v>0.9747254470763558</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.04557571514007</v>
       </c>
       <c r="J4">
-        <v>0.9494376612336362</v>
+        <v>0.9494376612336353</v>
       </c>
       <c r="K4">
-        <v>1.033417165155459</v>
+        <v>1.033417165155458</v>
       </c>
       <c r="L4">
-        <v>0.9564437856788043</v>
+        <v>0.9564437856788036</v>
       </c>
       <c r="M4">
-        <v>0.9851387987820842</v>
+        <v>0.9851387987820834</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9332081122534535</v>
+        <v>0.9332081122534538</v>
       </c>
       <c r="D5">
         <v>1.025089703005945</v>
       </c>
       <c r="E5">
-        <v>0.9500971428686672</v>
+        <v>0.9500971428686675</v>
       </c>
       <c r="F5">
-        <v>0.978591166944348</v>
+        <v>0.9785911669443479</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046365896154775</v>
+        <v>1.046365896154774</v>
       </c>
       <c r="J5">
-        <v>0.9539825674615331</v>
+        <v>0.9539825674615335</v>
       </c>
       <c r="K5">
         <v>1.03467720911971</v>
       </c>
       <c r="L5">
-        <v>0.9605968197280415</v>
+        <v>0.9605968197280418</v>
       </c>
       <c r="M5">
-        <v>0.9887237506112883</v>
+        <v>0.9887237506112881</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.934070498425788</v>
+        <v>0.9340704984257873</v>
       </c>
       <c r="D6">
         <v>1.025337488131057</v>
       </c>
       <c r="E6">
-        <v>0.9508341666372159</v>
+        <v>0.950834166637215</v>
       </c>
       <c r="F6">
-        <v>0.9792309424546444</v>
+        <v>0.979230942454644</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.046496464978556</v>
       </c>
       <c r="J6">
-        <v>0.9547341841628765</v>
+        <v>0.9547341841628758</v>
       </c>
       <c r="K6">
         <v>1.034885788707022</v>
       </c>
       <c r="L6">
-        <v>0.9612836185415645</v>
+        <v>0.9612836185415637</v>
       </c>
       <c r="M6">
-        <v>0.9893167983005497</v>
+        <v>0.9893167983005494</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9280642529178172</v>
+        <v>0.9280642529178159</v>
       </c>
       <c r="D7">
         <v>1.02361559354467</v>
       </c>
       <c r="E7">
-        <v>0.9457020838219403</v>
+        <v>0.9457020838219389</v>
       </c>
       <c r="F7">
-        <v>0.9747777391933188</v>
+        <v>0.9747777391933174</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045586417631868</v>
+        <v>1.045586417631867</v>
       </c>
       <c r="J7">
-        <v>0.9494991805071444</v>
+        <v>0.9494991805071431</v>
       </c>
       <c r="K7">
         <v>1.033434206424604</v>
       </c>
       <c r="L7">
-        <v>0.9565000012842518</v>
+        <v>0.9565000012842503</v>
       </c>
       <c r="M7">
-        <v>0.9851873107539076</v>
+        <v>0.9851873107539064</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9007691556204257</v>
+        <v>0.9007691556204275</v>
       </c>
       <c r="D8">
-        <v>1.015912359402747</v>
+        <v>1.015912359402748</v>
       </c>
       <c r="E8">
-        <v>0.9224149704720285</v>
+        <v>0.9224149704720299</v>
       </c>
       <c r="F8">
-        <v>0.9546294327407686</v>
+        <v>0.9546294327407697</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041441502693238</v>
+        <v>1.041441502693239</v>
       </c>
       <c r="J8">
-        <v>0.9257074210038446</v>
+        <v>0.9257074210038464</v>
       </c>
       <c r="K8">
-        <v>1.026881016692149</v>
+        <v>1.02688101669215</v>
       </c>
       <c r="L8">
-        <v>0.9347596218590327</v>
+        <v>0.9347596218590343</v>
       </c>
       <c r="M8">
-        <v>0.9664611911707279</v>
+        <v>0.9664611911707293</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8399370160323006</v>
+        <v>0.8399370160322993</v>
       </c>
       <c r="D9">
-        <v>0.9995880963556163</v>
+        <v>0.999588096355616</v>
       </c>
       <c r="E9">
-        <v>0.8707988749389272</v>
+        <v>0.870798874938926</v>
       </c>
       <c r="F9">
-        <v>0.9104355004489099</v>
+        <v>0.9104355004489091</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032299421325998</v>
+        <v>1.032299421325997</v>
       </c>
       <c r="J9">
-        <v>0.8727562805642344</v>
+        <v>0.8727562805642333</v>
       </c>
       <c r="K9">
-        <v>1.012687859945931</v>
+        <v>1.01268785994593</v>
       </c>
       <c r="L9">
-        <v>0.8864051392334327</v>
+        <v>0.8864051392334317</v>
       </c>
       <c r="M9">
-        <v>0.9251705836602625</v>
+        <v>0.9251705836602615</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7806953949659327</v>
+        <v>0.780695394965933</v>
       </c>
       <c r="D10">
-        <v>0.9850186004619537</v>
+        <v>0.9850186004619539</v>
       </c>
       <c r="E10">
         <v>0.8210724480728248</v>
       </c>
       <c r="F10">
-        <v>0.8686989416726473</v>
+        <v>0.8686989416726476</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023758234778043</v>
+        <v>1.023758234778044</v>
       </c>
       <c r="J10">
-        <v>0.8214436945567977</v>
+        <v>0.8214436945567979</v>
       </c>
       <c r="K10">
-        <v>0.9996637216606848</v>
+        <v>0.999663721660685</v>
       </c>
       <c r="L10">
         <v>0.8396498769284825</v>
       </c>
       <c r="M10">
-        <v>0.8859264472305934</v>
+        <v>0.8859264472305938</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7424888901123609</v>
+        <v>0.7424888901123617</v>
       </c>
       <c r="D11">
-        <v>0.976410065213941</v>
+        <v>0.9764100652139411</v>
       </c>
       <c r="E11">
-        <v>0.7893907975699058</v>
+        <v>0.7893907975699068</v>
       </c>
       <c r="F11">
-        <v>0.8426638343328917</v>
+        <v>0.8426638343328925</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.018536849535277</v>
       </c>
       <c r="J11">
-        <v>0.7885719207485998</v>
+        <v>0.7885719207486006</v>
       </c>
       <c r="K11">
         <v>0.9917909999207674</v>
       </c>
       <c r="L11">
-        <v>0.8097872005112441</v>
+        <v>0.8097872005112448</v>
       </c>
       <c r="M11">
-        <v>0.8613193368410139</v>
+        <v>0.8613193368410145</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7232024629165109</v>
+        <v>0.7232024629165161</v>
       </c>
       <c r="D12">
-        <v>0.9723157654839204</v>
+        <v>0.9723157654839214</v>
       </c>
       <c r="E12">
-        <v>0.7735413262683718</v>
+        <v>0.7735413262683764</v>
       </c>
       <c r="F12">
-        <v>0.8298301620704756</v>
+        <v>0.8298301620704789</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.01600324513397</v>
       </c>
       <c r="J12">
-        <v>0.7720651724235192</v>
+        <v>0.772065172423524</v>
       </c>
       <c r="K12">
-        <v>0.98799329151761</v>
+        <v>0.9879932915176108</v>
       </c>
       <c r="L12">
-        <v>0.7948268802175806</v>
+        <v>0.7948268802175852</v>
       </c>
       <c r="M12">
-        <v>0.8491497110073859</v>
+        <v>0.8491497110073892</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7277413384497876</v>
+        <v>0.7277413384497807</v>
       </c>
       <c r="D13">
-        <v>0.9732637488571767</v>
+        <v>0.9732637488571758</v>
       </c>
       <c r="E13">
-        <v>0.7772618419554514</v>
+        <v>0.7772618419554457</v>
       </c>
       <c r="F13">
-        <v>0.8328304874234079</v>
+        <v>0.8328304874234036</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.016592945524009</v>
       </c>
       <c r="J13">
-        <v>0.7759440220684807</v>
+        <v>0.7759440220684747</v>
       </c>
       <c r="K13">
-        <v>0.9888759216626849</v>
+        <v>0.9888759216626842</v>
       </c>
       <c r="L13">
-        <v>0.7983399400555203</v>
+        <v>0.7983399400555148</v>
       </c>
       <c r="M13">
-        <v>0.8519973180492876</v>
+        <v>0.8519973180492835</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.7410503237293224</v>
+        <v>0.7410503237293241</v>
       </c>
       <c r="D14">
-        <v>0.9760987379862959</v>
+        <v>0.9760987379862962</v>
       </c>
       <c r="E14">
-        <v>0.7882050329932031</v>
+        <v>0.7882050329932045</v>
       </c>
       <c r="F14">
-        <v>0.8416990512626716</v>
+        <v>0.8416990512626726</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018345389411889</v>
+        <v>1.01834538941189</v>
       </c>
       <c r="J14">
-        <v>0.7873385052165598</v>
+        <v>0.7873385052165612</v>
       </c>
       <c r="K14">
-        <v>0.9915035077192568</v>
+        <v>0.9915035077192569</v>
       </c>
       <c r="L14">
-        <v>0.8086684411260947</v>
+        <v>0.808668441126096</v>
       </c>
       <c r="M14">
-        <v>0.860405435959101</v>
+        <v>0.8604054359591018</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7483483986766764</v>
+        <v>0.7483483986766745</v>
       </c>
       <c r="D15">
-        <v>0.9776879153779736</v>
+        <v>0.9776879153779726</v>
       </c>
       <c r="E15">
-        <v>0.7942262664711141</v>
+        <v>0.7942262664711125</v>
       </c>
       <c r="F15">
-        <v>0.846605677363294</v>
+        <v>0.8466056773632925</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019320710065107</v>
+        <v>1.019320710065106</v>
       </c>
       <c r="J15">
-        <v>0.7935992647103108</v>
+        <v>0.7935992647103092</v>
       </c>
       <c r="K15">
-        <v>0.9929688927356012</v>
+        <v>0.9929688927356001</v>
       </c>
       <c r="L15">
-        <v>0.8143486230057709</v>
+        <v>0.8143486230057695</v>
       </c>
       <c r="M15">
-        <v>0.8650517194026391</v>
+        <v>0.8650517194026376</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7828196031836054</v>
+        <v>0.7828196031836064</v>
       </c>
       <c r="D16">
-        <v>0.9855160133162701</v>
+        <v>0.9855160133162707</v>
       </c>
       <c r="E16">
-        <v>0.8228437963945814</v>
+        <v>0.8228437963945823</v>
       </c>
       <c r="F16">
-        <v>0.870168438731635</v>
+        <v>0.8701684387316357</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024055816467082</v>
       </c>
       <c r="J16">
-        <v>0.8232771492113472</v>
+        <v>0.8232771492113482</v>
       </c>
       <c r="K16">
-        <v>1.000114336217935</v>
+        <v>1.000114336217936</v>
       </c>
       <c r="L16">
-        <v>0.8413178820114811</v>
+        <v>0.8413178820114817</v>
       </c>
       <c r="M16">
-        <v>0.8873123231750315</v>
+        <v>0.8873123231750323</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8001928164678743</v>
+        <v>0.80019281646787</v>
       </c>
       <c r="D17">
-        <v>0.9896559486278825</v>
+        <v>0.9896559486278819</v>
       </c>
       <c r="E17">
-        <v>0.8373662059646291</v>
+        <v>0.8373662059646255</v>
       </c>
       <c r="F17">
-        <v>0.8822670650207619</v>
+        <v>0.8822670650207595</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026515876687462</v>
       </c>
       <c r="J17">
-        <v>0.8382924039942021</v>
+        <v>0.838292403994198</v>
       </c>
       <c r="K17">
-        <v>1.003847810426199</v>
+        <v>1.003847810426198</v>
       </c>
       <c r="L17">
-        <v>0.854986311976534</v>
+        <v>0.8549863119765303</v>
       </c>
       <c r="M17">
-        <v>0.8987107980227587</v>
+        <v>0.8987107980227562</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8093600632868905</v>
+        <v>0.8093600632868942</v>
       </c>
       <c r="D18">
-        <v>0.9918910113106369</v>
+        <v>0.9918910113106373</v>
       </c>
       <c r="E18">
-        <v>0.8450530633846353</v>
+        <v>0.8450530633846387</v>
       </c>
       <c r="F18">
-        <v>0.888706215981606</v>
+        <v>0.8887062159816084</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.027831813561575</v>
       </c>
       <c r="J18">
-        <v>0.8462287539483828</v>
+        <v>0.8462287539483863</v>
       </c>
       <c r="K18">
         <v>1.005851200059097</v>
       </c>
       <c r="L18">
-        <v>0.8622162013243034</v>
+        <v>0.8622162013243068</v>
       </c>
       <c r="M18">
-        <v>0.9047689593448534</v>
+        <v>0.9047689593448556</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8123521002137697</v>
+        <v>0.8123521002137675</v>
       </c>
       <c r="D19">
-        <v>0.992627902838644</v>
+        <v>0.9926279028386431</v>
       </c>
       <c r="E19">
-        <v>0.8475652959126413</v>
+        <v>0.8475652959126394</v>
       </c>
       <c r="F19">
-        <v>0.8908157236116047</v>
+        <v>0.890815723611603</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.028263821874301</v>
       </c>
       <c r="J19">
-        <v>0.8488208763019026</v>
+        <v>0.8488208763019004</v>
       </c>
       <c r="K19">
         <v>1.006509879279023</v>
       </c>
       <c r="L19">
-        <v>0.8645783255083686</v>
+        <v>0.8645783255083669</v>
       </c>
       <c r="M19">
-        <v>0.9067524073695066</v>
+        <v>0.9067524073695049</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7984368188182974</v>
+        <v>0.798436818818298</v>
       </c>
       <c r="D20">
-        <v>0.9892317627659483</v>
+        <v>0.9892317627659478</v>
       </c>
       <c r="E20">
-        <v>0.8358956047169147</v>
+        <v>0.8358956047169153</v>
       </c>
       <c r="F20">
-        <v>0.8810378806436751</v>
+        <v>0.8810378806436753</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.026265170533094</v>
       </c>
       <c r="J20">
-        <v>0.8367731907227726</v>
+        <v>0.8367731907227735</v>
       </c>
       <c r="K20">
         <v>1.003466638778419</v>
       </c>
       <c r="L20">
-        <v>0.8536027398865156</v>
+        <v>0.8536027398865161</v>
       </c>
       <c r="M20">
         <v>0.8975536872994875</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7373429423264053</v>
+        <v>0.7373429423264035</v>
       </c>
       <c r="D21">
-        <v>0.9753007856487905</v>
+        <v>0.9753007856487902</v>
       </c>
       <c r="E21">
-        <v>0.7851517333349963</v>
+        <v>0.7851517333349949</v>
       </c>
       <c r="F21">
-        <v>0.8392181633946016</v>
+        <v>0.8392181633946002</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.017853784182321</v>
       </c>
       <c r="J21">
-        <v>0.7841614001870026</v>
+        <v>0.784161400187001</v>
       </c>
       <c r="K21">
-        <v>0.9907657037288241</v>
+        <v>0.9907657037288238</v>
       </c>
       <c r="L21">
-        <v>0.8057873190140854</v>
+        <v>0.8057873190140838</v>
       </c>
       <c r="M21">
-        <v>0.8580546850001319</v>
+        <v>0.8580546850001307</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7373429423264053</v>
+        <v>0.7373429423264035</v>
       </c>
       <c r="D22">
-        <v>0.9753007856487905</v>
+        <v>0.9753007856487902</v>
       </c>
       <c r="E22">
-        <v>0.7851517333349963</v>
+        <v>0.7851517333349949</v>
       </c>
       <c r="F22">
-        <v>0.8392181633946016</v>
+        <v>0.8392181633946002</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.017853784182321</v>
       </c>
       <c r="J22">
-        <v>0.7841614001870026</v>
+        <v>0.784161400187001</v>
       </c>
       <c r="K22">
-        <v>0.9907657037288241</v>
+        <v>0.9907657037288238</v>
       </c>
       <c r="L22">
-        <v>0.8057873190140854</v>
+        <v>0.8057873190140838</v>
       </c>
       <c r="M22">
-        <v>0.8580546850001319</v>
+        <v>0.8580546850001307</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7076458440888379</v>
+        <v>0.7076458440888296</v>
       </c>
       <c r="D23">
-        <v>0.9691405028895524</v>
+        <v>0.9691405028895508</v>
       </c>
       <c r="E23">
-        <v>0.7608368426390109</v>
+        <v>0.7608368426390036</v>
       </c>
       <c r="F23">
-        <v>0.8196442055795625</v>
+        <v>0.8196442055795572</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01401384125278</v>
+        <v>1.014013841252779</v>
       </c>
       <c r="J23">
-        <v>0.7588001095976532</v>
+        <v>0.7588001095976459</v>
       </c>
       <c r="K23">
-        <v>0.9850214689421294</v>
+        <v>0.9850214689421279</v>
       </c>
       <c r="L23">
-        <v>0.7828248211107042</v>
+        <v>0.7828248211106973</v>
       </c>
       <c r="M23">
-        <v>0.8394700935350912</v>
+        <v>0.8394700935350859</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7992331496448039</v>
+        <v>0.7992331496448002</v>
       </c>
       <c r="D24">
-        <v>0.9894239694145728</v>
+        <v>0.9894239694145731</v>
       </c>
       <c r="E24">
-        <v>0.8365624363757794</v>
+        <v>0.8365624363757762</v>
       </c>
       <c r="F24">
-        <v>0.8815951341935121</v>
+        <v>0.8815951341935102</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026378808288804</v>
       </c>
       <c r="J24">
-        <v>0.837462100551698</v>
+        <v>0.8374621005516947</v>
       </c>
       <c r="K24">
         <v>1.00363939294118</v>
       </c>
       <c r="L24">
-        <v>0.8542301245018316</v>
+        <v>0.8542301245018283</v>
       </c>
       <c r="M24">
-        <v>0.8980782922064101</v>
+        <v>0.8980782922064081</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8578170305875915</v>
+        <v>0.8578170305875916</v>
       </c>
       <c r="D25">
         <v>1.004253458814943</v>
       </c>
       <c r="E25">
-        <v>0.8859213690098918</v>
+        <v>0.8859213690098919</v>
       </c>
       <c r="F25">
-        <v>0.923304548033155</v>
+        <v>0.9233045480331548</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034959065138551</v>
+        <v>1.03495906513855</v>
       </c>
       <c r="J25">
-        <v>0.888301129564195</v>
+        <v>0.8883011295641949</v>
       </c>
       <c r="K25">
-        <v>1.016786102215302</v>
+        <v>1.016786102215301</v>
       </c>
       <c r="L25">
-        <v>0.9005928798265477</v>
+        <v>0.9005928798265479</v>
       </c>
       <c r="M25">
-        <v>0.9372228480838976</v>
+        <v>0.9372228480838974</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
@@ -427,10 +427,10 @@
         <v>1.013777981353328</v>
       </c>
       <c r="E2">
-        <v>0.9158565851138002</v>
+        <v>0.9158565851138003</v>
       </c>
       <c r="F2">
-        <v>0.948975157257699</v>
+        <v>0.9489751572576992</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.025048647007998</v>
       </c>
       <c r="L2">
-        <v>0.928627531532662</v>
+        <v>0.9286275315326622</v>
       </c>
       <c r="M2">
-        <v>0.961194293537608</v>
+        <v>0.9611942935376082</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9150110376407583</v>
+        <v>0.9150110376407601</v>
       </c>
       <c r="D3">
-        <v>1.019905797986647</v>
+        <v>1.019905797986648</v>
       </c>
       <c r="E3">
-        <v>0.9345578249898385</v>
+        <v>0.9345578249898401</v>
       </c>
       <c r="F3">
-        <v>0.9651227098080474</v>
+        <v>0.9651227098080486</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04360487624476</v>
+        <v>1.043604876244761</v>
       </c>
       <c r="J3">
-        <v>0.9381210437141098</v>
+        <v>0.9381210437141116</v>
       </c>
       <c r="K3">
-        <v>1.03029016142537</v>
+        <v>1.030290161425371</v>
       </c>
       <c r="L3">
-        <v>0.9461026907700131</v>
+        <v>0.9461026907700146</v>
       </c>
       <c r="M3">
-        <v>0.976222198442581</v>
+        <v>0.9762221984425826</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,19 +494,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9279936735975801</v>
+        <v>0.927993673597581</v>
       </c>
       <c r="D4">
         <v>1.023595413712846</v>
       </c>
       <c r="E4">
-        <v>0.9456417917382903</v>
+        <v>0.9456417917382911</v>
       </c>
       <c r="F4">
-        <v>0.9747254470763558</v>
+        <v>0.9747254470763564</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.04557571514007</v>
       </c>
       <c r="J4">
-        <v>0.9494376612336353</v>
+        <v>0.9494376612336362</v>
       </c>
       <c r="K4">
-        <v>1.033417165155458</v>
+        <v>1.033417165155459</v>
       </c>
       <c r="L4">
-        <v>0.9564437856788036</v>
+        <v>0.9564437856788043</v>
       </c>
       <c r="M4">
-        <v>0.9851387987820834</v>
+        <v>0.9851387987820842</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9332081122534538</v>
+        <v>0.9332081122534535</v>
       </c>
       <c r="D5">
         <v>1.025089703005945</v>
       </c>
       <c r="E5">
-        <v>0.9500971428686675</v>
+        <v>0.9500971428686672</v>
       </c>
       <c r="F5">
-        <v>0.9785911669443479</v>
+        <v>0.978591166944348</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046365896154774</v>
+        <v>1.046365896154775</v>
       </c>
       <c r="J5">
-        <v>0.9539825674615335</v>
+        <v>0.9539825674615331</v>
       </c>
       <c r="K5">
         <v>1.03467720911971</v>
       </c>
       <c r="L5">
-        <v>0.9605968197280418</v>
+        <v>0.9605968197280415</v>
       </c>
       <c r="M5">
-        <v>0.9887237506112881</v>
+        <v>0.9887237506112883</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9340704984257873</v>
+        <v>0.934070498425788</v>
       </c>
       <c r="D6">
         <v>1.025337488131057</v>
       </c>
       <c r="E6">
-        <v>0.950834166637215</v>
+        <v>0.9508341666372159</v>
       </c>
       <c r="F6">
-        <v>0.979230942454644</v>
+        <v>0.9792309424546444</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.046496464978556</v>
       </c>
       <c r="J6">
-        <v>0.9547341841628758</v>
+        <v>0.9547341841628765</v>
       </c>
       <c r="K6">
         <v>1.034885788707022</v>
       </c>
       <c r="L6">
-        <v>0.9612836185415637</v>
+        <v>0.9612836185415645</v>
       </c>
       <c r="M6">
-        <v>0.9893167983005494</v>
+        <v>0.9893167983005497</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9280642529178159</v>
+        <v>0.9280642529178172</v>
       </c>
       <c r="D7">
         <v>1.02361559354467</v>
       </c>
       <c r="E7">
-        <v>0.9457020838219389</v>
+        <v>0.9457020838219403</v>
       </c>
       <c r="F7">
-        <v>0.9747777391933174</v>
+        <v>0.9747777391933188</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045586417631867</v>
+        <v>1.045586417631868</v>
       </c>
       <c r="J7">
-        <v>0.9494991805071431</v>
+        <v>0.9494991805071444</v>
       </c>
       <c r="K7">
         <v>1.033434206424604</v>
       </c>
       <c r="L7">
-        <v>0.9565000012842503</v>
+        <v>0.9565000012842518</v>
       </c>
       <c r="M7">
-        <v>0.9851873107539064</v>
+        <v>0.9851873107539076</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9007691556204275</v>
+        <v>0.9007691556204257</v>
       </c>
       <c r="D8">
-        <v>1.015912359402748</v>
+        <v>1.015912359402747</v>
       </c>
       <c r="E8">
-        <v>0.9224149704720299</v>
+        <v>0.9224149704720285</v>
       </c>
       <c r="F8">
-        <v>0.9546294327407697</v>
+        <v>0.9546294327407686</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041441502693239</v>
+        <v>1.041441502693238</v>
       </c>
       <c r="J8">
-        <v>0.9257074210038464</v>
+        <v>0.9257074210038446</v>
       </c>
       <c r="K8">
-        <v>1.02688101669215</v>
+        <v>1.026881016692149</v>
       </c>
       <c r="L8">
-        <v>0.9347596218590343</v>
+        <v>0.9347596218590327</v>
       </c>
       <c r="M8">
-        <v>0.9664611911707293</v>
+        <v>0.9664611911707279</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8399370160322993</v>
+        <v>0.8399370160323006</v>
       </c>
       <c r="D9">
-        <v>0.999588096355616</v>
+        <v>0.9995880963556163</v>
       </c>
       <c r="E9">
-        <v>0.870798874938926</v>
+        <v>0.8707988749389272</v>
       </c>
       <c r="F9">
-        <v>0.9104355004489091</v>
+        <v>0.9104355004489099</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032299421325997</v>
+        <v>1.032299421325998</v>
       </c>
       <c r="J9">
-        <v>0.8727562805642333</v>
+        <v>0.8727562805642344</v>
       </c>
       <c r="K9">
-        <v>1.01268785994593</v>
+        <v>1.012687859945931</v>
       </c>
       <c r="L9">
-        <v>0.8864051392334317</v>
+        <v>0.8864051392334327</v>
       </c>
       <c r="M9">
-        <v>0.9251705836602615</v>
+        <v>0.9251705836602625</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.780695394965933</v>
+        <v>0.7806953949659327</v>
       </c>
       <c r="D10">
-        <v>0.9850186004619539</v>
+        <v>0.9850186004619537</v>
       </c>
       <c r="E10">
         <v>0.8210724480728248</v>
       </c>
       <c r="F10">
-        <v>0.8686989416726476</v>
+        <v>0.8686989416726473</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023758234778044</v>
+        <v>1.023758234778043</v>
       </c>
       <c r="J10">
-        <v>0.8214436945567979</v>
+        <v>0.8214436945567977</v>
       </c>
       <c r="K10">
-        <v>0.999663721660685</v>
+        <v>0.9996637216606848</v>
       </c>
       <c r="L10">
         <v>0.8396498769284825</v>
       </c>
       <c r="M10">
-        <v>0.8859264472305938</v>
+        <v>0.8859264472305934</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7424888901123617</v>
+        <v>0.7424888901123609</v>
       </c>
       <c r="D11">
-        <v>0.9764100652139411</v>
+        <v>0.976410065213941</v>
       </c>
       <c r="E11">
-        <v>0.7893907975699068</v>
+        <v>0.7893907975699058</v>
       </c>
       <c r="F11">
-        <v>0.8426638343328925</v>
+        <v>0.8426638343328917</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.018536849535277</v>
       </c>
       <c r="J11">
-        <v>0.7885719207486006</v>
+        <v>0.7885719207485998</v>
       </c>
       <c r="K11">
         <v>0.9917909999207674</v>
       </c>
       <c r="L11">
-        <v>0.8097872005112448</v>
+        <v>0.8097872005112441</v>
       </c>
       <c r="M11">
-        <v>0.8613193368410145</v>
+        <v>0.8613193368410139</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7232024629165161</v>
+        <v>0.7232024629165109</v>
       </c>
       <c r="D12">
-        <v>0.9723157654839214</v>
+        <v>0.9723157654839204</v>
       </c>
       <c r="E12">
-        <v>0.7735413262683764</v>
+        <v>0.7735413262683718</v>
       </c>
       <c r="F12">
-        <v>0.8298301620704789</v>
+        <v>0.8298301620704756</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.01600324513397</v>
       </c>
       <c r="J12">
-        <v>0.772065172423524</v>
+        <v>0.7720651724235192</v>
       </c>
       <c r="K12">
-        <v>0.9879932915176108</v>
+        <v>0.98799329151761</v>
       </c>
       <c r="L12">
-        <v>0.7948268802175852</v>
+        <v>0.7948268802175806</v>
       </c>
       <c r="M12">
-        <v>0.8491497110073892</v>
+        <v>0.8491497110073859</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7277413384497807</v>
+        <v>0.7277413384497876</v>
       </c>
       <c r="D13">
-        <v>0.9732637488571758</v>
+        <v>0.9732637488571767</v>
       </c>
       <c r="E13">
-        <v>0.7772618419554457</v>
+        <v>0.7772618419554514</v>
       </c>
       <c r="F13">
-        <v>0.8328304874234036</v>
+        <v>0.8328304874234079</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.016592945524009</v>
       </c>
       <c r="J13">
-        <v>0.7759440220684747</v>
+        <v>0.7759440220684807</v>
       </c>
       <c r="K13">
-        <v>0.9888759216626842</v>
+        <v>0.9888759216626849</v>
       </c>
       <c r="L13">
-        <v>0.7983399400555148</v>
+        <v>0.7983399400555203</v>
       </c>
       <c r="M13">
-        <v>0.8519973180492835</v>
+        <v>0.8519973180492876</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7410503237293241</v>
+        <v>0.7410503237293224</v>
       </c>
       <c r="D14">
-        <v>0.9760987379862962</v>
+        <v>0.9760987379862959</v>
       </c>
       <c r="E14">
-        <v>0.7882050329932045</v>
+        <v>0.7882050329932031</v>
       </c>
       <c r="F14">
-        <v>0.8416990512626726</v>
+        <v>0.8416990512626716</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01834538941189</v>
+        <v>1.018345389411889</v>
       </c>
       <c r="J14">
-        <v>0.7873385052165612</v>
+        <v>0.7873385052165598</v>
       </c>
       <c r="K14">
-        <v>0.9915035077192569</v>
+        <v>0.9915035077192568</v>
       </c>
       <c r="L14">
-        <v>0.808668441126096</v>
+        <v>0.8086684411260947</v>
       </c>
       <c r="M14">
-        <v>0.8604054359591018</v>
+        <v>0.860405435959101</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7483483986766745</v>
+        <v>0.7483483986766764</v>
       </c>
       <c r="D15">
-        <v>0.9776879153779726</v>
+        <v>0.9776879153779736</v>
       </c>
       <c r="E15">
-        <v>0.7942262664711125</v>
+        <v>0.7942262664711141</v>
       </c>
       <c r="F15">
-        <v>0.8466056773632925</v>
+        <v>0.846605677363294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019320710065106</v>
+        <v>1.019320710065107</v>
       </c>
       <c r="J15">
-        <v>0.7935992647103092</v>
+        <v>0.7935992647103108</v>
       </c>
       <c r="K15">
-        <v>0.9929688927356001</v>
+        <v>0.9929688927356012</v>
       </c>
       <c r="L15">
-        <v>0.8143486230057695</v>
+        <v>0.8143486230057709</v>
       </c>
       <c r="M15">
-        <v>0.8650517194026376</v>
+        <v>0.8650517194026391</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7828196031836064</v>
+        <v>0.7828196031836054</v>
       </c>
       <c r="D16">
-        <v>0.9855160133162707</v>
+        <v>0.9855160133162701</v>
       </c>
       <c r="E16">
-        <v>0.8228437963945823</v>
+        <v>0.8228437963945814</v>
       </c>
       <c r="F16">
-        <v>0.8701684387316357</v>
+        <v>0.870168438731635</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024055816467082</v>
       </c>
       <c r="J16">
-        <v>0.8232771492113482</v>
+        <v>0.8232771492113472</v>
       </c>
       <c r="K16">
-        <v>1.000114336217936</v>
+        <v>1.000114336217935</v>
       </c>
       <c r="L16">
-        <v>0.8413178820114817</v>
+        <v>0.8413178820114811</v>
       </c>
       <c r="M16">
-        <v>0.8873123231750323</v>
+        <v>0.8873123231750315</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.80019281646787</v>
+        <v>0.8001928164678743</v>
       </c>
       <c r="D17">
-        <v>0.9896559486278819</v>
+        <v>0.9896559486278825</v>
       </c>
       <c r="E17">
-        <v>0.8373662059646255</v>
+        <v>0.8373662059646291</v>
       </c>
       <c r="F17">
-        <v>0.8822670650207595</v>
+        <v>0.8822670650207619</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026515876687462</v>
       </c>
       <c r="J17">
-        <v>0.838292403994198</v>
+        <v>0.8382924039942021</v>
       </c>
       <c r="K17">
-        <v>1.003847810426198</v>
+        <v>1.003847810426199</v>
       </c>
       <c r="L17">
-        <v>0.8549863119765303</v>
+        <v>0.854986311976534</v>
       </c>
       <c r="M17">
-        <v>0.8987107980227562</v>
+        <v>0.8987107980227587</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8093600632868942</v>
+        <v>0.8093600632868905</v>
       </c>
       <c r="D18">
-        <v>0.9918910113106373</v>
+        <v>0.9918910113106369</v>
       </c>
       <c r="E18">
-        <v>0.8450530633846387</v>
+        <v>0.8450530633846353</v>
       </c>
       <c r="F18">
-        <v>0.8887062159816084</v>
+        <v>0.888706215981606</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.027831813561575</v>
       </c>
       <c r="J18">
-        <v>0.8462287539483863</v>
+        <v>0.8462287539483828</v>
       </c>
       <c r="K18">
         <v>1.005851200059097</v>
       </c>
       <c r="L18">
-        <v>0.8622162013243068</v>
+        <v>0.8622162013243034</v>
       </c>
       <c r="M18">
-        <v>0.9047689593448556</v>
+        <v>0.9047689593448534</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8123521002137675</v>
+        <v>0.8123521002137697</v>
       </c>
       <c r="D19">
-        <v>0.9926279028386431</v>
+        <v>0.992627902838644</v>
       </c>
       <c r="E19">
-        <v>0.8475652959126394</v>
+        <v>0.8475652959126413</v>
       </c>
       <c r="F19">
-        <v>0.890815723611603</v>
+        <v>0.8908157236116047</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.028263821874301</v>
       </c>
       <c r="J19">
-        <v>0.8488208763019004</v>
+        <v>0.8488208763019026</v>
       </c>
       <c r="K19">
         <v>1.006509879279023</v>
       </c>
       <c r="L19">
-        <v>0.8645783255083669</v>
+        <v>0.8645783255083686</v>
       </c>
       <c r="M19">
-        <v>0.9067524073695049</v>
+        <v>0.9067524073695066</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.798436818818298</v>
+        <v>0.7984368188182974</v>
       </c>
       <c r="D20">
-        <v>0.9892317627659478</v>
+        <v>0.9892317627659483</v>
       </c>
       <c r="E20">
-        <v>0.8358956047169153</v>
+        <v>0.8358956047169147</v>
       </c>
       <c r="F20">
-        <v>0.8810378806436753</v>
+        <v>0.8810378806436751</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.026265170533094</v>
       </c>
       <c r="J20">
-        <v>0.8367731907227735</v>
+        <v>0.8367731907227726</v>
       </c>
       <c r="K20">
         <v>1.003466638778419</v>
       </c>
       <c r="L20">
-        <v>0.8536027398865161</v>
+        <v>0.8536027398865156</v>
       </c>
       <c r="M20">
         <v>0.8975536872994875</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7373429423264035</v>
+        <v>0.7373429423264053</v>
       </c>
       <c r="D21">
-        <v>0.9753007856487902</v>
+        <v>0.9753007856487905</v>
       </c>
       <c r="E21">
-        <v>0.7851517333349949</v>
+        <v>0.7851517333349963</v>
       </c>
       <c r="F21">
-        <v>0.8392181633946002</v>
+        <v>0.8392181633946016</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.017853784182321</v>
       </c>
       <c r="J21">
-        <v>0.784161400187001</v>
+        <v>0.7841614001870026</v>
       </c>
       <c r="K21">
-        <v>0.9907657037288238</v>
+        <v>0.9907657037288241</v>
       </c>
       <c r="L21">
-        <v>0.8057873190140838</v>
+        <v>0.8057873190140854</v>
       </c>
       <c r="M21">
-        <v>0.8580546850001307</v>
+        <v>0.8580546850001319</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7373429423264035</v>
+        <v>0.7373429423264053</v>
       </c>
       <c r="D22">
-        <v>0.9753007856487902</v>
+        <v>0.9753007856487905</v>
       </c>
       <c r="E22">
-        <v>0.7851517333349949</v>
+        <v>0.7851517333349963</v>
       </c>
       <c r="F22">
-        <v>0.8392181633946002</v>
+        <v>0.8392181633946016</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.017853784182321</v>
       </c>
       <c r="J22">
-        <v>0.784161400187001</v>
+        <v>0.7841614001870026</v>
       </c>
       <c r="K22">
-        <v>0.9907657037288238</v>
+        <v>0.9907657037288241</v>
       </c>
       <c r="L22">
-        <v>0.8057873190140838</v>
+        <v>0.8057873190140854</v>
       </c>
       <c r="M22">
-        <v>0.8580546850001307</v>
+        <v>0.8580546850001319</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7076458440888296</v>
+        <v>0.7076458440888379</v>
       </c>
       <c r="D23">
-        <v>0.9691405028895508</v>
+        <v>0.9691405028895524</v>
       </c>
       <c r="E23">
-        <v>0.7608368426390036</v>
+        <v>0.7608368426390109</v>
       </c>
       <c r="F23">
-        <v>0.8196442055795572</v>
+        <v>0.8196442055795625</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014013841252779</v>
+        <v>1.01401384125278</v>
       </c>
       <c r="J23">
-        <v>0.7588001095976459</v>
+        <v>0.7588001095976532</v>
       </c>
       <c r="K23">
-        <v>0.9850214689421279</v>
+        <v>0.9850214689421294</v>
       </c>
       <c r="L23">
-        <v>0.7828248211106973</v>
+        <v>0.7828248211107042</v>
       </c>
       <c r="M23">
-        <v>0.8394700935350859</v>
+        <v>0.8394700935350912</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7992331496448002</v>
+        <v>0.7992331496448039</v>
       </c>
       <c r="D24">
-        <v>0.9894239694145731</v>
+        <v>0.9894239694145728</v>
       </c>
       <c r="E24">
-        <v>0.8365624363757762</v>
+        <v>0.8365624363757794</v>
       </c>
       <c r="F24">
-        <v>0.8815951341935102</v>
+        <v>0.8815951341935121</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026378808288804</v>
       </c>
       <c r="J24">
-        <v>0.8374621005516947</v>
+        <v>0.837462100551698</v>
       </c>
       <c r="K24">
         <v>1.00363939294118</v>
       </c>
       <c r="L24">
-        <v>0.8542301245018283</v>
+        <v>0.8542301245018316</v>
       </c>
       <c r="M24">
-        <v>0.8980782922064081</v>
+        <v>0.8980782922064101</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8578170305875916</v>
+        <v>0.8578170305875915</v>
       </c>
       <c r="D25">
         <v>1.004253458814943</v>
       </c>
       <c r="E25">
-        <v>0.8859213690098919</v>
+        <v>0.8859213690098918</v>
       </c>
       <c r="F25">
-        <v>0.9233045480331548</v>
+        <v>0.923304548033155</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03495906513855</v>
+        <v>1.034959065138551</v>
       </c>
       <c r="J25">
-        <v>0.8883011295641949</v>
+        <v>0.888301129564195</v>
       </c>
       <c r="K25">
-        <v>1.016786102215301</v>
+        <v>1.016786102215302</v>
       </c>
       <c r="L25">
-        <v>0.9005928798265479</v>
+        <v>0.9005928798265477</v>
       </c>
       <c r="M25">
-        <v>0.9372228480838974</v>
+        <v>0.9372228480838976</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8930677812913949</v>
+        <v>0.8988064199417625</v>
       </c>
       <c r="D2">
-        <v>1.013777981353328</v>
+        <v>1.01473735140361</v>
       </c>
       <c r="E2">
-        <v>0.9158565851138003</v>
+        <v>0.9206678034735646</v>
       </c>
       <c r="F2">
-        <v>0.9489751572576992</v>
+        <v>0.9524880378234518</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040272913242216</v>
+        <v>1.0409169070476</v>
       </c>
       <c r="J2">
-        <v>0.9189959544465225</v>
+        <v>0.9245012403326001</v>
       </c>
       <c r="K2">
-        <v>1.025048647007998</v>
+        <v>1.025995119696108</v>
       </c>
       <c r="L2">
-        <v>0.9286275315326622</v>
+        <v>0.9333554005320763</v>
       </c>
       <c r="M2">
-        <v>0.9611942935376082</v>
+        <v>0.9646515254367239</v>
+      </c>
+      <c r="N2">
+        <v>0.9258141381356462</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9150110376407601</v>
+        <v>0.9205606995873434</v>
       </c>
       <c r="D3">
-        <v>1.019905797986648</v>
+        <v>1.020829310667926</v>
       </c>
       <c r="E3">
-        <v>0.9345578249898401</v>
+        <v>0.9392183334663659</v>
       </c>
       <c r="F3">
-        <v>0.9651227098080486</v>
+        <v>0.9685128122800416</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043604876244761</v>
+        <v>1.0442258030581</v>
       </c>
       <c r="J3">
-        <v>0.9381210437141116</v>
+        <v>0.9434790244915132</v>
       </c>
       <c r="K3">
-        <v>1.030290161425371</v>
+        <v>1.031202436735586</v>
       </c>
       <c r="L3">
-        <v>0.9461026907700146</v>
+        <v>0.9506929053337388</v>
       </c>
       <c r="M3">
-        <v>0.9762221984425826</v>
+        <v>0.9795650869952884</v>
+      </c>
+      <c r="N3">
+        <v>0.944818872924848</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.927993673597581</v>
+        <v>0.9334503984176775</v>
       </c>
       <c r="D4">
-        <v>1.023595413712846</v>
+        <v>1.024501023540773</v>
       </c>
       <c r="E4">
-        <v>0.9456417917382911</v>
+        <v>0.9502283310612737</v>
       </c>
       <c r="F4">
-        <v>0.9747254470763564</v>
+        <v>0.9780546629319455</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04557571514007</v>
+        <v>1.046185222778758</v>
       </c>
       <c r="J4">
-        <v>0.9494376612336362</v>
+        <v>0.9547245332414009</v>
       </c>
       <c r="K4">
-        <v>1.033417165155459</v>
+        <v>1.034312469316293</v>
       </c>
       <c r="L4">
-        <v>0.9564437856788043</v>
+        <v>0.9609670455567249</v>
       </c>
       <c r="M4">
-        <v>0.9851387987820842</v>
+        <v>0.9884253692810897</v>
+      </c>
+      <c r="N4">
+        <v>0.9560803515870382</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9332081122534535</v>
+        <v>0.9386309754797418</v>
       </c>
       <c r="D5">
-        <v>1.025089703005945</v>
+        <v>1.025988738297156</v>
       </c>
       <c r="E5">
-        <v>0.9500971428686672</v>
+        <v>0.9546567740047553</v>
       </c>
       <c r="F5">
-        <v>0.978591166944348</v>
+        <v>0.9818981026254383</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046365896154775</v>
+        <v>1.046971233003581</v>
       </c>
       <c r="J5">
-        <v>0.9539825674615331</v>
+        <v>0.9592438353373622</v>
       </c>
       <c r="K5">
-        <v>1.03467720911971</v>
+        <v>1.035566304364026</v>
       </c>
       <c r="L5">
-        <v>0.9605968197280415</v>
+        <v>0.9650958615473992</v>
       </c>
       <c r="M5">
-        <v>0.9887237506112883</v>
+        <v>0.9919898001578538</v>
+      </c>
+      <c r="N5">
+        <v>0.9606060716103472</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.934070498425788</v>
+        <v>0.9394879421487402</v>
       </c>
       <c r="D6">
-        <v>1.025337488131057</v>
+        <v>1.026235468432716</v>
       </c>
       <c r="E6">
-        <v>0.9508341666372159</v>
+        <v>0.9553894938538368</v>
       </c>
       <c r="F6">
-        <v>0.9792309424546444</v>
+        <v>0.9825343071333626</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046496464978556</v>
+        <v>1.047101133895066</v>
       </c>
       <c r="J6">
-        <v>0.9547341841628765</v>
+        <v>0.9599913718759395</v>
       </c>
       <c r="K6">
-        <v>1.034885788707022</v>
+        <v>1.035773888999973</v>
       </c>
       <c r="L6">
-        <v>0.9612836185415645</v>
+        <v>0.9657787948078873</v>
       </c>
       <c r="M6">
-        <v>0.9893167983005497</v>
+        <v>0.9925795638982557</v>
+      </c>
+      <c r="N6">
+        <v>0.9613546697365528</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9280642529178172</v>
+        <v>0.9335205066691418</v>
       </c>
       <c r="D7">
-        <v>1.02361559354467</v>
+        <v>1.024521112108906</v>
       </c>
       <c r="E7">
-        <v>0.9457020838219403</v>
+        <v>0.950288248624633</v>
       </c>
       <c r="F7">
-        <v>0.9747777391933188</v>
+        <v>0.9781066454649586</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045586417631868</v>
+        <v>1.046195867280858</v>
       </c>
       <c r="J7">
-        <v>0.9494991805071444</v>
+        <v>0.9547856950752428</v>
       </c>
       <c r="K7">
-        <v>1.033434206424604</v>
+        <v>1.034329424301261</v>
       </c>
       <c r="L7">
-        <v>0.9565000012842518</v>
+        <v>0.9610229235169147</v>
       </c>
       <c r="M7">
-        <v>0.9851873107539076</v>
+        <v>0.9884735957564929</v>
+      </c>
+      <c r="N7">
+        <v>0.9561416002776997</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9007691556204257</v>
+        <v>0.9064364769934986</v>
       </c>
       <c r="D8">
-        <v>1.015912359402747</v>
+        <v>1.016858274560711</v>
       </c>
       <c r="E8">
-        <v>0.9224149704720285</v>
+        <v>0.9271692816710627</v>
       </c>
       <c r="F8">
-        <v>0.9546294327407686</v>
+        <v>0.9580961250103918</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041441502693238</v>
+        <v>1.042076816275445</v>
       </c>
       <c r="J8">
-        <v>0.9257074210038446</v>
+        <v>0.9311567706129115</v>
       </c>
       <c r="K8">
-        <v>1.026881016692149</v>
+        <v>1.027814630988523</v>
       </c>
       <c r="L8">
-        <v>0.9347596218590327</v>
+        <v>0.9394353560353497</v>
       </c>
       <c r="M8">
-        <v>0.9664611911707279</v>
+        <v>0.969875308059195</v>
+      </c>
+      <c r="N8">
+        <v>0.932479120032356</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8399370160323006</v>
+        <v>0.8463651997428768</v>
       </c>
       <c r="D9">
-        <v>0.9995880963556163</v>
+        <v>1.000674198885266</v>
       </c>
       <c r="E9">
-        <v>0.8707988749389272</v>
+        <v>0.8761606761123403</v>
       </c>
       <c r="F9">
-        <v>0.9104355004489099</v>
+        <v>0.9143883957416333</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032299421325998</v>
+        <v>1.033025991245509</v>
       </c>
       <c r="J9">
-        <v>0.8727562805642344</v>
+        <v>0.8788143655937997</v>
       </c>
       <c r="K9">
-        <v>1.012687859945931</v>
+        <v>1.01375634714522</v>
       </c>
       <c r="L9">
-        <v>0.8864051392334327</v>
+        <v>0.8916429313553363</v>
       </c>
       <c r="M9">
-        <v>0.9251705836602625</v>
+        <v>0.9290420578208941</v>
+      </c>
+      <c r="N9">
+        <v>0.8800623827943593</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7806953949659327</v>
+        <v>0.788619468187129</v>
       </c>
       <c r="D10">
-        <v>0.9850186004619537</v>
+        <v>0.9863690518242939</v>
       </c>
       <c r="E10">
-        <v>0.8210724480728248</v>
+        <v>0.8276261928833397</v>
       </c>
       <c r="F10">
-        <v>0.8686989416726473</v>
+        <v>0.873584489038899</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023758234778043</v>
+        <v>1.024658905464166</v>
       </c>
       <c r="J10">
-        <v>0.8214436945567977</v>
+        <v>0.8287293649729344</v>
       </c>
       <c r="K10">
-        <v>0.9996637216606848</v>
+        <v>1.0009888572671</v>
       </c>
       <c r="L10">
-        <v>0.8396498769284825</v>
+        <v>0.8460051683583198</v>
       </c>
       <c r="M10">
-        <v>0.8859264472305934</v>
+        <v>0.8906847716611057</v>
+      </c>
+      <c r="N10">
+        <v>0.8299062557277828</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7424888901123609</v>
+        <v>0.7523268888614985</v>
       </c>
       <c r="D11">
-        <v>0.976410065213941</v>
+        <v>0.9780904628422692</v>
       </c>
       <c r="E11">
-        <v>0.7893907975699058</v>
+        <v>0.7974646753509868</v>
       </c>
       <c r="F11">
-        <v>0.8426638343328917</v>
+        <v>0.8487240903946425</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018536849535277</v>
+        <v>1.019655871082157</v>
       </c>
       <c r="J11">
-        <v>0.7885719207485998</v>
+        <v>0.7974445122298177</v>
       </c>
       <c r="K11">
-        <v>0.9917909999207674</v>
+        <v>0.9934377365461712</v>
       </c>
       <c r="L11">
-        <v>0.8097872005112441</v>
+        <v>0.817576306159616</v>
       </c>
       <c r="M11">
-        <v>0.8613193368410139</v>
+        <v>0.8672005049369934</v>
+      </c>
+      <c r="N11">
+        <v>0.7985769749053478</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7232024629165109</v>
+        <v>0.73463477045242</v>
       </c>
       <c r="D12">
-        <v>0.9723157654839204</v>
+        <v>0.9742680226515652</v>
       </c>
       <c r="E12">
-        <v>0.7735413262683718</v>
+        <v>0.7828788986375765</v>
       </c>
       <c r="F12">
-        <v>0.8298301620704756</v>
+        <v>0.8368617761925943</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01600324513397</v>
+        <v>1.017302480115645</v>
       </c>
       <c r="J12">
-        <v>0.7720651724235192</v>
+        <v>0.7822643477417379</v>
       </c>
       <c r="K12">
-        <v>0.98799329151761</v>
+        <v>0.9899053880445808</v>
       </c>
       <c r="L12">
-        <v>0.7948268802175806</v>
+        <v>0.8038107495314478</v>
       </c>
       <c r="M12">
-        <v>0.8491497110073859</v>
+        <v>0.8559613079636119</v>
+      </c>
+      <c r="N12">
+        <v>0.7833752528425059</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7277413384497876</v>
+        <v>0.7387409203629304</v>
       </c>
       <c r="D13">
-        <v>0.9732637488571767</v>
+        <v>0.9751423887855358</v>
       </c>
       <c r="E13">
-        <v>0.7772618419554514</v>
+        <v>0.7862565933968823</v>
       </c>
       <c r="F13">
-        <v>0.8328304874234079</v>
+        <v>0.8395988799510382</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016592945524009</v>
+        <v>1.017843364522948</v>
       </c>
       <c r="J13">
-        <v>0.7759440220684807</v>
+        <v>0.7857828986939521</v>
       </c>
       <c r="K13">
-        <v>0.9888759216626849</v>
+        <v>0.9907161412688856</v>
       </c>
       <c r="L13">
-        <v>0.7983399400555203</v>
+        <v>0.8069995314508253</v>
       </c>
       <c r="M13">
-        <v>0.8519973180492876</v>
+        <v>0.8585566748964435</v>
+      </c>
+      <c r="N13">
+        <v>0.7868988005406558</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7410503237293224</v>
+        <v>0.7509876895203013</v>
       </c>
       <c r="D14">
-        <v>0.9760987379862959</v>
+        <v>0.9777961371503116</v>
       </c>
       <c r="E14">
-        <v>0.7882050329932031</v>
+        <v>0.7963577272911719</v>
       </c>
       <c r="F14">
-        <v>0.8416990512626716</v>
+        <v>0.8478199900554152</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018345389411889</v>
+        <v>1.019475675686244</v>
       </c>
       <c r="J14">
-        <v>0.7873385052165598</v>
+        <v>0.7962936945646643</v>
       </c>
       <c r="K14">
-        <v>0.9915035077192568</v>
+        <v>0.9931668325846437</v>
       </c>
       <c r="L14">
-        <v>0.8086684411260947</v>
+        <v>0.8165320107628156</v>
       </c>
       <c r="M14">
-        <v>0.860405435959101</v>
+        <v>0.8663446926219166</v>
+      </c>
+      <c r="N14">
+        <v>0.7974245229471093</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7483483986766764</v>
+        <v>0.7578075851146525</v>
       </c>
       <c r="D15">
-        <v>0.9776879153779736</v>
+        <v>0.9793034086442914</v>
       </c>
       <c r="E15">
-        <v>0.7942262664711141</v>
+        <v>0.8019995946507454</v>
       </c>
       <c r="F15">
-        <v>0.846605677363294</v>
+        <v>0.8524343768294841</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019320710065107</v>
+        <v>1.02039673678815</v>
       </c>
       <c r="J15">
-        <v>0.7935992647103108</v>
+        <v>0.802157109044585</v>
       </c>
       <c r="K15">
-        <v>0.9929688927356012</v>
+        <v>0.9945523139174194</v>
       </c>
       <c r="L15">
-        <v>0.8143486230057709</v>
+        <v>0.8218538610315343</v>
       </c>
       <c r="M15">
-        <v>0.8650517194026391</v>
+        <v>0.8707112887382475</v>
+      </c>
+      <c r="N15">
+        <v>0.8032962641481348</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7828196031836054</v>
+        <v>0.7906672326904728</v>
       </c>
       <c r="D16">
-        <v>0.9855160133162701</v>
+        <v>0.9868531487625454</v>
       </c>
       <c r="E16">
-        <v>0.8228437963945814</v>
+        <v>0.8293367263893069</v>
       </c>
       <c r="F16">
-        <v>0.870168438731635</v>
+        <v>0.8750067482771184</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024055816467082</v>
+        <v>1.024947690707342</v>
       </c>
       <c r="J16">
-        <v>0.8232771492113472</v>
+        <v>0.8304996783120199</v>
       </c>
       <c r="K16">
-        <v>1.000114336217935</v>
+        <v>1.00142651200481</v>
       </c>
       <c r="L16">
-        <v>0.8413178820114811</v>
+        <v>0.847615947609454</v>
       </c>
       <c r="M16">
-        <v>0.8873123231750315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8920255888845423</v>
+      </c>
+      <c r="N16">
+        <v>0.8316790831148673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8001928164678743</v>
+        <v>0.8074937905600925</v>
       </c>
       <c r="D17">
-        <v>0.9896559486278825</v>
+        <v>0.9908973781537338</v>
       </c>
       <c r="E17">
-        <v>0.8373662059646291</v>
+        <v>0.843423959183574</v>
       </c>
       <c r="F17">
-        <v>0.8822670650207619</v>
+        <v>0.8867664913151777</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026515876687462</v>
+        <v>1.027344589434364</v>
       </c>
       <c r="J17">
-        <v>0.8382924039942021</v>
+        <v>0.8450643487896939</v>
       </c>
       <c r="K17">
-        <v>1.003847810426199</v>
+        <v>1.005066914175377</v>
       </c>
       <c r="L17">
-        <v>0.854986311976534</v>
+        <v>0.8608753829104759</v>
       </c>
       <c r="M17">
-        <v>0.8987107980227587</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9031011538662813</v>
+      </c>
+      <c r="N17">
+        <v>0.8462644370952109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8093600632868905</v>
+        <v>0.8164199894769998</v>
       </c>
       <c r="D18">
-        <v>0.9918910113106369</v>
+        <v>0.9930899136362836</v>
       </c>
       <c r="E18">
-        <v>0.8450530633846353</v>
+        <v>0.8509187542572203</v>
       </c>
       <c r="F18">
-        <v>0.888706215981606</v>
+        <v>0.8930554937225854</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027831813561575</v>
+        <v>1.028632504258935</v>
       </c>
       <c r="J18">
-        <v>0.8462287539483828</v>
+        <v>0.8528026864582009</v>
       </c>
       <c r="K18">
-        <v>1.005851200059097</v>
+        <v>1.007028999816832</v>
       </c>
       <c r="L18">
-        <v>0.8622162013243034</v>
+        <v>0.8679251129954465</v>
       </c>
       <c r="M18">
-        <v>0.9047689593448534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9090164792894634</v>
+      </c>
+      <c r="N18">
+        <v>0.8540137640908068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8123521002137697</v>
+        <v>0.8193392909651167</v>
       </c>
       <c r="D19">
-        <v>0.992627902838644</v>
+        <v>0.9938139251115393</v>
       </c>
       <c r="E19">
-        <v>0.8475652959126413</v>
+        <v>0.8533730107926714</v>
       </c>
       <c r="F19">
-        <v>0.8908157236116047</v>
+        <v>0.8951195912928382</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028263821874301</v>
+        <v>1.029056032446826</v>
       </c>
       <c r="J19">
-        <v>0.8488208763019026</v>
+        <v>0.8553351633279397</v>
       </c>
       <c r="K19">
-        <v>1.006509879279023</v>
+        <v>1.007675177572287</v>
       </c>
       <c r="L19">
-        <v>0.8645783255083686</v>
+        <v>0.8702329068372523</v>
       </c>
       <c r="M19">
-        <v>0.9067524073695066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9109567641656755</v>
+      </c>
+      <c r="N19">
+        <v>0.8565498373681799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7984368188182974</v>
+        <v>0.8057873561698303</v>
       </c>
       <c r="D20">
-        <v>0.9892317627659483</v>
+        <v>0.9904819090425984</v>
       </c>
       <c r="E20">
-        <v>0.8358956047169147</v>
+        <v>0.8419928355222329</v>
       </c>
       <c r="F20">
-        <v>0.8810378806436751</v>
+        <v>0.8855681197382561</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026265170533094</v>
+        <v>1.027099630739164</v>
       </c>
       <c r="J20">
-        <v>0.8367731907227726</v>
+        <v>0.843585908539791</v>
       </c>
       <c r="K20">
-        <v>1.003466638778419</v>
+        <v>1.004694213123738</v>
       </c>
       <c r="L20">
-        <v>0.8536027398865156</v>
+        <v>0.8595288716577643</v>
       </c>
       <c r="M20">
-        <v>0.8975536872994875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9019733753750961</v>
+      </c>
+      <c r="N20">
+        <v>0.8447838972905737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7373429423264053</v>
+        <v>0.747549096585311</v>
       </c>
       <c r="D21">
-        <v>0.9753007856487905</v>
+        <v>0.977044129604805</v>
       </c>
       <c r="E21">
-        <v>0.7851517333349963</v>
+        <v>0.7935175856233427</v>
       </c>
       <c r="F21">
-        <v>0.8392181633946016</v>
+        <v>0.8455031408304419</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017853784182321</v>
+        <v>1.019014516461733</v>
       </c>
       <c r="J21">
-        <v>0.7841614001870026</v>
+        <v>0.7933400832238826</v>
       </c>
       <c r="K21">
-        <v>0.9907657037288241</v>
+        <v>0.9924738618827621</v>
       </c>
       <c r="L21">
-        <v>0.8057873190140854</v>
+        <v>0.8138523167290977</v>
       </c>
       <c r="M21">
-        <v>0.8580546850001319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8641509965823049</v>
+      </c>
+      <c r="N21">
+        <v>0.7944667171394398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7373429423264053</v>
+        <v>0.6600564095859247</v>
       </c>
       <c r="D22">
-        <v>0.9753007856487905</v>
+        <v>0.9597872902680832</v>
       </c>
       <c r="E22">
-        <v>0.7851517333349963</v>
+        <v>0.7224676285651296</v>
       </c>
       <c r="F22">
-        <v>0.8392181633946016</v>
+        <v>0.7890436438528843</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017853784182321</v>
+        <v>1.008090815181704</v>
       </c>
       <c r="J22">
-        <v>0.7841614001870026</v>
+        <v>0.7189447742871097</v>
       </c>
       <c r="K22">
-        <v>0.9907657037288241</v>
+        <v>0.9761997964668777</v>
       </c>
       <c r="L22">
-        <v>0.8057873190140854</v>
+        <v>0.7466655588020434</v>
       </c>
       <c r="M22">
-        <v>0.8580546850001319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8103898738604215</v>
+      </c>
+      <c r="N22">
+        <v>0.7199657583307154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7076458440888379</v>
+        <v>0.7209394554464791</v>
       </c>
       <c r="D23">
-        <v>0.9691405028895524</v>
+        <v>0.9714084235105584</v>
       </c>
       <c r="E23">
-        <v>0.7608368426390109</v>
+        <v>0.7716479329194537</v>
       </c>
       <c r="F23">
-        <v>0.8196442055795625</v>
+        <v>0.8278055174720783</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01401384125278</v>
+        <v>1.015522479781194</v>
       </c>
       <c r="J23">
-        <v>0.7588001095976532</v>
+        <v>0.7705503346898609</v>
       </c>
       <c r="K23">
-        <v>0.9850214689421294</v>
+        <v>0.9872418743583909</v>
       </c>
       <c r="L23">
-        <v>0.7828248211107042</v>
+        <v>0.7932034036074467</v>
       </c>
       <c r="M23">
-        <v>0.8394700935350912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8473648859612625</v>
+      </c>
+      <c r="N23">
+        <v>0.7716446045484792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7992331496448039</v>
+        <v>0.8065610672816738</v>
       </c>
       <c r="D24">
-        <v>0.9894239694145728</v>
+        <v>0.9906701386264033</v>
       </c>
       <c r="E24">
-        <v>0.8365624363757794</v>
+        <v>0.8426416509325847</v>
       </c>
       <c r="F24">
-        <v>0.8815951341935121</v>
+        <v>0.8861113133204319</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026378808288804</v>
+        <v>1.027210646037106</v>
       </c>
       <c r="J24">
-        <v>0.837462100551698</v>
+        <v>0.8442562080695892</v>
       </c>
       <c r="K24">
-        <v>1.00363939294118</v>
+        <v>1.00486310235292</v>
       </c>
       <c r="L24">
-        <v>0.8542301245018316</v>
+        <v>0.8601393417758318</v>
       </c>
       <c r="M24">
-        <v>0.8980782922064101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.902484595110908</v>
+      </c>
+      <c r="N24">
+        <v>0.8454551487225886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8578170305875915</v>
+        <v>0.8639675400271154</v>
       </c>
       <c r="D25">
-        <v>1.004253458814943</v>
+        <v>1.005289127239574</v>
       </c>
       <c r="E25">
-        <v>0.8859213690098918</v>
+        <v>0.891061473320607</v>
       </c>
       <c r="F25">
-        <v>0.923304548033155</v>
+        <v>0.9270814476210285</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034959065138551</v>
+        <v>1.035652643898936</v>
       </c>
       <c r="J25">
-        <v>0.888301129564195</v>
+        <v>0.8941347067087135</v>
       </c>
       <c r="K25">
-        <v>1.016786102215302</v>
+        <v>1.017805887455441</v>
       </c>
       <c r="L25">
-        <v>0.9005928798265477</v>
+        <v>0.9056244629329625</v>
       </c>
       <c r="M25">
-        <v>0.9372228480838976</v>
+        <v>0.9409280632795336</v>
+      </c>
+      <c r="N25">
+        <v>0.8954044805509243</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8988064199417625</v>
+        <v>0.9726070400232699</v>
       </c>
       <c r="D2">
-        <v>1.01473735140361</v>
+        <v>1.033290234008088</v>
       </c>
       <c r="E2">
-        <v>0.9206678034735646</v>
+        <v>0.9822091106315015</v>
       </c>
       <c r="F2">
-        <v>0.9524880378234518</v>
+        <v>1.023621552565682</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0409169070476</v>
+        <v>1.045699139762429</v>
       </c>
       <c r="J2">
-        <v>0.9245012403326001</v>
+        <v>0.995639121571645</v>
       </c>
       <c r="K2">
-        <v>1.025995119696108</v>
+        <v>1.044304475731318</v>
       </c>
       <c r="L2">
-        <v>0.9333554005320763</v>
+        <v>0.9939219941382587</v>
       </c>
       <c r="M2">
-        <v>0.9646515254367239</v>
+        <v>1.034761325427969</v>
       </c>
       <c r="N2">
-        <v>0.9258141381356462</v>
+        <v>0.9970530433256802</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9205606995873434</v>
+        <v>0.9808071810535844</v>
       </c>
       <c r="D3">
-        <v>1.020829310667926</v>
+        <v>1.037634755223137</v>
       </c>
       <c r="E3">
-        <v>0.9392183334663659</v>
+        <v>0.9890417450092613</v>
       </c>
       <c r="F3">
-        <v>0.9685128122800416</v>
+        <v>1.029409192886849</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0442258030581</v>
+        <v>1.047394641183368</v>
       </c>
       <c r="J3">
-        <v>0.9434790244915132</v>
+        <v>1.001835096871144</v>
       </c>
       <c r="K3">
-        <v>1.031202436735586</v>
+        <v>1.047807714689516</v>
       </c>
       <c r="L3">
-        <v>0.9506929053337388</v>
+        <v>0.9998167858946593</v>
       </c>
       <c r="M3">
-        <v>0.9795650869952884</v>
+        <v>1.039679113310579</v>
       </c>
       <c r="N3">
-        <v>0.944818872924848</v>
+        <v>1.003257817620792</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9334503984176775</v>
+        <v>0.98594217319279</v>
       </c>
       <c r="D4">
-        <v>1.024501023540773</v>
+        <v>1.040366120245435</v>
       </c>
       <c r="E4">
-        <v>0.9502283310612737</v>
+        <v>0.9933276444477684</v>
       </c>
       <c r="F4">
-        <v>0.9780546629319455</v>
+        <v>1.033047823901539</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046185222778758</v>
+        <v>1.048446449254811</v>
       </c>
       <c r="J4">
-        <v>0.9547245332414009</v>
+        <v>1.005712446154613</v>
       </c>
       <c r="K4">
-        <v>1.034312469316293</v>
+        <v>1.050000599669675</v>
       </c>
       <c r="L4">
-        <v>0.9609670455567249</v>
+        <v>1.003507271637254</v>
       </c>
       <c r="M4">
-        <v>0.9884253692810897</v>
+        <v>1.042763103920442</v>
       </c>
       <c r="N4">
-        <v>0.9560803515870382</v>
+        <v>1.007140673184983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9386309754797418</v>
+        <v>0.988062502754028</v>
       </c>
       <c r="D5">
-        <v>1.025988738297156</v>
+        <v>1.041496198251585</v>
       </c>
       <c r="E5">
-        <v>0.9546567740047553</v>
+        <v>0.9950989790755852</v>
       </c>
       <c r="F5">
-        <v>0.9818981026254383</v>
+        <v>1.034553387532556</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046971233003581</v>
+        <v>1.048878241230518</v>
       </c>
       <c r="J5">
-        <v>0.9592438353373622</v>
+        <v>1.007312746662757</v>
       </c>
       <c r="K5">
-        <v>1.035566304364026</v>
+        <v>1.050905616354818</v>
       </c>
       <c r="L5">
-        <v>0.9650958615473992</v>
+        <v>1.005030821948314</v>
       </c>
       <c r="M5">
-        <v>0.9919898001578538</v>
+        <v>1.044037322462458</v>
       </c>
       <c r="N5">
-        <v>0.9606060716103472</v>
+        <v>1.008743246303405</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9394879421487402</v>
+        <v>0.9884163315129507</v>
       </c>
       <c r="D6">
-        <v>1.026235468432716</v>
+        <v>1.041684902185256</v>
       </c>
       <c r="E6">
-        <v>0.9553894938538368</v>
+        <v>0.9953946606844435</v>
       </c>
       <c r="F6">
-        <v>0.9825343071333626</v>
+        <v>1.034804801044813</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047101133895066</v>
+        <v>1.048950144338085</v>
       </c>
       <c r="J6">
-        <v>0.9599913718759395</v>
+        <v>1.007579750473865</v>
       </c>
       <c r="K6">
-        <v>1.035773888999973</v>
+        <v>1.05105660605827</v>
       </c>
       <c r="L6">
-        <v>0.9657787948078873</v>
+        <v>1.00528504194933</v>
       </c>
       <c r="M6">
-        <v>0.9925795638982557</v>
+        <v>1.044249995297482</v>
       </c>
       <c r="N6">
-        <v>0.9613546697365528</v>
+        <v>1.00901062929055</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9335205066691418</v>
+        <v>0.9859706529422175</v>
       </c>
       <c r="D7">
-        <v>1.024521112108906</v>
+        <v>1.040381290704621</v>
       </c>
       <c r="E7">
-        <v>0.950288248624633</v>
+        <v>0.9933514303675403</v>
       </c>
       <c r="F7">
-        <v>0.9781066454649586</v>
+        <v>1.033068034385234</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046195867280858</v>
+        <v>1.048452259125508</v>
       </c>
       <c r="J7">
-        <v>0.9547856950752428</v>
+        <v>1.005733943999152</v>
       </c>
       <c r="K7">
-        <v>1.034329424301261</v>
+        <v>1.050012757797563</v>
       </c>
       <c r="L7">
-        <v>0.9610229235169147</v>
+        <v>1.003527736982362</v>
       </c>
       <c r="M7">
-        <v>0.9884735957564929</v>
+        <v>1.042780216163408</v>
       </c>
       <c r="N7">
-        <v>0.9561416002776997</v>
+        <v>1.007162201558926</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9064364769934986</v>
+        <v>0.9754153323451733</v>
       </c>
       <c r="D8">
-        <v>1.016858274560711</v>
+        <v>1.034775596691718</v>
       </c>
       <c r="E8">
-        <v>0.9271692816710627</v>
+        <v>0.9845474582380503</v>
       </c>
       <c r="F8">
-        <v>0.9580961250103918</v>
+        <v>1.025600383534041</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042076816275445</v>
+        <v>1.046281808421219</v>
       </c>
       <c r="J8">
-        <v>0.9311567706129115</v>
+        <v>0.997761540661229</v>
       </c>
       <c r="K8">
-        <v>1.027814630988523</v>
+        <v>1.045504246108414</v>
       </c>
       <c r="L8">
-        <v>0.9394353560353497</v>
+        <v>0.9959408938989376</v>
       </c>
       <c r="M8">
-        <v>0.969875308059195</v>
+        <v>1.036444397298007</v>
       </c>
       <c r="N8">
-        <v>0.932479120032356</v>
+        <v>0.9991784764938165</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8463651997428768</v>
+        <v>0.9553776045500635</v>
       </c>
       <c r="D9">
-        <v>1.000674198885266</v>
+        <v>1.024240062854213</v>
       </c>
       <c r="E9">
-        <v>0.8761606761123403</v>
+        <v>0.9679005459955741</v>
       </c>
       <c r="F9">
-        <v>0.9143883957416333</v>
+        <v>1.011559430151864</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033025991245509</v>
+        <v>1.042087424142524</v>
       </c>
       <c r="J9">
-        <v>0.8788143655937997</v>
+        <v>0.9826108444475545</v>
       </c>
       <c r="K9">
-        <v>1.01375634714522</v>
+        <v>1.036951733646533</v>
       </c>
       <c r="L9">
-        <v>0.8916429313553363</v>
+        <v>0.9815368078855963</v>
       </c>
       <c r="M9">
-        <v>0.9290420578208941</v>
+        <v>1.02446770685059</v>
       </c>
       <c r="N9">
-        <v>0.8800623827943593</v>
+        <v>0.984006264553709</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.788619468187129</v>
+        <v>0.9408466553236202</v>
       </c>
       <c r="D10">
-        <v>0.9863690518242939</v>
+        <v>1.016701053812902</v>
       </c>
       <c r="E10">
-        <v>0.8276261928833397</v>
+        <v>0.95588502788619</v>
       </c>
       <c r="F10">
-        <v>0.873584489038899</v>
+        <v>1.001498648824751</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024658905464166</v>
+        <v>1.039006124020109</v>
       </c>
       <c r="J10">
-        <v>0.8287293649729344</v>
+        <v>0.9716210376048799</v>
       </c>
       <c r="K10">
-        <v>1.0009888572671</v>
+        <v>1.030775173741106</v>
       </c>
       <c r="L10">
-        <v>0.8460051683583198</v>
+        <v>0.971099248761021</v>
       </c>
       <c r="M10">
-        <v>0.8906847716611057</v>
+        <v>1.015840897321512</v>
       </c>
       <c r="N10">
-        <v>0.8299062557277828</v>
+        <v>0.9730008509247694</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7523268888614985</v>
+        <v>0.9342208313041482</v>
       </c>
       <c r="D11">
-        <v>0.9780904628422692</v>
+        <v>1.013294931848866</v>
       </c>
       <c r="E11">
-        <v>0.7974646753509868</v>
+        <v>0.9504226259134994</v>
       </c>
       <c r="F11">
-        <v>0.8487240903946425</v>
+        <v>0.9969476251728328</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019655871082157</v>
+        <v>1.037594552570474</v>
       </c>
       <c r="J11">
-        <v>0.7974445122298177</v>
+        <v>0.9666114304289108</v>
       </c>
       <c r="K11">
-        <v>0.9934377365461712</v>
+        <v>1.027970406248647</v>
       </c>
       <c r="L11">
-        <v>0.817576306159616</v>
+        <v>0.9663442426471764</v>
       </c>
       <c r="M11">
-        <v>0.8672005049369934</v>
+        <v>1.011927335300305</v>
       </c>
       <c r="N11">
-        <v>0.7985769749053478</v>
+        <v>0.9679841295320004</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.73463477045242</v>
+        <v>0.9317038941515194</v>
       </c>
       <c r="D12">
-        <v>0.9742680226515652</v>
+        <v>1.012006519332119</v>
       </c>
       <c r="E12">
-        <v>0.7828788986375765</v>
+        <v>0.948350403643903</v>
       </c>
       <c r="F12">
-        <v>0.8368617761925943</v>
+        <v>0.9952250699984104</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017302480115645</v>
+        <v>1.037057634428536</v>
       </c>
       <c r="J12">
-        <v>0.7822643477417379</v>
+        <v>0.9647088895660018</v>
       </c>
       <c r="K12">
-        <v>0.9899053880445808</v>
+        <v>1.026907252598197</v>
       </c>
       <c r="L12">
-        <v>0.8038107495314478</v>
+        <v>0.9645388569150395</v>
       </c>
       <c r="M12">
-        <v>0.8559613079636119</v>
+        <v>1.010444325473318</v>
       </c>
       <c r="N12">
-        <v>0.7833752528425059</v>
+        <v>0.9660788868428416</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7387409203629304</v>
+        <v>0.9322464120379118</v>
       </c>
       <c r="D13">
-        <v>0.9751423887855358</v>
+        <v>1.01228397352559</v>
       </c>
       <c r="E13">
-        <v>0.7862565933968823</v>
+        <v>0.948796934527358</v>
       </c>
       <c r="F13">
-        <v>0.8395988799510382</v>
+        <v>0.9955960671878326</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017843364522948</v>
+        <v>1.037173392547726</v>
       </c>
       <c r="J13">
-        <v>0.7857828986939521</v>
+        <v>0.9651189522552416</v>
       </c>
       <c r="K13">
-        <v>0.9907161412688856</v>
+        <v>1.027136299466676</v>
       </c>
       <c r="L13">
-        <v>0.8069995314508253</v>
+        <v>0.9649279578748731</v>
       </c>
       <c r="M13">
-        <v>0.8585566748964435</v>
+        <v>1.010763809434218</v>
       </c>
       <c r="N13">
-        <v>0.7868988005406558</v>
+        <v>0.9664895318681349</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7509876895203013</v>
+        <v>0.9340139549665012</v>
       </c>
       <c r="D14">
-        <v>0.9777961371503116</v>
+        <v>1.013188917324821</v>
       </c>
       <c r="E14">
-        <v>0.7963577272911719</v>
+        <v>0.9502522443986563</v>
       </c>
       <c r="F14">
-        <v>0.8478199900554152</v>
+        <v>0.9968059111495949</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019475675686244</v>
+        <v>1.037550433906999</v>
       </c>
       <c r="J14">
-        <v>0.7962936945646643</v>
+        <v>0.9664550431615793</v>
       </c>
       <c r="K14">
-        <v>0.9931668325846437</v>
+        <v>1.027882972066612</v>
       </c>
       <c r="L14">
-        <v>0.8165320107628156</v>
+        <v>0.9661958318627573</v>
       </c>
       <c r="M14">
-        <v>0.8663446926219166</v>
+        <v>1.011805364050042</v>
       </c>
       <c r="N14">
-        <v>0.7974245229471093</v>
+        <v>0.9678275201768114</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7578075851146525</v>
+        <v>0.9350954164370139</v>
       </c>
       <c r="D15">
-        <v>0.9793034086442914</v>
+        <v>1.013743342405754</v>
       </c>
       <c r="E15">
-        <v>0.8019995946507454</v>
+        <v>0.9511430406813411</v>
       </c>
       <c r="F15">
-        <v>0.8524343768294841</v>
+        <v>0.9975469893573311</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02039673678815</v>
+        <v>1.037781040528219</v>
       </c>
       <c r="J15">
-        <v>0.802157109044585</v>
+        <v>0.9672725887887613</v>
       </c>
       <c r="K15">
-        <v>0.9945523139174194</v>
+        <v>1.028340136962879</v>
       </c>
       <c r="L15">
-        <v>0.8218538610315343</v>
+        <v>0.9669716978387216</v>
       </c>
       <c r="M15">
-        <v>0.8707112887382475</v>
+        <v>1.012443128808525</v>
       </c>
       <c r="N15">
-        <v>0.8032962641481348</v>
+        <v>0.968646226812558</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7906672326904728</v>
+        <v>0.9412788931460774</v>
       </c>
       <c r="D16">
-        <v>0.9868531487625454</v>
+        <v>1.016923962381893</v>
       </c>
       <c r="E16">
-        <v>0.8293367263893069</v>
+        <v>0.9562417326085713</v>
       </c>
       <c r="F16">
-        <v>0.8750067482771184</v>
+        <v>1.001796349670735</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024947690707342</v>
+        <v>1.039098095559711</v>
       </c>
       <c r="J16">
-        <v>0.8304996783120199</v>
+        <v>0.9719478900716693</v>
       </c>
       <c r="K16">
-        <v>1.00142651200481</v>
+        <v>1.030958427203075</v>
       </c>
       <c r="L16">
-        <v>0.847615947609454</v>
+        <v>0.9714095514722086</v>
       </c>
       <c r="M16">
-        <v>0.8920255888845423</v>
+        <v>1.016096663415853</v>
       </c>
       <c r="N16">
-        <v>0.8316790831148673</v>
+        <v>0.9733281675595521</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8074937905600925</v>
+        <v>0.9450645250771825</v>
       </c>
       <c r="D17">
-        <v>0.9908973781537338</v>
+        <v>1.018879862881001</v>
       </c>
       <c r="E17">
-        <v>0.843423959183574</v>
+        <v>0.9593677075286839</v>
       </c>
       <c r="F17">
-        <v>0.8867664913151777</v>
+        <v>1.004407857821653</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027344589434364</v>
+        <v>1.039902894868309</v>
       </c>
       <c r="J17">
-        <v>0.8450643487896939</v>
+        <v>0.974810728835783</v>
       </c>
       <c r="K17">
-        <v>1.005066914175377</v>
+        <v>1.032564764172967</v>
       </c>
       <c r="L17">
-        <v>0.8608753829104759</v>
+        <v>0.9741277593171968</v>
       </c>
       <c r="M17">
-        <v>0.9031011538662813</v>
+        <v>1.018339040218643</v>
       </c>
       <c r="N17">
-        <v>0.8462644370952109</v>
+        <v>0.9761950718830835</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8164199894769998</v>
+        <v>0.94724083625791</v>
       </c>
       <c r="D18">
-        <v>0.9930899136362836</v>
+        <v>1.020007181104271</v>
       </c>
       <c r="E18">
-        <v>0.8509187542572203</v>
+        <v>0.9611663061235397</v>
       </c>
       <c r="F18">
-        <v>0.8930554937225854</v>
+        <v>1.005912540121787</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028632504258935</v>
+        <v>1.040364930747177</v>
       </c>
       <c r="J18">
-        <v>0.8528026864582009</v>
+        <v>0.9764566653503555</v>
       </c>
       <c r="K18">
-        <v>1.007028999816832</v>
+        <v>1.033489275433026</v>
       </c>
       <c r="L18">
-        <v>0.8679251129954465</v>
+        <v>0.9756908084593053</v>
       </c>
       <c r="M18">
-        <v>0.9090164792894634</v>
+        <v>1.019629989950063</v>
       </c>
       <c r="N18">
-        <v>0.8540137640908068</v>
+        <v>0.9778433458162985</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8193392909651167</v>
+        <v>0.9479776687558711</v>
       </c>
       <c r="D19">
-        <v>0.9938139251115393</v>
+        <v>1.020389327884894</v>
       </c>
       <c r="E19">
-        <v>0.8533730107926714</v>
+        <v>0.9617755056534466</v>
       </c>
       <c r="F19">
-        <v>0.8951195912928382</v>
+        <v>1.006422529004191</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029056032446826</v>
+        <v>1.040521246973363</v>
       </c>
       <c r="J19">
-        <v>0.8553351633279397</v>
+        <v>0.9770139448246211</v>
       </c>
       <c r="K19">
-        <v>1.007675177572287</v>
+        <v>1.033802449743676</v>
       </c>
       <c r="L19">
-        <v>0.8702329068372523</v>
+        <v>0.9762200681645757</v>
       </c>
       <c r="M19">
-        <v>0.9109567641656755</v>
+        <v>1.020067360904746</v>
       </c>
       <c r="N19">
-        <v>0.8565498373681799</v>
+        <v>0.9784014166913378</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8057873561698303</v>
+        <v>0.9446616882251243</v>
       </c>
       <c r="D20">
-        <v>0.9904819090425984</v>
+        <v>1.018671425419578</v>
       </c>
       <c r="E20">
-        <v>0.8419928355222329</v>
+        <v>0.959034906499416</v>
       </c>
       <c r="F20">
-        <v>0.8855681197382561</v>
+        <v>1.004129607456356</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027099630739164</v>
+        <v>1.039817318502205</v>
       </c>
       <c r="J20">
-        <v>0.843585908539791</v>
+        <v>0.9745060736148473</v>
       </c>
       <c r="K20">
-        <v>1.004694213123738</v>
+        <v>1.032393717878792</v>
       </c>
       <c r="L20">
-        <v>0.8595288716577643</v>
+        <v>0.9738384674787089</v>
       </c>
       <c r="M20">
-        <v>0.9019733753750961</v>
+        <v>1.018100229295054</v>
       </c>
       <c r="N20">
-        <v>0.8447838972905737</v>
+        <v>0.9758899840167893</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.747549096585311</v>
+        <v>0.9334950482622172</v>
       </c>
       <c r="D21">
-        <v>0.977044129604805</v>
+        <v>1.01292309211776</v>
       </c>
       <c r="E21">
-        <v>0.7935175856233427</v>
+        <v>0.949824923005958</v>
       </c>
       <c r="F21">
-        <v>0.8455031408304419</v>
+        <v>0.9964505535306534</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019014516461733</v>
+        <v>1.037439760958704</v>
       </c>
       <c r="J21">
-        <v>0.7933400832238826</v>
+        <v>0.9660627858811829</v>
       </c>
       <c r="K21">
-        <v>0.9924738618827621</v>
+        <v>1.027663700120295</v>
       </c>
       <c r="L21">
-        <v>0.8138523167290977</v>
+        <v>0.9658235891016602</v>
       </c>
       <c r="M21">
-        <v>0.8641509965823049</v>
+        <v>1.01149948473603</v>
       </c>
       <c r="N21">
-        <v>0.7944667171394398</v>
+        <v>0.9674347058460843</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.6600564095859247</v>
+        <v>0.92614772806664</v>
       </c>
       <c r="D22">
-        <v>0.9597872902680832</v>
+        <v>1.009173322267627</v>
       </c>
       <c r="E22">
-        <v>0.7224676285651296</v>
+        <v>0.9437814370473513</v>
       </c>
       <c r="F22">
-        <v>0.7890436438528843</v>
+        <v>0.99143494937296</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.008090815181704</v>
+        <v>1.035871413287207</v>
       </c>
       <c r="J22">
-        <v>0.7189447742871097</v>
+        <v>0.9605101071360986</v>
       </c>
       <c r="K22">
-        <v>0.9761997964668777</v>
+        <v>1.024565218230384</v>
       </c>
       <c r="L22">
-        <v>0.7466655588020434</v>
+        <v>0.9605553864603297</v>
       </c>
       <c r="M22">
-        <v>0.8103898738604215</v>
+        <v>1.007178012762561</v>
       </c>
       <c r="N22">
-        <v>0.7199657583307154</v>
+        <v>0.9618741416602808</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7209394554464791</v>
+        <v>0.9300757585524442</v>
       </c>
       <c r="D23">
-        <v>0.9714084235105584</v>
+        <v>1.011174721364317</v>
       </c>
       <c r="E23">
-        <v>0.7716479329194537</v>
+        <v>0.9470107633160537</v>
       </c>
       <c r="F23">
-        <v>0.8278055174720783</v>
+        <v>0.99411265746133</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015522479781194</v>
+        <v>1.036710155486414</v>
       </c>
       <c r="J23">
-        <v>0.7705503346898609</v>
+        <v>0.9634783458020597</v>
       </c>
       <c r="K23">
-        <v>0.9872418743583909</v>
+        <v>1.026220247135059</v>
       </c>
       <c r="L23">
-        <v>0.7932034036074467</v>
+        <v>0.9633712872478433</v>
       </c>
       <c r="M23">
-        <v>0.8473648859612625</v>
+        <v>1.009486113805519</v>
       </c>
       <c r="N23">
-        <v>0.7716446045484792</v>
+        <v>0.9648465955656097</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8065610672816738</v>
+        <v>0.944843810663169</v>
       </c>
       <c r="D24">
-        <v>0.9906701386264033</v>
+        <v>1.018765650991082</v>
       </c>
       <c r="E24">
-        <v>0.8426416509325847</v>
+        <v>0.9591853610687066</v>
       </c>
       <c r="F24">
-        <v>0.8861113133204319</v>
+        <v>1.004255393983713</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027210646037106</v>
+        <v>1.039856009543476</v>
       </c>
       <c r="J24">
-        <v>0.8442562080695892</v>
+        <v>0.9746438077825634</v>
       </c>
       <c r="K24">
-        <v>1.00486310235292</v>
+        <v>1.032471044643276</v>
       </c>
       <c r="L24">
-        <v>0.8601393417758318</v>
+        <v>0.9739692550611527</v>
       </c>
       <c r="M24">
-        <v>0.902484595110908</v>
+        <v>1.018208189988027</v>
       </c>
       <c r="N24">
-        <v>0.8454551487225886</v>
+        <v>0.9760279137828222</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8639675400271154</v>
+        <v>0.9607477477692278</v>
       </c>
       <c r="D25">
-        <v>1.005289127239574</v>
+        <v>1.027048676847611</v>
       </c>
       <c r="E25">
-        <v>0.891061473320607</v>
+        <v>0.9723532590801388</v>
       </c>
       <c r="F25">
-        <v>0.9270814476210285</v>
+        <v>1.015304103880176</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035652643898936</v>
+        <v>1.043219067358435</v>
       </c>
       <c r="J25">
-        <v>0.8941347067087135</v>
+        <v>0.9866723716631898</v>
       </c>
       <c r="K25">
-        <v>1.017805887455441</v>
+        <v>1.039241121782248</v>
       </c>
       <c r="L25">
-        <v>0.9056244629329625</v>
+        <v>0.9853964729312553</v>
       </c>
       <c r="M25">
-        <v>0.9409280632795336</v>
+        <v>1.027669399482716</v>
       </c>
       <c r="N25">
-        <v>0.8954044805509243</v>
+        <v>0.9880735596038545</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9726070400232699</v>
+        <v>0.9821722443033246</v>
       </c>
       <c r="D2">
-        <v>1.033290234008088</v>
+        <v>1.022359999737051</v>
       </c>
       <c r="E2">
-        <v>0.9822091106315015</v>
+        <v>0.9909035875542179</v>
       </c>
       <c r="F2">
-        <v>1.023621552565682</v>
+        <v>0.9580552280004051</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045699139762429</v>
+        <v>1.03825423969542</v>
       </c>
       <c r="J2">
-        <v>0.995639121571645</v>
+        <v>1.004899577330209</v>
       </c>
       <c r="K2">
-        <v>1.044304475731318</v>
+        <v>1.033516371238717</v>
       </c>
       <c r="L2">
-        <v>0.9939219941382587</v>
+        <v>1.002491121589157</v>
       </c>
       <c r="M2">
-        <v>1.034761325427969</v>
+        <v>0.9701315920951996</v>
       </c>
       <c r="N2">
-        <v>0.9970530433256802</v>
+        <v>1.005204501982288</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9808071810535844</v>
+        <v>0.988169929914497</v>
       </c>
       <c r="D3">
-        <v>1.037634755223137</v>
+        <v>1.024922989680539</v>
       </c>
       <c r="E3">
-        <v>0.9890417450092613</v>
+        <v>0.9957874574689375</v>
       </c>
       <c r="F3">
-        <v>1.029409192886849</v>
+        <v>0.9669035040924213</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047394641183368</v>
+        <v>1.039646639311887</v>
       </c>
       <c r="J3">
-        <v>1.001835096871144</v>
+        <v>1.008988373491825</v>
       </c>
       <c r="K3">
-        <v>1.047807714689516</v>
+        <v>1.035246606221048</v>
       </c>
       <c r="L3">
-        <v>0.9998167858946593</v>
+        <v>1.006474523844015</v>
       </c>
       <c r="M3">
-        <v>1.039679113310579</v>
+        <v>0.9779781395364173</v>
       </c>
       <c r="N3">
-        <v>1.003257817620792</v>
+        <v>1.006613812581206</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.98594217319279</v>
+        <v>0.9919414854673436</v>
       </c>
       <c r="D4">
-        <v>1.040366120245435</v>
+        <v>1.026544614136378</v>
       </c>
       <c r="E4">
-        <v>0.9933276444477684</v>
+        <v>0.9988648970484055</v>
       </c>
       <c r="F4">
-        <v>1.033047823901539</v>
+        <v>0.9724530906739457</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048446449254811</v>
+        <v>1.040512619499427</v>
       </c>
       <c r="J4">
-        <v>1.005712446154613</v>
+        <v>1.011553599596399</v>
       </c>
       <c r="K4">
-        <v>1.050000599669675</v>
+        <v>1.03633288659076</v>
       </c>
       <c r="L4">
-        <v>1.003507271637254</v>
+        <v>1.008977041096045</v>
       </c>
       <c r="M4">
-        <v>1.042763103920442</v>
+        <v>0.98289575976016</v>
       </c>
       <c r="N4">
-        <v>1.007140673184983</v>
+        <v>1.007497409838037</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.988062502754028</v>
+        <v>0.9935022263785338</v>
       </c>
       <c r="D5">
-        <v>1.041496198251585</v>
+        <v>1.027217874489405</v>
       </c>
       <c r="E5">
-        <v>0.9950989790755852</v>
+        <v>1.000139842779202</v>
       </c>
       <c r="F5">
-        <v>1.034553387532556</v>
+        <v>0.97474666188681</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048878241230518</v>
+        <v>1.040868611601938</v>
       </c>
       <c r="J5">
-        <v>1.007312746662757</v>
+        <v>1.012613693277598</v>
       </c>
       <c r="K5">
-        <v>1.050905616354818</v>
+        <v>1.036781885396876</v>
       </c>
       <c r="L5">
-        <v>1.005030821948314</v>
+        <v>1.010012022477794</v>
       </c>
       <c r="M5">
-        <v>1.044037322462458</v>
+        <v>0.9849272128296045</v>
       </c>
       <c r="N5">
-        <v>1.008743246303405</v>
+        <v>1.007862409004608</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9884163315129507</v>
+        <v>0.9937628635489741</v>
       </c>
       <c r="D6">
-        <v>1.041684902185256</v>
+        <v>1.027330430547358</v>
       </c>
       <c r="E6">
-        <v>0.9953946606844435</v>
+        <v>1.000352836368756</v>
       </c>
       <c r="F6">
-        <v>1.034804801044813</v>
+        <v>0.9751295195290868</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048950144338085</v>
+        <v>1.040927919848825</v>
       </c>
       <c r="J6">
-        <v>1.007579750473865</v>
+        <v>1.012790638951495</v>
       </c>
       <c r="K6">
-        <v>1.05105660605827</v>
+        <v>1.036856832521984</v>
       </c>
       <c r="L6">
-        <v>1.00528504194933</v>
+        <v>1.01018482328431</v>
       </c>
       <c r="M6">
-        <v>1.044249995297482</v>
+        <v>0.985266259683956</v>
       </c>
       <c r="N6">
-        <v>1.00901062929055</v>
+        <v>1.007923323529493</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9859706529422175</v>
+        <v>0.9919624359799755</v>
       </c>
       <c r="D7">
-        <v>1.040381290704621</v>
+        <v>1.026553643126607</v>
       </c>
       <c r="E7">
-        <v>0.9933514303675403</v>
+        <v>0.9988820055810813</v>
       </c>
       <c r="F7">
-        <v>1.033068034385234</v>
+        <v>0.9724838893070779</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048452259125508</v>
+        <v>1.040517407582818</v>
       </c>
       <c r="J7">
-        <v>1.005733943999152</v>
+        <v>1.011567835442905</v>
       </c>
       <c r="K7">
-        <v>1.050012757797563</v>
+        <v>1.036338915909047</v>
       </c>
       <c r="L7">
-        <v>1.003527736982362</v>
+        <v>1.008990936556514</v>
       </c>
       <c r="M7">
-        <v>1.042780216163408</v>
+        <v>0.9829230423699393</v>
       </c>
       <c r="N7">
-        <v>1.007162201558926</v>
+        <v>1.007502311980761</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9754153323451733</v>
+        <v>0.9842226845935397</v>
       </c>
       <c r="D8">
-        <v>1.034775596691718</v>
+        <v>1.023234007192797</v>
       </c>
       <c r="E8">
-        <v>0.9845474582380503</v>
+        <v>0.9925718772952674</v>
       </c>
       <c r="F8">
-        <v>1.025600383534041</v>
+        <v>0.961083610315432</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046281808421219</v>
+        <v>1.038732249939102</v>
       </c>
       <c r="J8">
-        <v>0.997761540661229</v>
+        <v>1.006298666856192</v>
       </c>
       <c r="K8">
-        <v>1.045504246108414</v>
+        <v>1.034108193869309</v>
       </c>
       <c r="L8">
-        <v>0.9959408938989376</v>
+        <v>1.003853416320891</v>
       </c>
       <c r="M8">
-        <v>1.036444397298007</v>
+        <v>0.9728178727592833</v>
       </c>
       <c r="N8">
-        <v>0.9991784764938165</v>
+        <v>1.005686847288633</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9553776045500635</v>
+        <v>0.9696793173916454</v>
       </c>
       <c r="D9">
-        <v>1.024240062854213</v>
+        <v>1.017085752296448</v>
       </c>
       <c r="E9">
-        <v>0.9679005459955741</v>
+        <v>0.980769144478741</v>
       </c>
       <c r="F9">
-        <v>1.011559430151864</v>
+        <v>0.9395158839928028</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042087424142524</v>
+        <v>1.035303024401588</v>
       </c>
       <c r="J9">
-        <v>0.9826108444475545</v>
+        <v>0.9963501634618133</v>
       </c>
       <c r="K9">
-        <v>1.036951733646533</v>
+        <v>1.029907576418219</v>
       </c>
       <c r="L9">
-        <v>0.9815368078855963</v>
+        <v>0.9941821299711434</v>
       </c>
       <c r="M9">
-        <v>1.02446770685059</v>
+        <v>0.953672927200635</v>
       </c>
       <c r="N9">
-        <v>0.984006264553709</v>
+        <v>1.002255173715095</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9408466553236202</v>
+        <v>0.95926915956531</v>
       </c>
       <c r="D10">
-        <v>1.016701053812902</v>
+        <v>1.012759936331568</v>
       </c>
       <c r="E10">
-        <v>0.95588502788619</v>
+        <v>0.9723629730639696</v>
       </c>
       <c r="F10">
-        <v>1.001498648824751</v>
+        <v>0.9239310160000738</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039006124020109</v>
+        <v>1.032801776270907</v>
       </c>
       <c r="J10">
-        <v>0.9716210376048799</v>
+        <v>0.9891974819177116</v>
       </c>
       <c r="K10">
-        <v>1.030775173741106</v>
+        <v>1.026902565657885</v>
       </c>
       <c r="L10">
-        <v>0.971099248761021</v>
+        <v>0.9872498189997039</v>
       </c>
       <c r="M10">
-        <v>1.015840897321512</v>
+        <v>0.9398244153042539</v>
       </c>
       <c r="N10">
-        <v>0.9730008509247694</v>
+        <v>0.9997862640748656</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9342208313041482</v>
+        <v>0.9545640972738022</v>
       </c>
       <c r="D11">
-        <v>1.013294931848866</v>
+        <v>1.010826168687117</v>
       </c>
       <c r="E11">
-        <v>0.9504226259134994</v>
+        <v>0.9685749857932354</v>
       </c>
       <c r="F11">
-        <v>0.9969476251728328</v>
+        <v>0.9168393613785083</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037594552570474</v>
+        <v>1.031661264796301</v>
       </c>
       <c r="J11">
-        <v>0.9666114304289108</v>
+        <v>0.9859573220767219</v>
       </c>
       <c r="K11">
-        <v>1.027970406248647</v>
+        <v>1.025546767074507</v>
       </c>
       <c r="L11">
-        <v>0.9663442426471764</v>
+        <v>0.9841149036263281</v>
       </c>
       <c r="M11">
-        <v>1.011927335300305</v>
+        <v>0.9335206441940431</v>
       </c>
       <c r="N11">
-        <v>0.9679841295320004</v>
+        <v>0.9986677224393886</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9317038941515194</v>
+        <v>0.9527840149283786</v>
       </c>
       <c r="D12">
-        <v>1.012006519332119</v>
+        <v>1.010098099803103</v>
       </c>
       <c r="E12">
-        <v>0.948350403643903</v>
+        <v>0.967143688252984</v>
       </c>
       <c r="F12">
-        <v>0.9952250699984104</v>
+        <v>0.9141478509592347</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037057634428536</v>
+        <v>1.031228359869833</v>
       </c>
       <c r="J12">
-        <v>0.9647088895660018</v>
+        <v>0.9847303572678848</v>
       </c>
       <c r="K12">
-        <v>1.026907252598197</v>
+        <v>1.02503436002812</v>
       </c>
       <c r="L12">
-        <v>0.9645388569150395</v>
+        <v>0.9829286474017181</v>
       </c>
       <c r="M12">
-        <v>1.010444325473318</v>
+        <v>0.9311279486376141</v>
       </c>
       <c r="N12">
-        <v>0.9660788868428416</v>
+        <v>0.9982441648775687</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9322464120379118</v>
+        <v>0.95316736373162</v>
       </c>
       <c r="D13">
-        <v>1.01228397352559</v>
+        <v>1.010254727347619</v>
       </c>
       <c r="E13">
-        <v>0.948796934527358</v>
+        <v>0.9674518402574932</v>
       </c>
       <c r="F13">
-        <v>0.9955960671878326</v>
+        <v>0.9147278870895584</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037173392547726</v>
+        <v>1.031321650016695</v>
       </c>
       <c r="J13">
-        <v>0.9651189522552416</v>
+        <v>0.9849946395350939</v>
       </c>
       <c r="K13">
-        <v>1.027136299466676</v>
+        <v>1.025144681922699</v>
       </c>
       <c r="L13">
-        <v>0.9649279578748731</v>
+        <v>0.9831841219149318</v>
       </c>
       <c r="M13">
-        <v>1.010763809434218</v>
+        <v>0.9316435958550988</v>
       </c>
       <c r="N13">
-        <v>0.9664895318681349</v>
+        <v>0.9983353964708999</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9340139549665012</v>
+        <v>0.9544176335917794</v>
       </c>
       <c r="D14">
-        <v>1.013188917324821</v>
+        <v>1.010766189992815</v>
       </c>
       <c r="E14">
-        <v>0.9502522443986563</v>
+        <v>0.9684571820935431</v>
       </c>
       <c r="F14">
-        <v>0.9968059111495949</v>
+        <v>0.9166180869088593</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037550433906999</v>
+        <v>1.031625673796033</v>
       </c>
       <c r="J14">
-        <v>0.9664550431615793</v>
+        <v>0.9858563908311817</v>
       </c>
       <c r="K14">
-        <v>1.027882972066612</v>
+        <v>1.025504594673936</v>
       </c>
       <c r="L14">
-        <v>0.9661958318627573</v>
+        <v>0.9840173035076649</v>
       </c>
       <c r="M14">
-        <v>1.011805364050042</v>
+        <v>0.9333239394292839</v>
       </c>
       <c r="N14">
-        <v>0.9678275201768114</v>
+        <v>0.9986328799535136</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9350954164370139</v>
+        <v>0.955183582338758</v>
       </c>
       <c r="D15">
-        <v>1.013743342405754</v>
+        <v>1.011080001437478</v>
       </c>
       <c r="E15">
-        <v>0.9511430406813411</v>
+        <v>0.9690733250677207</v>
       </c>
       <c r="F15">
-        <v>0.9975469893573311</v>
+        <v>0.9177749133863484</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037781040528219</v>
+        <v>1.031811744257035</v>
       </c>
       <c r="J15">
-        <v>0.9672725887887613</v>
+        <v>0.9863841775712779</v>
       </c>
       <c r="K15">
-        <v>1.028340136962879</v>
+        <v>1.025725163048399</v>
       </c>
       <c r="L15">
-        <v>0.9669716978387216</v>
+        <v>0.9845277062276636</v>
       </c>
       <c r="M15">
-        <v>1.012443128808525</v>
+        <v>0.934352307249238</v>
       </c>
       <c r="N15">
-        <v>0.968646226812558</v>
+        <v>0.9988150776330424</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9412788931460774</v>
+        <v>0.9595770331678999</v>
       </c>
       <c r="D16">
-        <v>1.016923962381893</v>
+        <v>1.012886940960321</v>
       </c>
       <c r="E16">
-        <v>0.9562417326085713</v>
+        <v>0.9726110829800312</v>
       </c>
       <c r="F16">
-        <v>1.001796349670735</v>
+        <v>0.9243939595283617</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039098095559711</v>
+        <v>1.032876205365259</v>
       </c>
       <c r="J16">
-        <v>0.9719478900716693</v>
+        <v>0.9894093480694037</v>
       </c>
       <c r="K16">
-        <v>1.030958427203075</v>
+        <v>1.026991345654158</v>
       </c>
       <c r="L16">
-        <v>0.9714095514722086</v>
+        <v>0.9874549188739095</v>
       </c>
       <c r="M16">
-        <v>1.016096663415853</v>
+        <v>0.9402358896857977</v>
       </c>
       <c r="N16">
-        <v>0.9733281675595521</v>
+        <v>0.9998594021505138</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9450645250771825</v>
+        <v>0.962278246614598</v>
       </c>
       <c r="D17">
-        <v>1.018879862881001</v>
+        <v>1.014003699992165</v>
       </c>
       <c r="E17">
-        <v>0.9593677075286839</v>
+        <v>0.9747892369982371</v>
       </c>
       <c r="F17">
-        <v>1.004407857821653</v>
+        <v>0.9284501901682275</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039902894868309</v>
+        <v>1.033528108222117</v>
       </c>
       <c r="J17">
-        <v>0.974810728835783</v>
+        <v>0.9912673824224698</v>
       </c>
       <c r="K17">
-        <v>1.032564764172967</v>
+        <v>1.027770569345006</v>
       </c>
       <c r="L17">
-        <v>0.9741277593171968</v>
+        <v>0.9892542292371611</v>
       </c>
       <c r="M17">
-        <v>1.018339040218643</v>
+        <v>0.9438409195244882</v>
       </c>
       <c r="N17">
-        <v>0.9761950718830835</v>
+        <v>1.000500800470889</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.94724083625791</v>
+        <v>0.9638349773513112</v>
       </c>
       <c r="D18">
-        <v>1.020007181104271</v>
+        <v>1.014649283058042</v>
       </c>
       <c r="E18">
-        <v>0.9611663061235397</v>
+        <v>0.9760455819977685</v>
       </c>
       <c r="F18">
-        <v>1.005912540121787</v>
+        <v>0.9307834305920925</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040364930747177</v>
+        <v>1.033902855802134</v>
       </c>
       <c r="J18">
-        <v>0.9764566653503555</v>
+        <v>0.992337489044431</v>
       </c>
       <c r="K18">
-        <v>1.033489275433026</v>
+        <v>1.028219852678225</v>
       </c>
       <c r="L18">
-        <v>0.9756908084593053</v>
+        <v>0.9902910203486678</v>
       </c>
       <c r="M18">
-        <v>1.019629989950063</v>
+        <v>0.9459144020675742</v>
       </c>
       <c r="N18">
-        <v>0.9778433458162985</v>
+        <v>1.00087019044995</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9479776687558711</v>
+        <v>0.9643626643275349</v>
       </c>
       <c r="D19">
-        <v>1.020389327884894</v>
+        <v>1.01486844474768</v>
       </c>
       <c r="E19">
-        <v>0.9617755056534466</v>
+        <v>0.9764716228055832</v>
       </c>
       <c r="F19">
-        <v>1.006422529004191</v>
+        <v>0.931573621843451</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040521246973363</v>
+        <v>1.034029720736347</v>
       </c>
       <c r="J19">
-        <v>0.9770139448246211</v>
+        <v>0.9927001066247203</v>
       </c>
       <c r="K19">
-        <v>1.033802449743676</v>
+        <v>1.028372177423926</v>
       </c>
       <c r="L19">
-        <v>0.9762200681645757</v>
+        <v>0.9906424332427307</v>
       </c>
       <c r="M19">
-        <v>1.020067360904746</v>
+        <v>0.9466165819411368</v>
       </c>
       <c r="N19">
-        <v>0.9784014166913378</v>
+        <v>1.000995359372186</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9446616882251243</v>
+        <v>0.9619903995795477</v>
       </c>
       <c r="D20">
-        <v>1.018671425419578</v>
+        <v>1.013884487168067</v>
       </c>
       <c r="E20">
-        <v>0.959034906499416</v>
+        <v>0.9745570175630569</v>
       </c>
       <c r="F20">
-        <v>1.004129607456356</v>
+        <v>0.9280184152640136</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039817318502205</v>
+        <v>1.03345873805446</v>
       </c>
       <c r="J20">
-        <v>0.9745060736148473</v>
+        <v>0.9910694583406559</v>
       </c>
       <c r="K20">
-        <v>1.032393717878792</v>
+        <v>1.027687510507301</v>
       </c>
       <c r="L20">
-        <v>0.9738384674787089</v>
+        <v>0.9890625077980902</v>
       </c>
       <c r="M20">
-        <v>1.018100229295054</v>
+        <v>0.9434571954513152</v>
       </c>
       <c r="N20">
-        <v>0.9758899840167893</v>
+        <v>1.000432477810869</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9334950482622172</v>
+        <v>0.9540503790414623</v>
       </c>
       <c r="D21">
-        <v>1.01292309211776</v>
+        <v>1.010615852802806</v>
       </c>
       <c r="E21">
-        <v>0.949824923005958</v>
+        <v>0.9681618216093525</v>
       </c>
       <c r="F21">
-        <v>0.9964505535306534</v>
+        <v>0.9160631043357974</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037439760958704</v>
+        <v>1.031536407762408</v>
       </c>
       <c r="J21">
-        <v>0.9660627858811829</v>
+        <v>0.9856032901395637</v>
       </c>
       <c r="K21">
-        <v>1.027663700120295</v>
+        <v>1.025398857555071</v>
       </c>
       <c r="L21">
-        <v>0.9658235891016602</v>
+        <v>0.9837725700326908</v>
       </c>
       <c r="M21">
-        <v>1.01149948473603</v>
+        <v>0.9328305776216498</v>
       </c>
       <c r="N21">
-        <v>0.9674347058460843</v>
+        <v>0.9985455072082107</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.92614772806664</v>
+        <v>0.9488689900956901</v>
       </c>
       <c r="D22">
-        <v>1.009173322267627</v>
+        <v>1.008503743255997</v>
       </c>
       <c r="E22">
-        <v>0.9437814370473513</v>
+        <v>0.9639992724701524</v>
       </c>
       <c r="F22">
-        <v>0.99143494937296</v>
+        <v>0.908210933900275</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035871413287207</v>
+        <v>1.030273757735491</v>
       </c>
       <c r="J22">
-        <v>0.9605101071360986</v>
+        <v>0.9820297937261987</v>
       </c>
       <c r="K22">
-        <v>1.024565218230384</v>
+        <v>1.023908600889959</v>
       </c>
       <c r="L22">
-        <v>0.9605553864603297</v>
+        <v>0.9803193133374311</v>
       </c>
       <c r="M22">
-        <v>1.007178012762561</v>
+        <v>0.9258499156459875</v>
       </c>
       <c r="N22">
-        <v>0.9618741416602808</v>
+        <v>0.997311948464092</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9300757585524442</v>
+        <v>0.9516346969738011</v>
       </c>
       <c r="D23">
-        <v>1.011174721364317</v>
+        <v>1.009629060795647</v>
       </c>
       <c r="E23">
-        <v>0.9470107633160537</v>
+        <v>0.9662200951736195</v>
       </c>
       <c r="F23">
-        <v>0.99411265746133</v>
+        <v>0.9124074845421661</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036710155486414</v>
+        <v>1.030948467485997</v>
       </c>
       <c r="J23">
-        <v>0.9634783458020597</v>
+        <v>0.9839378507657549</v>
       </c>
       <c r="K23">
-        <v>1.026220247135059</v>
+        <v>1.024703697408792</v>
       </c>
       <c r="L23">
-        <v>0.9633712872478433</v>
+        <v>0.9821626817154387</v>
       </c>
       <c r="M23">
-        <v>1.009486113805519</v>
+        <v>0.9295807569289025</v>
       </c>
       <c r="N23">
-        <v>0.9648465955656097</v>
+        <v>0.9979705903367108</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.944843810663169</v>
+        <v>0.9621205232863258</v>
       </c>
       <c r="D24">
-        <v>1.018765650991082</v>
+        <v>1.013938372197865</v>
       </c>
       <c r="E24">
-        <v>0.9591853610687066</v>
+        <v>0.9746619910632496</v>
       </c>
       <c r="F24">
-        <v>1.004255393983713</v>
+        <v>0.9282136163544101</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039856009543476</v>
+        <v>1.033490100385549</v>
       </c>
       <c r="J24">
-        <v>0.9746438077825634</v>
+        <v>0.9911589337634453</v>
       </c>
       <c r="K24">
-        <v>1.032471044643276</v>
+        <v>1.027725057322618</v>
       </c>
       <c r="L24">
-        <v>0.9739692550611527</v>
+        <v>0.9891491776278071</v>
       </c>
       <c r="M24">
-        <v>1.018208189988027</v>
+        <v>0.9436306739258811</v>
       </c>
       <c r="N24">
-        <v>0.9760279137828222</v>
+        <v>1.000463364439572</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9607477477692278</v>
+        <v>0.973556557106018</v>
       </c>
       <c r="D25">
-        <v>1.027048676847611</v>
+        <v>1.018713138752354</v>
       </c>
       <c r="E25">
-        <v>0.9723532590801388</v>
+        <v>0.9839089358795881</v>
       </c>
       <c r="F25">
-        <v>1.015304103880176</v>
+        <v>0.9452870719393407</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043219067358435</v>
+        <v>1.036225510429697</v>
       </c>
       <c r="J25">
-        <v>0.9866723716631898</v>
+        <v>0.9990078388070418</v>
       </c>
       <c r="K25">
-        <v>1.039241121782248</v>
+        <v>1.031027740224676</v>
       </c>
       <c r="L25">
-        <v>0.9853964729312553</v>
+        <v>0.9967622887943365</v>
       </c>
       <c r="M25">
-        <v>1.027669399482716</v>
+        <v>0.9587985892431232</v>
       </c>
       <c r="N25">
-        <v>0.9880735596038545</v>
+        <v>1.00317227972164</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9821722443033246</v>
+        <v>1.023469273611642</v>
       </c>
       <c r="D2">
-        <v>1.022359999737051</v>
+        <v>1.02991880175578</v>
       </c>
       <c r="E2">
-        <v>0.9909035875542179</v>
+        <v>1.024061280717853</v>
       </c>
       <c r="F2">
-        <v>0.9580552280004051</v>
+        <v>1.021935023578461</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03825423969542</v>
+        <v>1.031958491711991</v>
       </c>
       <c r="J2">
-        <v>1.004899577330209</v>
+        <v>1.028649318193341</v>
       </c>
       <c r="K2">
-        <v>1.033516371238717</v>
+        <v>1.032731318345536</v>
       </c>
       <c r="L2">
-        <v>1.002491121589157</v>
+        <v>1.02689088810567</v>
       </c>
       <c r="M2">
-        <v>0.9701315920951996</v>
+        <v>1.024770887594859</v>
       </c>
       <c r="N2">
-        <v>1.005204501982288</v>
+        <v>1.013524052227593</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.988169929914497</v>
+        <v>1.024663589256033</v>
       </c>
       <c r="D3">
-        <v>1.024922989680539</v>
+        <v>1.030437582726837</v>
       </c>
       <c r="E3">
-        <v>0.9957874574689375</v>
+        <v>1.025082261966219</v>
       </c>
       <c r="F3">
-        <v>0.9669035040924213</v>
+        <v>1.023770401479187</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039646639311887</v>
+        <v>1.032173262586644</v>
       </c>
       <c r="J3">
-        <v>1.008988373491825</v>
+        <v>1.029480857179979</v>
       </c>
       <c r="K3">
-        <v>1.035246606221048</v>
+        <v>1.033059124242721</v>
       </c>
       <c r="L3">
-        <v>1.006474523844015</v>
+        <v>1.027718298054218</v>
       </c>
       <c r="M3">
-        <v>0.9779781395364173</v>
+        <v>1.026410013247868</v>
       </c>
       <c r="N3">
-        <v>1.006613812581206</v>
+        <v>1.01380604068883</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9919414854673436</v>
+        <v>1.025435420836341</v>
       </c>
       <c r="D4">
-        <v>1.026544614136378</v>
+        <v>1.030773138799663</v>
       </c>
       <c r="E4">
-        <v>0.9988648970484055</v>
+        <v>1.025742399570061</v>
       </c>
       <c r="F4">
-        <v>0.9724530906739457</v>
+        <v>1.024956755179782</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040512619499427</v>
+        <v>1.032310757899169</v>
       </c>
       <c r="J4">
-        <v>1.011553599596399</v>
+        <v>1.030017475783464</v>
       </c>
       <c r="K4">
-        <v>1.03633288659076</v>
+        <v>1.033270393957047</v>
       </c>
       <c r="L4">
-        <v>1.008977041096045</v>
+        <v>1.028252584494128</v>
       </c>
       <c r="M4">
-        <v>0.98289575976016</v>
+        <v>1.027468971693605</v>
       </c>
       <c r="N4">
-        <v>1.007497409838037</v>
+        <v>1.013987849683499</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9935022263785338</v>
+        <v>1.02575967054806</v>
       </c>
       <c r="D5">
-        <v>1.027217874489405</v>
+        <v>1.030914174928463</v>
       </c>
       <c r="E5">
-        <v>1.000139842779202</v>
+        <v>1.026019803071849</v>
       </c>
       <c r="F5">
-        <v>0.97474666188681</v>
+        <v>1.025455208634882</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040868611601938</v>
+        <v>1.03236820814786</v>
       </c>
       <c r="J5">
-        <v>1.012613693277598</v>
+        <v>1.030242727786418</v>
       </c>
       <c r="K5">
-        <v>1.036781885396876</v>
+        <v>1.033359010026998</v>
       </c>
       <c r="L5">
-        <v>1.010012022477794</v>
+        <v>1.028476937011484</v>
       </c>
       <c r="M5">
-        <v>0.9849272128296045</v>
+        <v>1.027913769455561</v>
       </c>
       <c r="N5">
-        <v>1.007862409004608</v>
+        <v>1.014064125900913</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9937628635489741</v>
+        <v>1.025814100232109</v>
       </c>
       <c r="D6">
-        <v>1.027330430547358</v>
+        <v>1.030937853643336</v>
       </c>
       <c r="E6">
-        <v>1.000352836368756</v>
+        <v>1.026066373477965</v>
       </c>
       <c r="F6">
-        <v>0.9751295195290868</v>
+        <v>1.025538884516061</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040927919848825</v>
+        <v>1.032377833625436</v>
       </c>
       <c r="J6">
-        <v>1.012790638951495</v>
+        <v>1.030280528591796</v>
       </c>
       <c r="K6">
-        <v>1.036856832521984</v>
+        <v>1.033373877226245</v>
       </c>
       <c r="L6">
-        <v>1.01018482328431</v>
+        <v>1.028514591526571</v>
       </c>
       <c r="M6">
-        <v>0.985266259683956</v>
+        <v>1.027988430482393</v>
       </c>
       <c r="N6">
-        <v>1.007923323529493</v>
+        <v>1.014076923873674</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9919624359799755</v>
+        <v>1.02543975436885</v>
       </c>
       <c r="D7">
-        <v>1.026553643126607</v>
+        <v>1.03077502345638</v>
       </c>
       <c r="E7">
-        <v>0.9988820055810813</v>
+        <v>1.025746106710954</v>
       </c>
       <c r="F7">
-        <v>0.9724838893070779</v>
+        <v>1.024963416662949</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040517407582818</v>
+        <v>1.032311526937748</v>
       </c>
       <c r="J7">
-        <v>1.011567835442905</v>
+        <v>1.030020486953771</v>
       </c>
       <c r="K7">
-        <v>1.036338915909047</v>
+        <v>1.033271578841943</v>
       </c>
       <c r="L7">
-        <v>1.008990936556514</v>
+        <v>1.028255583327789</v>
       </c>
       <c r="M7">
-        <v>0.9829230423699393</v>
+        <v>1.027474916616335</v>
       </c>
       <c r="N7">
-        <v>1.007502311980761</v>
+        <v>1.013988869503085</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9842226845935397</v>
+        <v>1.023873101573095</v>
       </c>
       <c r="D8">
-        <v>1.023234007192797</v>
+        <v>1.030094152788679</v>
       </c>
       <c r="E8">
-        <v>0.9925718772952674</v>
+        <v>1.024406432404628</v>
       </c>
       <c r="F8">
-        <v>0.961083610315432</v>
+        <v>1.022555565752756</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038732249939102</v>
+        <v>1.032031380431106</v>
       </c>
       <c r="J8">
-        <v>1.006298666856192</v>
+        <v>1.028930641184772</v>
       </c>
       <c r="K8">
-        <v>1.034108193869309</v>
+        <v>1.032842276361202</v>
       </c>
       <c r="L8">
-        <v>1.003853416320891</v>
+        <v>1.02717074514486</v>
       </c>
       <c r="M8">
-        <v>0.9728178727592833</v>
+        <v>1.025325188870711</v>
       </c>
       <c r="N8">
-        <v>1.005686847288633</v>
+        <v>1.013619487978728</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9696793173916454</v>
+        <v>1.02110484361987</v>
       </c>
       <c r="D9">
-        <v>1.017085752296448</v>
+        <v>1.028893399862901</v>
       </c>
       <c r="E9">
-        <v>0.980769144478741</v>
+        <v>1.022041762210305</v>
       </c>
       <c r="F9">
-        <v>0.9395158839928028</v>
+        <v>1.018302462571017</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035303024401588</v>
+        <v>1.031526399331679</v>
       </c>
       <c r="J9">
-        <v>0.9963501634618133</v>
+        <v>1.026999011783853</v>
       </c>
       <c r="K9">
-        <v>1.029907576418219</v>
+        <v>1.032079335905584</v>
       </c>
       <c r="L9">
-        <v>0.9941821299711434</v>
+        <v>1.02525055614274</v>
       </c>
       <c r="M9">
-        <v>0.953672927200635</v>
+        <v>1.021523873794377</v>
       </c>
       <c r="N9">
-        <v>1.002255173715095</v>
+        <v>1.012963524436588</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.95926915956531</v>
+        <v>1.019253959980092</v>
       </c>
       <c r="D10">
-        <v>1.012759936331568</v>
+        <v>1.028092273381889</v>
       </c>
       <c r="E10">
-        <v>0.9723629730639696</v>
+        <v>1.020462458560465</v>
       </c>
       <c r="F10">
-        <v>0.9239310160000738</v>
+        <v>1.015459494710596</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032801776270907</v>
+        <v>1.031182094139356</v>
       </c>
       <c r="J10">
-        <v>0.9891974819177116</v>
+        <v>1.025703553239431</v>
       </c>
       <c r="K10">
-        <v>1.026902565657885</v>
+        <v>1.031566365310539</v>
       </c>
       <c r="L10">
-        <v>0.9872498189997039</v>
+        <v>1.023964505220054</v>
       </c>
       <c r="M10">
-        <v>0.9398244153042539</v>
+        <v>1.018980123967013</v>
       </c>
       <c r="N10">
-        <v>0.9997862640748656</v>
+        <v>1.012522753766633</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9545640972738022</v>
+        <v>1.018451173027334</v>
       </c>
       <c r="D11">
-        <v>1.010826168687117</v>
+        <v>1.027745234010301</v>
       </c>
       <c r="E11">
-        <v>0.9685749857932354</v>
+        <v>1.019777885820017</v>
       </c>
       <c r="F11">
-        <v>0.9168393613785083</v>
+        <v>1.01422650021524</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031661264796301</v>
+        <v>1.03103118310848</v>
       </c>
       <c r="J11">
-        <v>0.9859573220767219</v>
+        <v>1.025140735240894</v>
       </c>
       <c r="K11">
-        <v>1.025546767074507</v>
+        <v>1.03134321156159</v>
       </c>
       <c r="L11">
-        <v>0.9841149036263281</v>
+        <v>1.023406187970681</v>
       </c>
       <c r="M11">
-        <v>0.9335206441940431</v>
+        <v>1.01787624414125</v>
       </c>
       <c r="N11">
-        <v>0.9986677224393886</v>
+        <v>1.01233106146126</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9527840149283786</v>
+        <v>1.018152775455425</v>
       </c>
       <c r="D12">
-        <v>1.010098099803103</v>
+        <v>1.027616306514151</v>
       </c>
       <c r="E12">
-        <v>0.967143688252984</v>
+        <v>1.01952349279946</v>
       </c>
       <c r="F12">
-        <v>0.9141478509592347</v>
+        <v>1.013768200955014</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031228359869833</v>
+        <v>1.030974853124046</v>
       </c>
       <c r="J12">
-        <v>0.9847303572678848</v>
+        <v>1.024931393991291</v>
       </c>
       <c r="K12">
-        <v>1.02503436002812</v>
+        <v>1.031260166749784</v>
       </c>
       <c r="L12">
-        <v>0.9829286474017181</v>
+        <v>1.023198583095058</v>
       </c>
       <c r="M12">
-        <v>0.9311279486376141</v>
+        <v>1.017465837958954</v>
       </c>
       <c r="N12">
-        <v>0.9982441648775687</v>
+        <v>1.01225973171622</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.95316736373162</v>
+        <v>1.018216792186138</v>
       </c>
       <c r="D13">
-        <v>1.010254727347619</v>
+        <v>1.027643962872546</v>
       </c>
       <c r="E13">
-        <v>0.9674518402574932</v>
+        <v>1.019578066100487</v>
       </c>
       <c r="F13">
-        <v>0.9147278870895584</v>
+        <v>1.01386652196773</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031321650016695</v>
+        <v>1.03098694854976</v>
       </c>
       <c r="J13">
-        <v>0.9849946395350939</v>
+        <v>1.024976311383925</v>
       </c>
       <c r="K13">
-        <v>1.025144681922699</v>
+        <v>1.0312779871874</v>
       </c>
       <c r="L13">
-        <v>0.9831841219149318</v>
+        <v>1.023243125099808</v>
       </c>
       <c r="M13">
-        <v>0.9316435958550988</v>
+        <v>1.017553888699041</v>
       </c>
       <c r="N13">
-        <v>0.9983353964708999</v>
+        <v>1.01227503793989</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9544176335917794</v>
+        <v>1.018426511638401</v>
       </c>
       <c r="D14">
-        <v>1.010766189992815</v>
+        <v>1.027734577262304</v>
       </c>
       <c r="E14">
-        <v>0.9684571820935431</v>
+        <v>1.01975685992315</v>
       </c>
       <c r="F14">
-        <v>0.9166180869088593</v>
+        <v>1.014188623465719</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031625673796033</v>
+        <v>1.031026532466998</v>
       </c>
       <c r="J14">
-        <v>0.9858563908311817</v>
+        <v>1.025123436875589</v>
       </c>
       <c r="K14">
-        <v>1.025504594673936</v>
+        <v>1.031336350226471</v>
       </c>
       <c r="L14">
-        <v>0.9840173035076649</v>
+        <v>1.023389031814453</v>
       </c>
       <c r="M14">
-        <v>0.9333239394292839</v>
+        <v>1.017842327582958</v>
       </c>
       <c r="N14">
-        <v>0.9986328799535136</v>
+        <v>1.012325167913279</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.955183582338758</v>
+        <v>1.018555699163973</v>
       </c>
       <c r="D15">
-        <v>1.011080001437478</v>
+        <v>1.027790404923895</v>
       </c>
       <c r="E15">
-        <v>0.9690733250677207</v>
+        <v>1.019867005722864</v>
       </c>
       <c r="F15">
-        <v>0.9177749133863484</v>
+        <v>1.014387039299153</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031811744257035</v>
+        <v>1.031050884973274</v>
       </c>
       <c r="J15">
-        <v>0.9863841775712779</v>
+        <v>1.025214047791043</v>
       </c>
       <c r="K15">
-        <v>1.025725163048399</v>
+        <v>1.031372288999478</v>
       </c>
       <c r="L15">
-        <v>0.9845277062276636</v>
+        <v>1.023478900373139</v>
       </c>
       <c r="M15">
-        <v>0.934352307249238</v>
+        <v>1.01801999408861</v>
       </c>
       <c r="N15">
-        <v>0.9988150776330424</v>
+        <v>1.012356037822895</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9595770331678999</v>
+        <v>1.019307209593628</v>
       </c>
       <c r="D16">
-        <v>1.012886940960321</v>
+        <v>1.02811530219051</v>
       </c>
       <c r="E16">
-        <v>0.9726110829800312</v>
+        <v>1.020507875852364</v>
       </c>
       <c r="F16">
-        <v>0.9243939595283617</v>
+        <v>1.015541281771046</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032876205365259</v>
+        <v>1.03119207109859</v>
       </c>
       <c r="J16">
-        <v>0.9894093480694037</v>
+        <v>1.025740865773826</v>
       </c>
       <c r="K16">
-        <v>1.026991345654158</v>
+        <v>1.031581153484893</v>
       </c>
       <c r="L16">
-        <v>0.9874549188739095</v>
+        <v>1.024001528090282</v>
       </c>
       <c r="M16">
-        <v>0.9402358896857977</v>
+        <v>1.019053332790624</v>
       </c>
       <c r="N16">
-        <v>0.9998594021505138</v>
+        <v>1.012535458049967</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.962278246614598</v>
+        <v>1.019778249308895</v>
       </c>
       <c r="D17">
-        <v>1.014003699992165</v>
+        <v>1.02831906274888</v>
       </c>
       <c r="E17">
-        <v>0.9747892369982371</v>
+        <v>1.020909680517903</v>
       </c>
       <c r="F17">
-        <v>0.9284501901682275</v>
+        <v>1.016264770034823</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033528108222117</v>
+        <v>1.031280144376685</v>
       </c>
       <c r="J17">
-        <v>0.9912673824224698</v>
+        <v>1.026070819905696</v>
       </c>
       <c r="K17">
-        <v>1.027770569345006</v>
+        <v>1.031711891655762</v>
       </c>
       <c r="L17">
-        <v>0.9892542292371611</v>
+        <v>1.024328968441727</v>
       </c>
       <c r="M17">
-        <v>0.9438409195244882</v>
+        <v>1.019700862274207</v>
       </c>
       <c r="N17">
-        <v>1.000500800470889</v>
+        <v>1.01264777908191</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9638349773513112</v>
+        <v>1.020052869658577</v>
       </c>
       <c r="D18">
-        <v>1.014649283058042</v>
+        <v>1.02843789869516</v>
       </c>
       <c r="E18">
-        <v>0.9760455819977685</v>
+        <v>1.02114397677893</v>
       </c>
       <c r="F18">
-        <v>0.9307834305920925</v>
+        <v>1.016686579320276</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033902855802134</v>
+        <v>1.031331340035015</v>
       </c>
       <c r="J18">
-        <v>0.992337489044431</v>
+        <v>1.026263095827292</v>
       </c>
       <c r="K18">
-        <v>1.028219852678225</v>
+        <v>1.03178804925933</v>
       </c>
       <c r="L18">
-        <v>0.9902910203486678</v>
+        <v>1.024519819306916</v>
       </c>
       <c r="M18">
-        <v>0.9459144020675742</v>
+        <v>1.020078322688379</v>
       </c>
       <c r="N18">
-        <v>1.00087019044995</v>
+        <v>1.012713213484464</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9643626643275349</v>
+        <v>1.020146486349188</v>
       </c>
       <c r="D19">
-        <v>1.01486844474768</v>
+        <v>1.028478416271883</v>
       </c>
       <c r="E19">
-        <v>0.9764716228055832</v>
+        <v>1.021223854047661</v>
       </c>
       <c r="F19">
-        <v>0.931573621843451</v>
+        <v>1.01683037372401</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034029720736347</v>
+        <v>1.03134876660304</v>
       </c>
       <c r="J19">
-        <v>0.9927001066247203</v>
+        <v>1.026328626403574</v>
       </c>
       <c r="K19">
-        <v>1.028372177423926</v>
+        <v>1.031814000119077</v>
       </c>
       <c r="L19">
-        <v>0.9906424332427307</v>
+        <v>1.024584870949654</v>
       </c>
       <c r="M19">
-        <v>0.9466165819411368</v>
+        <v>1.02020698786483</v>
       </c>
       <c r="N19">
-        <v>1.000995359372186</v>
+        <v>1.012735511295207</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9619903995795477</v>
+        <v>1.019727724601986</v>
       </c>
       <c r="D20">
-        <v>1.013884487168067</v>
+        <v>1.028297202629693</v>
       </c>
       <c r="E20">
-        <v>0.9745570175630569</v>
+        <v>1.020866577905477</v>
       </c>
       <c r="F20">
-        <v>0.9280184152640136</v>
+        <v>1.016187166263607</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03345873805446</v>
+        <v>1.031270713157425</v>
       </c>
       <c r="J20">
-        <v>0.9910694583406559</v>
+        <v>1.026035437673112</v>
       </c>
       <c r="K20">
-        <v>1.027687510507301</v>
+        <v>1.031697875007805</v>
       </c>
       <c r="L20">
-        <v>0.9890625077980902</v>
+        <v>1.024293851650532</v>
       </c>
       <c r="M20">
-        <v>0.9434571954513152</v>
+        <v>1.019631412638829</v>
       </c>
       <c r="N20">
-        <v>1.000432477810869</v>
+        <v>1.012635736438927</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9540503790414623</v>
+        <v>1.018364760235526</v>
       </c>
       <c r="D21">
-        <v>1.010615852802806</v>
+        <v>1.027707894177076</v>
       </c>
       <c r="E21">
-        <v>0.9681618216093525</v>
+        <v>1.019704212724719</v>
       </c>
       <c r="F21">
-        <v>0.9160631043357974</v>
+        <v>1.014093781280034</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031536407762408</v>
+        <v>1.031014883585116</v>
       </c>
       <c r="J21">
-        <v>0.9856032901395637</v>
+        <v>1.025080119999169</v>
       </c>
       <c r="K21">
-        <v>1.025398857555071</v>
+        <v>1.031319168062488</v>
       </c>
       <c r="L21">
-        <v>0.9837725700326908</v>
+        <v>1.023346072050993</v>
       </c>
       <c r="M21">
-        <v>0.9328305776216498</v>
+        <v>1.017757400003582</v>
       </c>
       <c r="N21">
-        <v>0.9985455072082107</v>
+        <v>1.012310409391942</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9488689900956901</v>
+        <v>1.017506611666783</v>
       </c>
       <c r="D22">
-        <v>1.008503743255997</v>
+        <v>1.027337247632734</v>
       </c>
       <c r="E22">
-        <v>0.9639992724701524</v>
+        <v>1.018972736560302</v>
       </c>
       <c r="F22">
-        <v>0.908210933900275</v>
+        <v>1.012775785215857</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030273757735491</v>
+        <v>1.030852442449926</v>
       </c>
       <c r="J22">
-        <v>0.9820297937261987</v>
+        <v>1.0244778196678</v>
       </c>
       <c r="K22">
-        <v>1.023908600889959</v>
+        <v>1.031080159759585</v>
       </c>
       <c r="L22">
-        <v>0.9803193133374311</v>
+        <v>1.022748885142406</v>
       </c>
       <c r="M22">
-        <v>0.9258499156459875</v>
+        <v>1.01657695178012</v>
       </c>
       <c r="N22">
-        <v>0.997311948464092</v>
+        <v>1.012105129818552</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9516346969738011</v>
+        <v>1.017961647807796</v>
       </c>
       <c r="D23">
-        <v>1.009629060795647</v>
+        <v>1.027533746104633</v>
       </c>
       <c r="E23">
-        <v>0.9662200951736195</v>
+        <v>1.019360568795268</v>
       </c>
       <c r="F23">
-        <v>0.9124074845421661</v>
+        <v>1.013474655409771</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030948467485997</v>
+        <v>1.030938706634362</v>
       </c>
       <c r="J23">
-        <v>0.9839378507657549</v>
+        <v>1.024797268529326</v>
       </c>
       <c r="K23">
-        <v>1.024703697408792</v>
+        <v>1.031206947987367</v>
       </c>
       <c r="L23">
-        <v>0.9821626817154387</v>
+        <v>1.023065587697629</v>
       </c>
       <c r="M23">
-        <v>0.9295807569289025</v>
+        <v>1.017202940783113</v>
       </c>
       <c r="N23">
-        <v>0.9979705903367108</v>
+        <v>1.012214022317829</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9621205232863258</v>
+        <v>1.019750554940941</v>
       </c>
       <c r="D24">
-        <v>1.013938372197865</v>
+        <v>1.028307080320448</v>
       </c>
       <c r="E24">
-        <v>0.9746619910632496</v>
+        <v>1.020886054335583</v>
       </c>
       <c r="F24">
-        <v>0.9282136163544101</v>
+        <v>1.016222232650574</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033490100385549</v>
+        <v>1.031274975263222</v>
       </c>
       <c r="J24">
-        <v>0.9911589337634453</v>
+        <v>1.026051425939218</v>
       </c>
       <c r="K24">
-        <v>1.027725057322618</v>
+        <v>1.031704208835981</v>
       </c>
       <c r="L24">
-        <v>0.9891491776278071</v>
+        <v>1.024309719847879</v>
       </c>
       <c r="M24">
-        <v>0.9436306739258811</v>
+        <v>1.019662794657056</v>
       </c>
       <c r="N24">
-        <v>1.000463364439572</v>
+        <v>1.012641178239761</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.973556557106018</v>
+        <v>1.021821433581915</v>
       </c>
       <c r="D25">
-        <v>1.018713138752354</v>
+        <v>1.029203935403733</v>
       </c>
       <c r="E25">
-        <v>0.9839089358795881</v>
+        <v>1.022653576940675</v>
       </c>
       <c r="F25">
-        <v>0.9452870719393407</v>
+        <v>1.019403271127207</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036225510429697</v>
+        <v>1.031658294983842</v>
       </c>
       <c r="J25">
-        <v>0.9990078388070418</v>
+        <v>1.027499728597666</v>
       </c>
       <c r="K25">
-        <v>1.031027740224676</v>
+        <v>1.032277339561605</v>
       </c>
       <c r="L25">
-        <v>0.9967622887943365</v>
+        <v>1.025748003068959</v>
       </c>
       <c r="M25">
-        <v>0.9587985892431232</v>
+        <v>1.022508238273027</v>
       </c>
       <c r="N25">
-        <v>1.00317227972164</v>
+        <v>1.013133712766594</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023469273611642</v>
+        <v>0.9821722443033245</v>
       </c>
       <c r="D2">
-        <v>1.02991880175578</v>
+        <v>1.022359999737051</v>
       </c>
       <c r="E2">
-        <v>1.024061280717853</v>
+        <v>0.9909035875542179</v>
       </c>
       <c r="F2">
-        <v>1.021935023578461</v>
+        <v>0.9580552280004052</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031958491711991</v>
+        <v>1.03825423969542</v>
       </c>
       <c r="J2">
-        <v>1.028649318193341</v>
+        <v>1.004899577330209</v>
       </c>
       <c r="K2">
-        <v>1.032731318345536</v>
+        <v>1.033516371238717</v>
       </c>
       <c r="L2">
-        <v>1.02689088810567</v>
+        <v>1.002491121589157</v>
       </c>
       <c r="M2">
-        <v>1.024770887594859</v>
+        <v>0.9701315920951997</v>
       </c>
       <c r="N2">
-        <v>1.013524052227593</v>
+        <v>1.005204501982288</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024663589256033</v>
+        <v>0.9881699299144968</v>
       </c>
       <c r="D3">
-        <v>1.030437582726837</v>
+        <v>1.024922989680539</v>
       </c>
       <c r="E3">
-        <v>1.025082261966219</v>
+        <v>0.995787457468937</v>
       </c>
       <c r="F3">
-        <v>1.023770401479187</v>
+        <v>0.9669035040924211</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032173262586644</v>
+        <v>1.039646639311887</v>
       </c>
       <c r="J3">
-        <v>1.029480857179979</v>
+        <v>1.008988373491824</v>
       </c>
       <c r="K3">
-        <v>1.033059124242721</v>
+        <v>1.035246606221049</v>
       </c>
       <c r="L3">
-        <v>1.027718298054218</v>
+        <v>1.006474523844015</v>
       </c>
       <c r="M3">
-        <v>1.026410013247868</v>
+        <v>0.977978139536417</v>
       </c>
       <c r="N3">
-        <v>1.01380604068883</v>
+        <v>1.006613812581206</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025435420836341</v>
+        <v>0.9919414854673438</v>
       </c>
       <c r="D4">
-        <v>1.030773138799663</v>
+        <v>1.026544614136379</v>
       </c>
       <c r="E4">
-        <v>1.025742399570061</v>
+        <v>0.9988648970484055</v>
       </c>
       <c r="F4">
-        <v>1.024956755179782</v>
+        <v>0.9724530906739465</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032310757899169</v>
+        <v>1.040512619499428</v>
       </c>
       <c r="J4">
-        <v>1.030017475783464</v>
+        <v>1.011553599596399</v>
       </c>
       <c r="K4">
-        <v>1.033270393957047</v>
+        <v>1.03633288659076</v>
       </c>
       <c r="L4">
-        <v>1.028252584494128</v>
+        <v>1.008977041096045</v>
       </c>
       <c r="M4">
-        <v>1.027468971693605</v>
+        <v>0.9828957597601609</v>
       </c>
       <c r="N4">
-        <v>1.013987849683499</v>
+        <v>1.007497409838037</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02575967054806</v>
+        <v>0.9935022263785332</v>
       </c>
       <c r="D5">
-        <v>1.030914174928463</v>
+        <v>1.027217874489405</v>
       </c>
       <c r="E5">
-        <v>1.026019803071849</v>
+        <v>1.000139842779201</v>
       </c>
       <c r="F5">
-        <v>1.025455208634882</v>
+        <v>0.9747466618868093</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03236820814786</v>
+        <v>1.040868611601938</v>
       </c>
       <c r="J5">
-        <v>1.030242727786418</v>
+        <v>1.012613693277598</v>
       </c>
       <c r="K5">
-        <v>1.033359010026998</v>
+        <v>1.036781885396876</v>
       </c>
       <c r="L5">
-        <v>1.028476937011484</v>
+        <v>1.010012022477793</v>
       </c>
       <c r="M5">
-        <v>1.027913769455561</v>
+        <v>0.9849272128296038</v>
       </c>
       <c r="N5">
-        <v>1.014064125900913</v>
+        <v>1.007862409004607</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025814100232109</v>
+        <v>0.9937628635489743</v>
       </c>
       <c r="D6">
-        <v>1.030937853643336</v>
+        <v>1.027330430547358</v>
       </c>
       <c r="E6">
-        <v>1.026066373477965</v>
+        <v>1.000352836368756</v>
       </c>
       <c r="F6">
-        <v>1.025538884516061</v>
+        <v>0.9751295195290874</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032377833625436</v>
+        <v>1.040927919848826</v>
       </c>
       <c r="J6">
-        <v>1.030280528591796</v>
+        <v>1.012790638951495</v>
       </c>
       <c r="K6">
-        <v>1.033373877226245</v>
+        <v>1.036856832521985</v>
       </c>
       <c r="L6">
-        <v>1.028514591526571</v>
+        <v>1.010184823284311</v>
       </c>
       <c r="M6">
-        <v>1.027988430482393</v>
+        <v>0.9852662596839565</v>
       </c>
       <c r="N6">
-        <v>1.014076923873674</v>
+        <v>1.007923323529493</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02543975436885</v>
+        <v>0.9919624359799751</v>
       </c>
       <c r="D7">
-        <v>1.03077502345638</v>
+        <v>1.026553643126607</v>
       </c>
       <c r="E7">
-        <v>1.025746106710954</v>
+        <v>0.9988820055810806</v>
       </c>
       <c r="F7">
-        <v>1.024963416662949</v>
+        <v>0.9724838893070771</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032311526937748</v>
+        <v>1.040517407582818</v>
       </c>
       <c r="J7">
-        <v>1.030020486953771</v>
+        <v>1.011567835442905</v>
       </c>
       <c r="K7">
-        <v>1.033271578841943</v>
+        <v>1.036338915909047</v>
       </c>
       <c r="L7">
-        <v>1.028255583327789</v>
+        <v>1.008990936556514</v>
       </c>
       <c r="M7">
-        <v>1.027474916616335</v>
+        <v>0.9829230423699387</v>
       </c>
       <c r="N7">
-        <v>1.013988869503085</v>
+        <v>1.00750231198076</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023873101573095</v>
+        <v>0.9842226845935393</v>
       </c>
       <c r="D8">
-        <v>1.030094152788679</v>
+        <v>1.023234007192797</v>
       </c>
       <c r="E8">
-        <v>1.024406432404628</v>
+        <v>0.992571877295267</v>
       </c>
       <c r="F8">
-        <v>1.022555565752756</v>
+        <v>0.9610836103154321</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032031380431106</v>
+        <v>1.038732249939102</v>
       </c>
       <c r="J8">
-        <v>1.028930641184772</v>
+        <v>1.006298666856192</v>
       </c>
       <c r="K8">
-        <v>1.032842276361202</v>
+        <v>1.034108193869309</v>
       </c>
       <c r="L8">
-        <v>1.02717074514486</v>
+        <v>1.00385341632089</v>
       </c>
       <c r="M8">
-        <v>1.025325188870711</v>
+        <v>0.9728178727592836</v>
       </c>
       <c r="N8">
-        <v>1.013619487978728</v>
+        <v>1.005686847288633</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02110484361987</v>
+        <v>0.9696793173916449</v>
       </c>
       <c r="D9">
-        <v>1.028893399862901</v>
+        <v>1.017085752296448</v>
       </c>
       <c r="E9">
-        <v>1.022041762210305</v>
+        <v>0.9807691444787402</v>
       </c>
       <c r="F9">
-        <v>1.018302462571017</v>
+        <v>0.9395158839928016</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031526399331679</v>
+        <v>1.035303024401587</v>
       </c>
       <c r="J9">
-        <v>1.026999011783853</v>
+        <v>0.9963501634618127</v>
       </c>
       <c r="K9">
-        <v>1.032079335905584</v>
+        <v>1.029907576418219</v>
       </c>
       <c r="L9">
-        <v>1.02525055614274</v>
+        <v>0.9941821299711429</v>
       </c>
       <c r="M9">
-        <v>1.021523873794377</v>
+        <v>0.9536729272006339</v>
       </c>
       <c r="N9">
-        <v>1.012963524436588</v>
+        <v>1.002255173715094</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019253959980092</v>
+        <v>0.9592691595653103</v>
       </c>
       <c r="D10">
-        <v>1.028092273381889</v>
+        <v>1.012759936331568</v>
       </c>
       <c r="E10">
-        <v>1.020462458560465</v>
+        <v>0.9723629730639697</v>
       </c>
       <c r="F10">
-        <v>1.015459494710596</v>
+        <v>0.9239310160000737</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031182094139356</v>
+        <v>1.032801776270907</v>
       </c>
       <c r="J10">
-        <v>1.025703553239431</v>
+        <v>0.9891974819177118</v>
       </c>
       <c r="K10">
-        <v>1.031566365310539</v>
+        <v>1.026902565657885</v>
       </c>
       <c r="L10">
-        <v>1.023964505220054</v>
+        <v>0.9872498189997041</v>
       </c>
       <c r="M10">
-        <v>1.018980123967013</v>
+        <v>0.9398244153042538</v>
       </c>
       <c r="N10">
-        <v>1.012522753766633</v>
+        <v>0.9997862640748656</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018451173027334</v>
+        <v>0.9545640972738018</v>
       </c>
       <c r="D11">
-        <v>1.027745234010301</v>
+        <v>1.010826168687117</v>
       </c>
       <c r="E11">
-        <v>1.019777885820017</v>
+        <v>0.9685749857932348</v>
       </c>
       <c r="F11">
-        <v>1.01422650021524</v>
+        <v>0.9168393613785075</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03103118310848</v>
+        <v>1.031661264796301</v>
       </c>
       <c r="J11">
-        <v>1.025140735240894</v>
+        <v>0.9859573220767216</v>
       </c>
       <c r="K11">
-        <v>1.03134321156159</v>
+        <v>1.025546767074507</v>
       </c>
       <c r="L11">
-        <v>1.023406187970681</v>
+        <v>0.9841149036263276</v>
       </c>
       <c r="M11">
-        <v>1.01787624414125</v>
+        <v>0.9335206441940427</v>
       </c>
       <c r="N11">
-        <v>1.01233106146126</v>
+        <v>0.9986677224393885</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018152775455425</v>
+        <v>0.9527840149283794</v>
       </c>
       <c r="D12">
-        <v>1.027616306514151</v>
+        <v>1.010098099803103</v>
       </c>
       <c r="E12">
-        <v>1.01952349279946</v>
+        <v>0.9671436882529848</v>
       </c>
       <c r="F12">
-        <v>1.013768200955014</v>
+        <v>0.9141478509592356</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030974853124046</v>
+        <v>1.031228359869833</v>
       </c>
       <c r="J12">
-        <v>1.024931393991291</v>
+        <v>0.9847303572678856</v>
       </c>
       <c r="K12">
-        <v>1.031260166749784</v>
+        <v>1.025034360028121</v>
       </c>
       <c r="L12">
-        <v>1.023198583095058</v>
+        <v>0.9829286474017187</v>
       </c>
       <c r="M12">
-        <v>1.017465837958954</v>
+        <v>0.9311279486376152</v>
       </c>
       <c r="N12">
-        <v>1.01225973171622</v>
+        <v>0.998244164877569</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018216792186138</v>
+        <v>0.9531673637316198</v>
       </c>
       <c r="D13">
-        <v>1.027643962872546</v>
+        <v>1.01025472734762</v>
       </c>
       <c r="E13">
-        <v>1.019578066100487</v>
+        <v>0.967451840257493</v>
       </c>
       <c r="F13">
-        <v>1.01386652196773</v>
+        <v>0.9147278870895584</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03098694854976</v>
+        <v>1.031321650016695</v>
       </c>
       <c r="J13">
-        <v>1.024976311383925</v>
+        <v>0.9849946395350937</v>
       </c>
       <c r="K13">
-        <v>1.0312779871874</v>
+        <v>1.025144681922699</v>
       </c>
       <c r="L13">
-        <v>1.023243125099808</v>
+        <v>0.9831841219149317</v>
       </c>
       <c r="M13">
-        <v>1.017553888699041</v>
+        <v>0.9316435958550988</v>
       </c>
       <c r="N13">
-        <v>1.01227503793989</v>
+        <v>0.9983353964708995</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018426511638401</v>
+        <v>0.9544176335917791</v>
       </c>
       <c r="D14">
-        <v>1.027734577262304</v>
+        <v>1.010766189992814</v>
       </c>
       <c r="E14">
-        <v>1.01975685992315</v>
+        <v>0.9684571820935426</v>
       </c>
       <c r="F14">
-        <v>1.014188623465719</v>
+        <v>0.9166180869088587</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031026532466998</v>
+        <v>1.031625673796033</v>
       </c>
       <c r="J14">
-        <v>1.025123436875589</v>
+        <v>0.9858563908311813</v>
       </c>
       <c r="K14">
-        <v>1.031336350226471</v>
+        <v>1.025504594673936</v>
       </c>
       <c r="L14">
-        <v>1.023389031814453</v>
+        <v>0.9840173035076643</v>
       </c>
       <c r="M14">
-        <v>1.017842327582958</v>
+        <v>0.9333239394292835</v>
       </c>
       <c r="N14">
-        <v>1.012325167913279</v>
+        <v>0.9986328799535135</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018555699163973</v>
+        <v>0.9551835823387579</v>
       </c>
       <c r="D15">
-        <v>1.027790404923895</v>
+        <v>1.011080001437477</v>
       </c>
       <c r="E15">
-        <v>1.019867005722864</v>
+        <v>0.9690733250677207</v>
       </c>
       <c r="F15">
-        <v>1.014387039299153</v>
+        <v>0.9177749133863484</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031050884973274</v>
+        <v>1.031811744257035</v>
       </c>
       <c r="J15">
-        <v>1.025214047791043</v>
+        <v>0.9863841775712779</v>
       </c>
       <c r="K15">
-        <v>1.031372288999478</v>
+        <v>1.025725163048399</v>
       </c>
       <c r="L15">
-        <v>1.023478900373139</v>
+        <v>0.9845277062276635</v>
       </c>
       <c r="M15">
-        <v>1.01801999408861</v>
+        <v>0.9343523072492382</v>
       </c>
       <c r="N15">
-        <v>1.012356037822895</v>
+        <v>0.9988150776330424</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019307209593628</v>
+        <v>0.9595770331678982</v>
       </c>
       <c r="D16">
-        <v>1.02811530219051</v>
+        <v>1.012886940960321</v>
       </c>
       <c r="E16">
-        <v>1.020507875852364</v>
+        <v>0.9726110829800297</v>
       </c>
       <c r="F16">
-        <v>1.015541281771046</v>
+        <v>0.9243939595283605</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03119207109859</v>
+        <v>1.032876205365259</v>
       </c>
       <c r="J16">
-        <v>1.025740865773826</v>
+        <v>0.9894093480694023</v>
       </c>
       <c r="K16">
-        <v>1.031581153484893</v>
+        <v>1.026991345654158</v>
       </c>
       <c r="L16">
-        <v>1.024001528090282</v>
+        <v>0.987454918873908</v>
       </c>
       <c r="M16">
-        <v>1.019053332790624</v>
+        <v>0.9402358896857966</v>
       </c>
       <c r="N16">
-        <v>1.012535458049967</v>
+        <v>0.9998594021505133</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019778249308895</v>
+        <v>0.9622782466145979</v>
       </c>
       <c r="D17">
-        <v>1.02831906274888</v>
+        <v>1.014003699992165</v>
       </c>
       <c r="E17">
-        <v>1.020909680517903</v>
+        <v>0.9747892369982371</v>
       </c>
       <c r="F17">
-        <v>1.016264770034823</v>
+        <v>0.9284501901682279</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031280144376685</v>
+        <v>1.033528108222117</v>
       </c>
       <c r="J17">
-        <v>1.026070819905696</v>
+        <v>0.9912673824224697</v>
       </c>
       <c r="K17">
-        <v>1.031711891655762</v>
+        <v>1.027770569345006</v>
       </c>
       <c r="L17">
-        <v>1.024328968441727</v>
+        <v>0.9892542292371609</v>
       </c>
       <c r="M17">
-        <v>1.019700862274207</v>
+        <v>0.9438409195244887</v>
       </c>
       <c r="N17">
-        <v>1.01264777908191</v>
+        <v>1.000500800470889</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020052869658577</v>
+        <v>0.9638349773513104</v>
       </c>
       <c r="D18">
-        <v>1.02843789869516</v>
+        <v>1.014649283058042</v>
       </c>
       <c r="E18">
-        <v>1.02114397677893</v>
+        <v>0.9760455819977675</v>
       </c>
       <c r="F18">
-        <v>1.016686579320276</v>
+        <v>0.930783430592092</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031331340035015</v>
+        <v>1.033902855802134</v>
       </c>
       <c r="J18">
-        <v>1.026263095827292</v>
+        <v>0.9923374890444303</v>
       </c>
       <c r="K18">
-        <v>1.03178804925933</v>
+        <v>1.028219852678225</v>
       </c>
       <c r="L18">
-        <v>1.024519819306916</v>
+        <v>0.9902910203486668</v>
       </c>
       <c r="M18">
-        <v>1.020078322688379</v>
+        <v>0.9459144020675735</v>
       </c>
       <c r="N18">
-        <v>1.012713213484464</v>
+        <v>1.000870190449949</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020146486349188</v>
+        <v>0.9643626643275347</v>
       </c>
       <c r="D19">
-        <v>1.028478416271883</v>
+        <v>1.01486844474768</v>
       </c>
       <c r="E19">
-        <v>1.021223854047661</v>
+        <v>0.976471622805583</v>
       </c>
       <c r="F19">
-        <v>1.01683037372401</v>
+        <v>0.9315736218434509</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03134876660304</v>
+        <v>1.034029720736346</v>
       </c>
       <c r="J19">
-        <v>1.026328626403574</v>
+        <v>0.9927001066247201</v>
       </c>
       <c r="K19">
-        <v>1.031814000119077</v>
+        <v>1.028372177423926</v>
       </c>
       <c r="L19">
-        <v>1.024584870949654</v>
+        <v>0.9906424332427306</v>
       </c>
       <c r="M19">
-        <v>1.02020698786483</v>
+        <v>0.9466165819411367</v>
       </c>
       <c r="N19">
-        <v>1.012735511295207</v>
+        <v>1.000995359372186</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019727724601986</v>
+        <v>0.9619903995795479</v>
       </c>
       <c r="D20">
-        <v>1.028297202629693</v>
+        <v>1.013884487168067</v>
       </c>
       <c r="E20">
-        <v>1.020866577905477</v>
+        <v>0.9745570175630571</v>
       </c>
       <c r="F20">
-        <v>1.016187166263607</v>
+        <v>0.9280184152640141</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031270713157425</v>
+        <v>1.03345873805446</v>
       </c>
       <c r="J20">
-        <v>1.026035437673112</v>
+        <v>0.9910694583406561</v>
       </c>
       <c r="K20">
-        <v>1.031697875007805</v>
+        <v>1.027687510507301</v>
       </c>
       <c r="L20">
-        <v>1.024293851650532</v>
+        <v>0.9890625077980905</v>
       </c>
       <c r="M20">
-        <v>1.019631412638829</v>
+        <v>0.9434571954513156</v>
       </c>
       <c r="N20">
-        <v>1.012635736438927</v>
+        <v>1.000432477810869</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018364760235526</v>
+        <v>0.9540503790414626</v>
       </c>
       <c r="D21">
-        <v>1.027707894177076</v>
+        <v>1.010615852802807</v>
       </c>
       <c r="E21">
-        <v>1.019704212724719</v>
+        <v>0.9681618216093529</v>
       </c>
       <c r="F21">
-        <v>1.014093781280034</v>
+        <v>0.9160631043357981</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031014883585116</v>
+        <v>1.031536407762408</v>
       </c>
       <c r="J21">
-        <v>1.025080119999169</v>
+        <v>0.9856032901395642</v>
       </c>
       <c r="K21">
-        <v>1.031319168062488</v>
+        <v>1.025398857555072</v>
       </c>
       <c r="L21">
-        <v>1.023346072050993</v>
+        <v>0.9837725700326914</v>
       </c>
       <c r="M21">
-        <v>1.017757400003582</v>
+        <v>0.9328305776216504</v>
       </c>
       <c r="N21">
-        <v>1.012310409391942</v>
+        <v>0.9985455072082107</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017506611666783</v>
+        <v>0.9488689900956901</v>
       </c>
       <c r="D22">
-        <v>1.027337247632734</v>
+        <v>1.008503743255997</v>
       </c>
       <c r="E22">
-        <v>1.018972736560302</v>
+        <v>0.9639992724701523</v>
       </c>
       <c r="F22">
-        <v>1.012775785215857</v>
+        <v>0.9082109339002746</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030852442449926</v>
+        <v>1.030273757735491</v>
       </c>
       <c r="J22">
-        <v>1.0244778196678</v>
+        <v>0.9820297937261985</v>
       </c>
       <c r="K22">
-        <v>1.031080159759585</v>
+        <v>1.023908600889959</v>
       </c>
       <c r="L22">
-        <v>1.022748885142406</v>
+        <v>0.9803193133374308</v>
       </c>
       <c r="M22">
-        <v>1.01657695178012</v>
+        <v>0.9258499156459873</v>
       </c>
       <c r="N22">
-        <v>1.012105129818552</v>
+        <v>0.997311948464092</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017961647807796</v>
+        <v>0.9516346969738003</v>
       </c>
       <c r="D23">
-        <v>1.027533746104633</v>
+        <v>1.009629060795648</v>
       </c>
       <c r="E23">
-        <v>1.019360568795268</v>
+        <v>0.9662200951736187</v>
       </c>
       <c r="F23">
-        <v>1.013474655409771</v>
+        <v>0.9124074845421652</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030938706634362</v>
+        <v>1.030948467485997</v>
       </c>
       <c r="J23">
-        <v>1.024797268529326</v>
+        <v>0.9839378507657542</v>
       </c>
       <c r="K23">
-        <v>1.031206947987367</v>
+        <v>1.024703697408792</v>
       </c>
       <c r="L23">
-        <v>1.023065587697629</v>
+        <v>0.9821626817154382</v>
       </c>
       <c r="M23">
-        <v>1.017202940783113</v>
+        <v>0.9295807569289022</v>
       </c>
       <c r="N23">
-        <v>1.012214022317829</v>
+        <v>0.9979705903367105</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019750554940941</v>
+        <v>0.9621205232863255</v>
       </c>
       <c r="D24">
-        <v>1.028307080320448</v>
+        <v>1.013938372197865</v>
       </c>
       <c r="E24">
-        <v>1.020886054335583</v>
+        <v>0.9746619910632491</v>
       </c>
       <c r="F24">
-        <v>1.016222232650574</v>
+        <v>0.9282136163544097</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031274975263222</v>
+        <v>1.033490100385549</v>
       </c>
       <c r="J24">
-        <v>1.026051425939218</v>
+        <v>0.991158933763445</v>
       </c>
       <c r="K24">
-        <v>1.031704208835981</v>
+        <v>1.027725057322618</v>
       </c>
       <c r="L24">
-        <v>1.024309719847879</v>
+        <v>0.9891491776278067</v>
       </c>
       <c r="M24">
-        <v>1.019662794657056</v>
+        <v>0.9436306739258806</v>
       </c>
       <c r="N24">
-        <v>1.012641178239761</v>
+        <v>1.000463364439571</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021821433581915</v>
+        <v>0.9735565571060181</v>
       </c>
       <c r="D25">
-        <v>1.029203935403733</v>
+        <v>1.018713138752354</v>
       </c>
       <c r="E25">
-        <v>1.022653576940675</v>
+        <v>0.9839089358795882</v>
       </c>
       <c r="F25">
-        <v>1.019403271127207</v>
+        <v>0.9452870719393408</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031658294983842</v>
+        <v>1.036225510429697</v>
       </c>
       <c r="J25">
-        <v>1.027499728597666</v>
+        <v>0.9990078388070418</v>
       </c>
       <c r="K25">
-        <v>1.032277339561605</v>
+        <v>1.031027740224676</v>
       </c>
       <c r="L25">
-        <v>1.025748003068959</v>
+        <v>0.9967622887943366</v>
       </c>
       <c r="M25">
-        <v>1.022508238273027</v>
+        <v>0.9587985892431232</v>
       </c>
       <c r="N25">
-        <v>1.013133712766594</v>
+        <v>1.00317227972164</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9821722443033245</v>
+        <v>0.9979528679829514</v>
       </c>
       <c r="D2">
-        <v>1.022359999737051</v>
+        <v>1.039162750694343</v>
       </c>
       <c r="E2">
-        <v>0.9909035875542179</v>
+        <v>1.004714083236337</v>
       </c>
       <c r="F2">
-        <v>0.9580552280004052</v>
+        <v>1.037066551537836</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03825423969542</v>
+        <v>1.04723488609937</v>
       </c>
       <c r="J2">
-        <v>1.004899577330209</v>
+        <v>1.020194981296102</v>
       </c>
       <c r="K2">
-        <v>1.033516371238717</v>
+        <v>1.050102171492313</v>
       </c>
       <c r="L2">
-        <v>1.002491121589157</v>
+        <v>1.016108131759598</v>
       </c>
       <c r="M2">
-        <v>0.9701315920951997</v>
+        <v>1.048032558265218</v>
       </c>
       <c r="N2">
-        <v>1.005204501982288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010696369484898</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.046586913187127</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.04649681854408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9881699299144968</v>
+        <v>1.001321724650915</v>
       </c>
       <c r="D3">
-        <v>1.024922989680539</v>
+        <v>1.041021384273504</v>
       </c>
       <c r="E3">
-        <v>0.995787457468937</v>
+        <v>1.007320000534224</v>
       </c>
       <c r="F3">
-        <v>0.9669035040924211</v>
+        <v>1.039261482976481</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039646639311887</v>
+        <v>1.047830319857313</v>
       </c>
       <c r="J3">
-        <v>1.008988373491824</v>
+        <v>1.021776422855601</v>
       </c>
       <c r="K3">
-        <v>1.035246606221049</v>
+        <v>1.051154973339488</v>
       </c>
       <c r="L3">
-        <v>1.006474523844015</v>
+        <v>1.017860069576191</v>
       </c>
       <c r="M3">
-        <v>0.977978139536417</v>
+        <v>1.049415491739129</v>
       </c>
       <c r="N3">
-        <v>1.006613812581206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011230508620881</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047681402355869</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.047238585642474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9919414854673438</v>
+        <v>1.003466377582322</v>
       </c>
       <c r="D4">
-        <v>1.026544614136379</v>
+        <v>1.042210919010742</v>
       </c>
       <c r="E4">
-        <v>0.9988648970484055</v>
+        <v>1.008984830721352</v>
       </c>
       <c r="F4">
-        <v>0.9724530906739465</v>
+        <v>1.040667233443624</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040512619499428</v>
+        <v>1.048202695795758</v>
       </c>
       <c r="J4">
-        <v>1.011553599596399</v>
+        <v>1.022781826789851</v>
       </c>
       <c r="K4">
-        <v>1.03633288659076</v>
+        <v>1.051825250017879</v>
       </c>
       <c r="L4">
-        <v>1.008977041096045</v>
+        <v>1.018976012873082</v>
       </c>
       <c r="M4">
-        <v>0.9828957597601609</v>
+        <v>1.050298418197351</v>
       </c>
       <c r="N4">
-        <v>1.007497409838037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01157000929005</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048380172247453</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047713403689085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9935022263785332</v>
+        <v>1.004360972123254</v>
       </c>
       <c r="D5">
-        <v>1.027217874489405</v>
+        <v>1.042712934107473</v>
       </c>
       <c r="E5">
-        <v>1.000139842779201</v>
+        <v>1.009680819080114</v>
       </c>
       <c r="F5">
-        <v>0.9747466618868093</v>
+        <v>1.041257897066926</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040868611601938</v>
+        <v>1.048358176159637</v>
       </c>
       <c r="J5">
-        <v>1.012613693277598</v>
+        <v>1.023201463008255</v>
       </c>
       <c r="K5">
-        <v>1.036781885396876</v>
+        <v>1.052109418124155</v>
       </c>
       <c r="L5">
-        <v>1.010012022477793</v>
+        <v>1.019442086918231</v>
       </c>
       <c r="M5">
-        <v>0.9849272128296038</v>
+        <v>1.050669852681286</v>
       </c>
       <c r="N5">
-        <v>1.007862409004607</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011711837997931</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048674134511096</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047921424362155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9937628635489743</v>
+        <v>1.004512149359498</v>
       </c>
       <c r="D6">
-        <v>1.027330430547358</v>
+        <v>1.042803153602677</v>
       </c>
       <c r="E6">
-        <v>1.000352836368756</v>
+        <v>1.009798708920903</v>
       </c>
       <c r="F6">
-        <v>0.9751295195290874</v>
+        <v>1.04136062994332</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040927919848826</v>
+        <v>1.048386525999364</v>
       </c>
       <c r="J6">
-        <v>1.012790638951495</v>
+        <v>1.02327308877758</v>
       </c>
       <c r="K6">
-        <v>1.036856832521985</v>
+        <v>1.052163024855287</v>
       </c>
       <c r="L6">
-        <v>1.010184823284311</v>
+        <v>1.019521406985115</v>
       </c>
       <c r="M6">
-        <v>0.9852662596839565</v>
+        <v>1.050735770873273</v>
       </c>
       <c r="N6">
-        <v>1.007923323529493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011736225971356</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048726303755612</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047967980257433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9919624359799751</v>
+        <v>1.003482250999545</v>
       </c>
       <c r="D7">
-        <v>1.026553643126607</v>
+        <v>1.042234015526075</v>
       </c>
       <c r="E7">
-        <v>0.9988820055810806</v>
+        <v>1.008997700893275</v>
       </c>
       <c r="F7">
-        <v>0.9724838893070771</v>
+        <v>1.040685206890122</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040517407582818</v>
+        <v>1.048211283103159</v>
       </c>
       <c r="J7">
-        <v>1.011567835442905</v>
+        <v>1.022791239710136</v>
       </c>
       <c r="K7">
-        <v>1.036338915909047</v>
+        <v>1.051845255274739</v>
       </c>
       <c r="L7">
-        <v>1.008990936556514</v>
+        <v>1.018985765717741</v>
       </c>
       <c r="M7">
-        <v>0.9829230423699387</v>
+        <v>1.050313349878983</v>
       </c>
       <c r="N7">
-        <v>1.00750231198076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011573683483676</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048391989544869</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047747447187791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9842226845935393</v>
+        <v>0.9991036749753176</v>
       </c>
       <c r="D8">
-        <v>1.023234007192797</v>
+        <v>1.039813875703767</v>
       </c>
       <c r="E8">
-        <v>0.992571877295267</v>
+        <v>1.005603711763623</v>
       </c>
       <c r="F8">
-        <v>0.9610836103154321</v>
+        <v>1.037823828368873</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038732249939102</v>
+        <v>1.047446848743993</v>
       </c>
       <c r="J8">
-        <v>1.006298666856192</v>
+        <v>1.020737909702596</v>
       </c>
       <c r="K8">
-        <v>1.034108193869309</v>
+        <v>1.050480253888138</v>
       </c>
       <c r="L8">
-        <v>1.00385341632089</v>
+        <v>1.016708308493128</v>
       </c>
       <c r="M8">
-        <v>0.9728178727592836</v>
+        <v>1.048514712870138</v>
       </c>
       <c r="N8">
-        <v>1.005686847288633</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010880403231217</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046968502943593</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046786809337475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9696793173916449</v>
+        <v>0.9911014672646481</v>
       </c>
       <c r="D9">
-        <v>1.017085752296448</v>
+        <v>1.035420138306295</v>
       </c>
       <c r="E9">
-        <v>0.9807691444787402</v>
+        <v>0.9994477919182095</v>
       </c>
       <c r="F9">
-        <v>0.9395158839928016</v>
+        <v>1.03265111685434</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035303024401587</v>
+        <v>1.045989087802598</v>
       </c>
       <c r="J9">
-        <v>0.9963501634618127</v>
+        <v>1.016972416853465</v>
       </c>
       <c r="K9">
-        <v>1.029907576418219</v>
+        <v>1.047963547225688</v>
       </c>
       <c r="L9">
-        <v>0.9941821299711429</v>
+        <v>1.012549834671165</v>
       </c>
       <c r="M9">
-        <v>0.9536729272006339</v>
+        <v>1.045235768143183</v>
       </c>
       <c r="N9">
-        <v>1.002255173715094</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009607654184772</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044373456478284</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045004235814077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9592691595653103</v>
+        <v>0.9855926931692774</v>
       </c>
       <c r="D10">
-        <v>1.012759936331568</v>
+        <v>1.032486538270074</v>
       </c>
       <c r="E10">
-        <v>0.9723629730639697</v>
+        <v>0.9952482457864343</v>
       </c>
       <c r="F10">
-        <v>0.9239310160000737</v>
+        <v>1.029238354442872</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032801776270907</v>
+        <v>1.044977505653553</v>
       </c>
       <c r="J10">
-        <v>0.9891974819177118</v>
+        <v>1.01438982348732</v>
       </c>
       <c r="K10">
-        <v>1.026902565657885</v>
+        <v>1.046293007274719</v>
       </c>
       <c r="L10">
-        <v>0.9872498189997041</v>
+        <v>1.009703827922278</v>
       </c>
       <c r="M10">
-        <v>0.9398244153042538</v>
+        <v>1.043099033297127</v>
       </c>
       <c r="N10">
-        <v>0.9997862640748656</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.00873721761972</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042733555329738</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043839715882147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9545640972738018</v>
+        <v>0.9833863647488436</v>
       </c>
       <c r="D11">
-        <v>1.010826168687117</v>
+        <v>1.031724777291875</v>
       </c>
       <c r="E11">
-        <v>0.9685749857932348</v>
+        <v>0.9936066989965365</v>
       </c>
       <c r="F11">
-        <v>0.9168393613785075</v>
+        <v>1.028657453808205</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031661264796301</v>
+        <v>1.044751017513035</v>
       </c>
       <c r="J11">
-        <v>0.9859573220767216</v>
+        <v>1.013467003719551</v>
       </c>
       <c r="K11">
-        <v>1.025546767074507</v>
+        <v>1.046072224199464</v>
       </c>
       <c r="L11">
-        <v>0.9841149036263276</v>
+        <v>1.008650199220487</v>
       </c>
       <c r="M11">
-        <v>0.9335206441940427</v>
+        <v>1.043058438753374</v>
       </c>
       <c r="N11">
-        <v>0.9986677224393885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008448902302261</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.043135305030511</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.043716087203765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9527840149283794</v>
+        <v>0.9826349696325782</v>
       </c>
       <c r="D12">
-        <v>1.010098099803103</v>
+        <v>1.031613540219958</v>
       </c>
       <c r="E12">
-        <v>0.9671436882529848</v>
+        <v>0.9930616047682257</v>
       </c>
       <c r="F12">
-        <v>0.9141478509592356</v>
+        <v>1.028757068139884</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031228359869833</v>
+        <v>1.044738050164725</v>
       </c>
       <c r="J12">
-        <v>0.9847303572678856</v>
+        <v>1.013192874888499</v>
       </c>
       <c r="K12">
-        <v>1.025034360028121</v>
+        <v>1.046159142952443</v>
       </c>
       <c r="L12">
-        <v>0.9829286474017187</v>
+        <v>1.00832295175864</v>
       </c>
       <c r="M12">
-        <v>0.9311279486376152</v>
+        <v>1.043353315131345</v>
       </c>
       <c r="N12">
-        <v>0.998244164877569</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008375024711579</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043693282299925</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.043777540233354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9531673637316198</v>
+        <v>0.982958351208377</v>
       </c>
       <c r="D13">
-        <v>1.01025472734762</v>
+        <v>1.032017832998645</v>
       </c>
       <c r="E13">
-        <v>0.967451840257493</v>
+        <v>0.9933262459657457</v>
       </c>
       <c r="F13">
-        <v>0.9147278870895584</v>
+        <v>1.029412432321971</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031321650016695</v>
+        <v>1.044901440604076</v>
       </c>
       <c r="J13">
-        <v>0.9849946395350937</v>
+        <v>1.013406543667801</v>
       </c>
       <c r="K13">
-        <v>1.025144681922699</v>
+        <v>1.046514232889312</v>
       </c>
       <c r="L13">
-        <v>0.9831841219149317</v>
+        <v>1.008537963400159</v>
       </c>
       <c r="M13">
-        <v>0.9316435958550988</v>
+        <v>1.043954809790455</v>
       </c>
       <c r="N13">
-        <v>0.9983353964708995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008464193363449</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044444273526705</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.04402613184666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9544176335917791</v>
+        <v>0.9836716780465724</v>
       </c>
       <c r="D14">
-        <v>1.010766189992814</v>
+        <v>1.032535168206338</v>
       </c>
       <c r="E14">
-        <v>0.9684571820935426</v>
+        <v>0.993878357455617</v>
       </c>
       <c r="F14">
-        <v>0.9166180869088587</v>
+        <v>1.030122133785184</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031625673796033</v>
+        <v>1.045095324481273</v>
       </c>
       <c r="J14">
-        <v>0.9858563908311813</v>
+        <v>1.01377652229591</v>
       </c>
       <c r="K14">
-        <v>1.025504594673936</v>
+        <v>1.046884738907422</v>
       </c>
       <c r="L14">
-        <v>0.9840173035076643</v>
+        <v>1.008933771572184</v>
       </c>
       <c r="M14">
-        <v>0.9333239394292835</v>
+        <v>1.044513756727674</v>
       </c>
       <c r="N14">
-        <v>0.9986328799535135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008600378387027</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04505872721979</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.044289493495381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9551835823387579</v>
+        <v>0.9840809453487169</v>
       </c>
       <c r="D15">
-        <v>1.011080001437477</v>
+        <v>1.032784869849139</v>
       </c>
       <c r="E15">
-        <v>0.9690733250677207</v>
+        <v>0.9941910961490426</v>
       </c>
       <c r="F15">
-        <v>0.9177749133863484</v>
+        <v>1.030433560627475</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031811744257035</v>
+        <v>1.045185799683358</v>
       </c>
       <c r="J15">
-        <v>0.9863841775712779</v>
+        <v>1.013976106427156</v>
       </c>
       <c r="K15">
-        <v>1.025725163048399</v>
+        <v>1.047045263236952</v>
       </c>
       <c r="L15">
-        <v>0.9845277062276635</v>
+        <v>1.009150855635137</v>
       </c>
       <c r="M15">
-        <v>0.9343523072492382</v>
+        <v>1.044734623180814</v>
       </c>
       <c r="N15">
-        <v>0.9988150776330424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008670297942691</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045270696243706</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04440878766866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9595770331678982</v>
+        <v>0.9863444389431788</v>
       </c>
       <c r="D16">
-        <v>1.012886940960321</v>
+        <v>1.033959696272055</v>
       </c>
       <c r="E16">
-        <v>0.9726110829800297</v>
+        <v>0.9959065489990633</v>
       </c>
       <c r="F16">
-        <v>0.9243939595283605</v>
+        <v>1.031788052421804</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032876205365259</v>
+        <v>1.045598427037768</v>
       </c>
       <c r="J16">
-        <v>0.9894093480694023</v>
+        <v>1.015031965598272</v>
       </c>
       <c r="K16">
-        <v>1.026991345654158</v>
+        <v>1.047706764362305</v>
       </c>
       <c r="L16">
-        <v>0.987454918873908</v>
+        <v>1.010313211030059</v>
       </c>
       <c r="M16">
-        <v>0.9402358896857966</v>
+        <v>1.045571077038984</v>
       </c>
       <c r="N16">
-        <v>0.9998594021505133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009023010226575</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.045893256739564</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.04487961508924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9622782466145979</v>
+        <v>0.9877101587899833</v>
       </c>
       <c r="D17">
-        <v>1.014003699992165</v>
+        <v>1.03459167172289</v>
       </c>
       <c r="E17">
-        <v>0.9747892369982371</v>
+        <v>0.996937256383831</v>
       </c>
       <c r="F17">
-        <v>0.9284501901682279</v>
+        <v>1.032451752668957</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033528108222117</v>
+        <v>1.045811860938346</v>
       </c>
       <c r="J17">
-        <v>0.9912673824224697</v>
+        <v>1.015648949687953</v>
       </c>
       <c r="K17">
-        <v>1.027770569345006</v>
+        <v>1.048019200780685</v>
       </c>
       <c r="L17">
-        <v>0.9892542292371609</v>
+        <v>1.010999200547006</v>
       </c>
       <c r="M17">
-        <v>0.9438409195244887</v>
+        <v>1.045913743894938</v>
       </c>
       <c r="N17">
-        <v>1.000500800470889</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009222418181361</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046035575425177</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.045103075978552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9638349773513104</v>
+        <v>0.9884296391268889</v>
       </c>
       <c r="D18">
-        <v>1.014649283058042</v>
+        <v>1.034780662921204</v>
       </c>
       <c r="E18">
-        <v>0.9760455819977675</v>
+        <v>0.9974696349702417</v>
       </c>
       <c r="F18">
-        <v>0.930783430592092</v>
+        <v>1.032526969741503</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033902855802134</v>
+        <v>1.045860607072167</v>
       </c>
       <c r="J18">
-        <v>0.9923374890444303</v>
+        <v>1.015937001469311</v>
       </c>
       <c r="K18">
-        <v>1.028219852678225</v>
+        <v>1.048024879434751</v>
       </c>
       <c r="L18">
-        <v>0.9902910203486668</v>
+        <v>1.011332189224161</v>
       </c>
       <c r="M18">
-        <v>0.9459144020675735</v>
+        <v>1.045806910732756</v>
       </c>
       <c r="N18">
-        <v>1.000870190449949</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009304934664843</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045714459487503</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.045095591425373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9643626643275347</v>
+        <v>0.9885586912230092</v>
       </c>
       <c r="D19">
-        <v>1.01486844474768</v>
+        <v>1.034582393230865</v>
       </c>
       <c r="E19">
-        <v>0.976471622805583</v>
+        <v>0.9975462150163034</v>
       </c>
       <c r="F19">
-        <v>0.9315736218434509</v>
+        <v>1.032066138166531</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034029720736346</v>
+        <v>1.045763921417912</v>
       </c>
       <c r="J19">
-        <v>0.9927001066247201</v>
+        <v>1.015923815628039</v>
       </c>
       <c r="K19">
-        <v>1.028372177423926</v>
+        <v>1.047768253958949</v>
       </c>
       <c r="L19">
-        <v>0.9906424332427306</v>
+        <v>1.011342667175952</v>
       </c>
       <c r="M19">
-        <v>0.9466165819411367</v>
+        <v>1.04529170571366</v>
       </c>
       <c r="N19">
-        <v>1.000995359372186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009282836415125</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044983145758683</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.04492047482705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9619903995795479</v>
+        <v>0.9870285438220765</v>
       </c>
       <c r="D20">
-        <v>1.013884487168067</v>
+        <v>1.033285840979799</v>
       </c>
       <c r="E20">
-        <v>0.9745570175630571</v>
+        <v>0.9963419831350548</v>
       </c>
       <c r="F20">
-        <v>0.9280184152640141</v>
+        <v>1.030147653756081</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03345873805446</v>
+        <v>1.045258835838271</v>
       </c>
       <c r="J20">
-        <v>0.9910694583406561</v>
+        <v>1.015068816088377</v>
       </c>
       <c r="K20">
-        <v>1.027687510507301</v>
+        <v>1.046767604818857</v>
       </c>
       <c r="L20">
-        <v>0.9890625077980905</v>
+        <v>1.010449460780048</v>
       </c>
       <c r="M20">
-        <v>0.9434571954513156</v>
+        <v>1.043680327595789</v>
       </c>
       <c r="N20">
-        <v>1.000432477810869</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008967639450755</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043183090789118</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.04421686836257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9540503790414626</v>
+        <v>0.9828561037439498</v>
       </c>
       <c r="D21">
-        <v>1.010615852802807</v>
+        <v>1.030994108317111</v>
       </c>
       <c r="E21">
-        <v>0.9681618216093529</v>
+        <v>0.993167332985913</v>
       </c>
       <c r="F21">
-        <v>0.9160631043357981</v>
+        <v>1.027426526179666</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031536407762408</v>
+        <v>1.044443185479493</v>
       </c>
       <c r="J21">
-        <v>0.9856032901395642</v>
+        <v>1.013088512615217</v>
       </c>
       <c r="K21">
-        <v>1.025398857555072</v>
+        <v>1.045411154142455</v>
       </c>
       <c r="L21">
-        <v>0.9837725700326914</v>
+        <v>1.008279318964001</v>
       </c>
       <c r="M21">
-        <v>0.9328305776216504</v>
+        <v>1.04190628039285</v>
       </c>
       <c r="N21">
-        <v>0.9985455072082107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008295926621079</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.041738399456245</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.043261008941358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9488689900956901</v>
+        <v>0.9801955532886464</v>
       </c>
       <c r="D22">
-        <v>1.008503743255997</v>
+        <v>1.029552248153556</v>
       </c>
       <c r="E22">
-        <v>0.9639992724701523</v>
+        <v>0.9911521557368831</v>
       </c>
       <c r="F22">
-        <v>0.9082109339002746</v>
+        <v>1.025744104981363</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030273757735491</v>
+        <v>1.043922623048913</v>
       </c>
       <c r="J22">
-        <v>0.9820297937261985</v>
+        <v>1.011830283125975</v>
       </c>
       <c r="K22">
-        <v>1.023908600889959</v>
+        <v>1.04456015436856</v>
       </c>
       <c r="L22">
-        <v>0.9803193133374308</v>
+        <v>1.006900951724212</v>
       </c>
       <c r="M22">
-        <v>0.9258499156459873</v>
+        <v>1.040822254574534</v>
       </c>
       <c r="N22">
-        <v>0.997311948464092</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007869775808255</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.04088046666475</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042645969464977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9516346969738003</v>
+        <v>0.9816069503566656</v>
       </c>
       <c r="D23">
-        <v>1.009629060795648</v>
+        <v>1.030303683988631</v>
       </c>
       <c r="E23">
-        <v>0.9662200951736187</v>
+        <v>0.9922198434662355</v>
       </c>
       <c r="F23">
-        <v>0.9124074845421652</v>
+        <v>1.026628888627507</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030948467485997</v>
+        <v>1.044194263208239</v>
       </c>
       <c r="J23">
-        <v>0.9839378507657542</v>
+        <v>1.012496060029381</v>
       </c>
       <c r="K23">
-        <v>1.024703697408792</v>
+        <v>1.044998325626291</v>
       </c>
       <c r="L23">
-        <v>0.9821626817154382</v>
+        <v>1.007630592371275</v>
       </c>
       <c r="M23">
-        <v>0.9295807569289022</v>
+        <v>1.041389618064875</v>
       </c>
       <c r="N23">
-        <v>0.9979705903367105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008094729577657</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.041329496450289</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042946243538526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9621205232863255</v>
+        <v>0.9870690328765757</v>
       </c>
       <c r="D24">
-        <v>1.013938372197865</v>
+        <v>1.033249463818652</v>
       </c>
       <c r="E24">
-        <v>0.9746619910632491</v>
+        <v>0.9963688720732551</v>
       </c>
       <c r="F24">
-        <v>0.9282136163544097</v>
+        <v>1.030086452547639</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033490100385549</v>
+        <v>1.045240511773013</v>
       </c>
       <c r="J24">
-        <v>0.991158933763445</v>
+        <v>1.015074099581848</v>
       </c>
       <c r="K24">
-        <v>1.027725057322618</v>
+        <v>1.046716801031917</v>
       </c>
       <c r="L24">
-        <v>0.9891491776278067</v>
+        <v>1.010460055874881</v>
       </c>
       <c r="M24">
-        <v>0.9436306739258806</v>
+        <v>1.043605043145727</v>
       </c>
       <c r="N24">
-        <v>1.000463364439571</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008966622270123</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043082852725536</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.044153846682448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9735565571060181</v>
+        <v>0.9932112046960818</v>
       </c>
       <c r="D25">
-        <v>1.018713138752354</v>
+        <v>1.036594165816895</v>
       </c>
       <c r="E25">
-        <v>0.9839089358795882</v>
+        <v>1.001065891450652</v>
       </c>
       <c r="F25">
-        <v>0.9452870719393408</v>
+        <v>1.03401815135244</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036225510429697</v>
+        <v>1.046388229013893</v>
       </c>
       <c r="J25">
-        <v>0.9990078388070418</v>
+        <v>1.017969218931472</v>
       </c>
       <c r="K25">
-        <v>1.031027740224676</v>
+        <v>1.048649774155806</v>
       </c>
       <c r="L25">
-        <v>0.9967622887943366</v>
+        <v>1.013647683331247</v>
       </c>
       <c r="M25">
-        <v>0.9587985892431232</v>
+        <v>1.04611037245898</v>
       </c>
       <c r="N25">
-        <v>1.00317227972164</v>
+        <v>1.009945487546652</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045065643132676</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045517701455037</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9979528679829514</v>
+        <v>0.9979963369131875</v>
       </c>
       <c r="D2">
-        <v>1.039162750694343</v>
+        <v>1.036688846933945</v>
       </c>
       <c r="E2">
-        <v>1.004714083236337</v>
+        <v>1.0047537263347</v>
       </c>
       <c r="F2">
-        <v>1.037066551537836</v>
+        <v>1.035603823172835</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04723488609937</v>
+        <v>1.046450076289885</v>
       </c>
       <c r="J2">
-        <v>1.020194981296102</v>
+        <v>1.020237142804701</v>
       </c>
       <c r="K2">
-        <v>1.050102171492313</v>
+        <v>1.047659658336639</v>
       </c>
       <c r="L2">
-        <v>1.016108131759598</v>
+        <v>1.016147229106314</v>
       </c>
       <c r="M2">
-        <v>1.048032558265218</v>
+        <v>1.046588461216742</v>
       </c>
       <c r="N2">
-        <v>1.010696369484898</v>
+        <v>1.012605941835858</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046586913187127</v>
+        <v>1.045444015855054</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04649681854408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044778470569974</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024691364866581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001321724650915</v>
+        <v>1.001307819960159</v>
       </c>
       <c r="D3">
-        <v>1.041021384273504</v>
+        <v>1.038409420839373</v>
       </c>
       <c r="E3">
-        <v>1.007320000534224</v>
+        <v>1.007309638305799</v>
       </c>
       <c r="F3">
-        <v>1.039261482976481</v>
+        <v>1.037708936503527</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047830319857313</v>
+        <v>1.046987144694953</v>
       </c>
       <c r="J3">
-        <v>1.021776422855601</v>
+        <v>1.021762895867018</v>
       </c>
       <c r="K3">
-        <v>1.051154973339488</v>
+        <v>1.048573346615741</v>
       </c>
       <c r="L3">
-        <v>1.017860069576191</v>
+        <v>1.017849837543413</v>
       </c>
       <c r="M3">
-        <v>1.049415491739129</v>
+        <v>1.047881030189691</v>
       </c>
       <c r="N3">
-        <v>1.011230508620881</v>
+        <v>1.013015807419579</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047681402355869</v>
+        <v>1.046466989866808</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047238585642474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045421601835155</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024838315187113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003466377582322</v>
+        <v>1.003416272588201</v>
       </c>
       <c r="D4">
-        <v>1.042210919010742</v>
+        <v>1.039511182901173</v>
       </c>
       <c r="E4">
-        <v>1.008984830721352</v>
+        <v>1.008942873597226</v>
       </c>
       <c r="F4">
-        <v>1.040667233443624</v>
+        <v>1.039057645327592</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048202695795758</v>
+        <v>1.04732236582837</v>
       </c>
       <c r="J4">
-        <v>1.022781826789851</v>
+        <v>1.022732991639432</v>
       </c>
       <c r="K4">
-        <v>1.051825250017879</v>
+        <v>1.049155029514193</v>
       </c>
       <c r="L4">
-        <v>1.018976012873082</v>
+        <v>1.018934551051034</v>
       </c>
       <c r="M4">
-        <v>1.050298418197351</v>
+        <v>1.048706468847531</v>
       </c>
       <c r="N4">
-        <v>1.01157000929005</v>
+        <v>1.013276365145848</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048380172247453</v>
+        <v>1.047120263581205</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047713403689085</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045833863877213</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024929721111584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004360972123254</v>
+        <v>1.004295761844303</v>
       </c>
       <c r="D5">
-        <v>1.042712934107473</v>
+        <v>1.039976450043219</v>
       </c>
       <c r="E5">
-        <v>1.009680819080114</v>
+        <v>1.00962566671348</v>
       </c>
       <c r="F5">
-        <v>1.041257897066926</v>
+        <v>1.039624431158445</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048358176159637</v>
+        <v>1.047462259404124</v>
       </c>
       <c r="J5">
-        <v>1.023201463008255</v>
+        <v>1.023137856484668</v>
       </c>
       <c r="K5">
-        <v>1.052109418124155</v>
+        <v>1.049402075354727</v>
       </c>
       <c r="L5">
-        <v>1.019442086918231</v>
+        <v>1.019387568248214</v>
       </c>
       <c r="M5">
-        <v>1.050669852681286</v>
+        <v>1.049053818819109</v>
       </c>
       <c r="N5">
-        <v>1.011711837997931</v>
+        <v>1.013385208865744</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048674134511096</v>
+        <v>1.047395165248674</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047921424362155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046016353410986</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024968720933652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004512149359498</v>
+        <v>1.004444294621798</v>
       </c>
       <c r="D6">
-        <v>1.042803153602677</v>
+        <v>1.040060260179046</v>
       </c>
       <c r="E6">
-        <v>1.009798708920903</v>
+        <v>1.0097412428629</v>
       </c>
       <c r="F6">
-        <v>1.04136062994332</v>
+        <v>1.039722988752538</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048386525999364</v>
+        <v>1.04748786621908</v>
       </c>
       <c r="J6">
-        <v>1.02327308877758</v>
+        <v>1.023206894339727</v>
       </c>
       <c r="K6">
-        <v>1.052163024855287</v>
+        <v>1.049449210462864</v>
       </c>
       <c r="L6">
-        <v>1.019521406985115</v>
+        <v>1.019464598180418</v>
       </c>
       <c r="M6">
-        <v>1.050735770873273</v>
+        <v>1.049115527615896</v>
       </c>
       <c r="N6">
-        <v>1.011736225971356</v>
+        <v>1.013403905202034</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048726303755612</v>
+        <v>1.047444003160884</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047967980257433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046059207961857</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024976977350052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003482250999545</v>
+        <v>1.003439555221536</v>
       </c>
       <c r="D7">
-        <v>1.042234015526075</v>
+        <v>1.039535122289021</v>
       </c>
       <c r="E7">
-        <v>1.008997700893275</v>
+        <v>1.008962320541358</v>
       </c>
       <c r="F7">
-        <v>1.040685206890122</v>
+        <v>1.039077490121316</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048211283103159</v>
+        <v>1.0473329019623</v>
       </c>
       <c r="J7">
-        <v>1.022791239710136</v>
+        <v>1.02274962554638</v>
       </c>
       <c r="K7">
-        <v>1.051845255274739</v>
+        <v>1.04917585698207</v>
       </c>
       <c r="L7">
-        <v>1.018985765717741</v>
+        <v>1.01895080287276</v>
       </c>
       <c r="M7">
-        <v>1.050313349878983</v>
+        <v>1.048723244723352</v>
       </c>
       <c r="N7">
-        <v>1.011573683483676</v>
+        <v>1.013307049551004</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048391989544869</v>
+        <v>1.047133540441521</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047747447187791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045870500166736</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024935591654908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9991036749753176</v>
+        <v>0.9991515489574913</v>
       </c>
       <c r="D8">
-        <v>1.039813875703767</v>
+        <v>1.03729840435324</v>
       </c>
       <c r="E8">
-        <v>1.005603711763623</v>
+        <v>1.005647606140034</v>
       </c>
       <c r="F8">
-        <v>1.037823828368873</v>
+        <v>1.036338173356553</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047446848743993</v>
+        <v>1.046649495700151</v>
       </c>
       <c r="J8">
-        <v>1.020737909702596</v>
+        <v>1.020784391634774</v>
       </c>
       <c r="K8">
-        <v>1.050480253888138</v>
+        <v>1.0479957786883</v>
       </c>
       <c r="L8">
-        <v>1.016708308493128</v>
+        <v>1.016751616618222</v>
       </c>
       <c r="M8">
-        <v>1.048514712870138</v>
+        <v>1.04704742926328</v>
       </c>
       <c r="N8">
-        <v>1.010880403231217</v>
+        <v>1.012831991601253</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046968502943593</v>
+        <v>1.045807255731856</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046786809337475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045041073975291</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024749581854327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9911014672646481</v>
+        <v>0.9912915882357908</v>
       </c>
       <c r="D9">
-        <v>1.035420138306295</v>
+        <v>1.033234953276528</v>
       </c>
       <c r="E9">
-        <v>0.9994477919182095</v>
+        <v>0.9996154347005003</v>
       </c>
       <c r="F9">
-        <v>1.03265111685434</v>
+        <v>1.031381422342667</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045989087802598</v>
+        <v>1.045331924611514</v>
       </c>
       <c r="J9">
-        <v>1.016972416853465</v>
+        <v>1.017155655713273</v>
       </c>
       <c r="K9">
-        <v>1.047963547225688</v>
+        <v>1.045810885395277</v>
       </c>
       <c r="L9">
-        <v>1.012549834671165</v>
+        <v>1.012714754291218</v>
       </c>
       <c r="M9">
-        <v>1.045235768143183</v>
+        <v>1.043985078956589</v>
       </c>
       <c r="N9">
-        <v>1.009607654184772</v>
+        <v>1.011866089102315</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044373456478284</v>
+        <v>1.04338362445432</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045004235814077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043492814242959</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024383763009764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9855926931692774</v>
+        <v>0.9859159298311853</v>
       </c>
       <c r="D10">
-        <v>1.032486538270074</v>
+        <v>1.030531474881574</v>
       </c>
       <c r="E10">
-        <v>0.9952482457864343</v>
+        <v>0.9955318860581955</v>
       </c>
       <c r="F10">
-        <v>1.029238354442872</v>
+        <v>1.028125836435445</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044977505653553</v>
+        <v>1.044424931434951</v>
       </c>
       <c r="J10">
-        <v>1.01438982348732</v>
+        <v>1.014699702690813</v>
       </c>
       <c r="K10">
-        <v>1.046293007274719</v>
+        <v>1.044370519731864</v>
       </c>
       <c r="L10">
-        <v>1.009703827922278</v>
+        <v>1.009982285039685</v>
       </c>
       <c r="M10">
-        <v>1.043099033297127</v>
+        <v>1.042005183954135</v>
       </c>
       <c r="N10">
-        <v>1.00873721761972</v>
+        <v>1.011324770047007</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042733555329738</v>
+        <v>1.041867902541825</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043839715882147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042492716229456</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024140861324049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9833863647488436</v>
+        <v>0.9838012985670465</v>
       </c>
       <c r="D11">
-        <v>1.031724777291875</v>
+        <v>1.029818892328011</v>
       </c>
       <c r="E11">
-        <v>0.9936066989965365</v>
+        <v>0.993970174033478</v>
       </c>
       <c r="F11">
-        <v>1.028657453808205</v>
+        <v>1.027591509877063</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044751017513035</v>
+        <v>1.044232391241795</v>
       </c>
       <c r="J11">
-        <v>1.013467003719551</v>
+        <v>1.013863842146254</v>
       </c>
       <c r="K11">
-        <v>1.046072224199464</v>
+        <v>1.044199556564883</v>
       </c>
       <c r="L11">
-        <v>1.008650199220487</v>
+        <v>1.009006707021785</v>
       </c>
       <c r="M11">
-        <v>1.043058438753374</v>
+        <v>1.042011197133588</v>
       </c>
       <c r="N11">
-        <v>1.008448902302261</v>
+        <v>1.011345230660722</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043135305030511</v>
+        <v>1.042306949741109</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043716087203765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042407539320636</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024169832733202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9826349696325782</v>
+        <v>0.9830816556831926</v>
       </c>
       <c r="D12">
-        <v>1.031613540219958</v>
+        <v>1.029703083791643</v>
       </c>
       <c r="E12">
-        <v>0.9930616047682257</v>
+        <v>0.9934522458309001</v>
       </c>
       <c r="F12">
-        <v>1.028757068139884</v>
+        <v>1.027695762847834</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044738050164725</v>
+        <v>1.044223374014822</v>
       </c>
       <c r="J12">
-        <v>1.013192874888499</v>
+        <v>1.0136196993718</v>
       </c>
       <c r="K12">
-        <v>1.046159142952443</v>
+        <v>1.044282517875716</v>
       </c>
       <c r="L12">
-        <v>1.00832295175864</v>
+        <v>1.008705974877287</v>
       </c>
       <c r="M12">
-        <v>1.043353315131345</v>
+        <v>1.042310919544075</v>
       </c>
       <c r="N12">
-        <v>1.008375024711579</v>
+        <v>1.011394488852519</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043693282299925</v>
+        <v>1.042869036657013</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043777540233354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042466193357011</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024223180675086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.982958351208377</v>
+        <v>0.9833806558129242</v>
       </c>
       <c r="D13">
-        <v>1.032017832998645</v>
+        <v>1.030056879297936</v>
       </c>
       <c r="E13">
-        <v>0.9933262459657457</v>
+        <v>0.9936946972754079</v>
       </c>
       <c r="F13">
-        <v>1.029412432321971</v>
+        <v>1.028318864637689</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044901440604076</v>
+        <v>1.044363631808304</v>
       </c>
       <c r="J13">
-        <v>1.013406543667801</v>
+        <v>1.013810156759364</v>
       </c>
       <c r="K13">
-        <v>1.046514232889312</v>
+        <v>1.044587856114167</v>
       </c>
       <c r="L13">
-        <v>1.008537963400159</v>
+        <v>1.008899258482008</v>
       </c>
       <c r="M13">
-        <v>1.043954809790455</v>
+        <v>1.042880630399342</v>
       </c>
       <c r="N13">
-        <v>1.008464193363449</v>
+        <v>1.011434826114243</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044444273526705</v>
+        <v>1.043595107446383</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.04402613184666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042679362048655</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024306540738352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9836716780465724</v>
+        <v>0.9840520683148137</v>
       </c>
       <c r="D14">
-        <v>1.032535168206338</v>
+        <v>1.030518691294718</v>
       </c>
       <c r="E14">
-        <v>0.993878357455617</v>
+        <v>0.9942095113478761</v>
       </c>
       <c r="F14">
-        <v>1.030122133785184</v>
+        <v>1.028989772790594</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045095324481273</v>
+        <v>1.04452953293639</v>
       </c>
       <c r="J14">
-        <v>1.01377652229591</v>
+        <v>1.014140312742528</v>
       </c>
       <c r="K14">
-        <v>1.046884738907422</v>
+        <v>1.04490338586821</v>
       </c>
       <c r="L14">
-        <v>1.008933771572184</v>
+        <v>1.009258573701324</v>
       </c>
       <c r="M14">
-        <v>1.044513756727674</v>
+        <v>1.043401217621181</v>
       </c>
       <c r="N14">
-        <v>1.008600378387027</v>
+        <v>1.011460112452155</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04505872721979</v>
+        <v>1.04417935484002</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044289493495381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042903990151872</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024378698734655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9840809453487169</v>
+        <v>0.9844393353126509</v>
       </c>
       <c r="D15">
-        <v>1.032784869849139</v>
+        <v>1.030744147068338</v>
       </c>
       <c r="E15">
-        <v>0.9941910961490426</v>
+        <v>0.9945028475630463</v>
       </c>
       <c r="F15">
-        <v>1.030433560627475</v>
+        <v>1.029283337408216</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045185799683358</v>
+        <v>1.044607106836157</v>
       </c>
       <c r="J15">
-        <v>1.013976106427156</v>
+        <v>1.014318991937897</v>
       </c>
       <c r="K15">
-        <v>1.047045263236952</v>
+        <v>1.045039823834245</v>
       </c>
       <c r="L15">
-        <v>1.009150855635137</v>
+        <v>1.009456673296877</v>
       </c>
       <c r="M15">
-        <v>1.044734623180814</v>
+        <v>1.043604382288063</v>
       </c>
       <c r="N15">
-        <v>1.008670297942691</v>
+        <v>1.011468120080978</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045270696243706</v>
+        <v>1.044377355467902</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04440878766866</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043006827799633</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024406232412578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9863444389431788</v>
+        <v>0.9865977728930813</v>
       </c>
       <c r="D16">
-        <v>1.033959696272055</v>
+        <v>1.031816707284788</v>
       </c>
       <c r="E16">
-        <v>0.9959065489990633</v>
+        <v>0.9961264238334595</v>
       </c>
       <c r="F16">
-        <v>1.031788052421804</v>
+        <v>1.030558810428798</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045598427037768</v>
+        <v>1.04496300790459</v>
       </c>
       <c r="J16">
-        <v>1.015031965598272</v>
+        <v>1.015274885942281</v>
       </c>
       <c r="K16">
-        <v>1.047706764362305</v>
+        <v>1.045599256186454</v>
       </c>
       <c r="L16">
-        <v>1.010313211030059</v>
+        <v>1.010529086324897</v>
       </c>
       <c r="M16">
-        <v>1.045571077038984</v>
+        <v>1.044362274468746</v>
       </c>
       <c r="N16">
-        <v>1.009023010226575</v>
+        <v>1.011515307275934</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045893256739564</v>
+        <v>1.044937794080853</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.04487961508924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043405795457078</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02449872313429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9877101587899833</v>
+        <v>0.9879138554769394</v>
       </c>
       <c r="D17">
-        <v>1.03459167172289</v>
+        <v>1.032401420105776</v>
       </c>
       <c r="E17">
-        <v>0.996937256383831</v>
+        <v>0.9971140367248276</v>
       </c>
       <c r="F17">
-        <v>1.032451752668957</v>
+        <v>1.03118517709978</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045811860938346</v>
+        <v>1.045150201437608</v>
       </c>
       <c r="J17">
-        <v>1.015648949687953</v>
+        <v>1.015844542418542</v>
       </c>
       <c r="K17">
-        <v>1.048019200780685</v>
+        <v>1.04586422411599</v>
       </c>
       <c r="L17">
-        <v>1.010999200547006</v>
+        <v>1.011172857258318</v>
       </c>
       <c r="M17">
-        <v>1.045913743894938</v>
+        <v>1.044667652314035</v>
       </c>
       <c r="N17">
-        <v>1.009222418181361</v>
+        <v>1.011567756334292</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046035575425177</v>
+        <v>1.045050541392652</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.045103075978552</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043595946574966</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024531494970846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9884296391268889</v>
+        <v>0.9886164869452062</v>
       </c>
       <c r="D18">
-        <v>1.034780662921204</v>
+        <v>1.032586565889703</v>
       </c>
       <c r="E18">
-        <v>0.9974696349702417</v>
+        <v>0.9976321963612289</v>
       </c>
       <c r="F18">
-        <v>1.032526969741503</v>
+        <v>1.031253778305767</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045860607072167</v>
+        <v>1.045194583375555</v>
       </c>
       <c r="J18">
-        <v>1.015937001469311</v>
+        <v>1.016116556617251</v>
       </c>
       <c r="K18">
-        <v>1.048024879434751</v>
+        <v>1.045865559619311</v>
       </c>
       <c r="L18">
-        <v>1.011332189224161</v>
+        <v>1.011491926732174</v>
       </c>
       <c r="M18">
-        <v>1.045806910732756</v>
+        <v>1.044553989786485</v>
       </c>
       <c r="N18">
-        <v>1.009304934664843</v>
+        <v>1.011589330248866</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045714459487503</v>
+        <v>1.044723822004239</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045095591425373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043584251248116</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024505590787054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9885586912230092</v>
+        <v>0.9887527527014907</v>
       </c>
       <c r="D19">
-        <v>1.034582393230865</v>
+        <v>1.032422094785594</v>
       </c>
       <c r="E19">
-        <v>0.9975462150163034</v>
+        <v>0.9977156905070967</v>
       </c>
       <c r="F19">
-        <v>1.032066138166531</v>
+        <v>1.030812431678553</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045763921417912</v>
+        <v>1.045111830500675</v>
       </c>
       <c r="J19">
-        <v>1.015923815628039</v>
+        <v>1.016110350180064</v>
       </c>
       <c r="K19">
-        <v>1.047768253958949</v>
+        <v>1.045642030243357</v>
       </c>
       <c r="L19">
-        <v>1.011342667175952</v>
+        <v>1.01150921510434</v>
       </c>
       <c r="M19">
-        <v>1.04529170571366</v>
+        <v>1.044057875556642</v>
       </c>
       <c r="N19">
-        <v>1.009282836415125</v>
+        <v>1.011563602418146</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044983145758683</v>
+        <v>1.044007286598909</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.04492047482705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043433163666201</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024430403772824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9870285438220765</v>
+        <v>0.9872939257970812</v>
       </c>
       <c r="D20">
-        <v>1.033285840979799</v>
+        <v>1.031262778273511</v>
       </c>
       <c r="E20">
-        <v>0.9963419831350548</v>
+        <v>0.9965748017696558</v>
       </c>
       <c r="F20">
-        <v>1.030147653756081</v>
+        <v>1.028984973062331</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045258835838271</v>
+        <v>1.044670694898025</v>
       </c>
       <c r="J20">
-        <v>1.015068816088377</v>
+        <v>1.015323587170002</v>
       </c>
       <c r="K20">
-        <v>1.046767604818857</v>
+        <v>1.044777316156405</v>
       </c>
       <c r="L20">
-        <v>1.010449460780048</v>
+        <v>1.010678147734447</v>
       </c>
       <c r="M20">
-        <v>1.043680327595789</v>
+        <v>1.042536610090267</v>
       </c>
       <c r="N20">
-        <v>1.008967639450755</v>
+        <v>1.011394866471694</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043183090789118</v>
+        <v>1.042277962294491</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04421686836257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042826057637518</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024215017407492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9828561037439498</v>
+        <v>0.9833342546199378</v>
       </c>
       <c r="D21">
-        <v>1.030994108317111</v>
+        <v>1.029185831722507</v>
       </c>
       <c r="E21">
-        <v>0.993167332985913</v>
+        <v>0.9935876733436226</v>
       </c>
       <c r="F21">
-        <v>1.027426526179666</v>
+        <v>1.026427813512583</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044443185479493</v>
+        <v>1.043974374943944</v>
       </c>
       <c r="J21">
-        <v>1.013088512615217</v>
+        <v>1.013545675837315</v>
       </c>
       <c r="K21">
-        <v>1.045411154142455</v>
+        <v>1.043634591710337</v>
       </c>
       <c r="L21">
-        <v>1.008279318964001</v>
+        <v>1.008691556152136</v>
       </c>
       <c r="M21">
-        <v>1.04190628039285</v>
+        <v>1.040925223677007</v>
       </c>
       <c r="N21">
-        <v>1.008295926621079</v>
+        <v>1.01133247474958</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041738399456245</v>
+        <v>1.040961959757894</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043261008941358</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.042021631271884</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024010514648647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9801955532886464</v>
+        <v>0.9808073602037183</v>
       </c>
       <c r="D22">
-        <v>1.029552248153556</v>
+        <v>1.02787839040466</v>
       </c>
       <c r="E22">
-        <v>0.9911521557368831</v>
+        <v>0.9916903677620021</v>
       </c>
       <c r="F22">
-        <v>1.025744104981363</v>
+        <v>1.024848369687413</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043922623048913</v>
+        <v>1.043528612761256</v>
       </c>
       <c r="J22">
-        <v>1.011830283125975</v>
+        <v>1.012413677732301</v>
       </c>
       <c r="K22">
-        <v>1.04456015436856</v>
+        <v>1.042917088337061</v>
       </c>
       <c r="L22">
-        <v>1.006900951724212</v>
+        <v>1.007428257187474</v>
       </c>
       <c r="M22">
-        <v>1.040822254574534</v>
+        <v>1.039943140544515</v>
       </c>
       <c r="N22">
-        <v>1.007869775808255</v>
+        <v>1.011285271059061</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.04088046666475</v>
+        <v>1.040184706884258</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042645969464977</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041499665522663</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023881398403728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9816069503566656</v>
+        <v>0.9821353270826595</v>
       </c>
       <c r="D23">
-        <v>1.030303683988631</v>
+        <v>1.028555630812053</v>
       </c>
       <c r="E23">
-        <v>0.9922198434662355</v>
+        <v>0.9926843295512012</v>
       </c>
       <c r="F23">
-        <v>1.026628888627507</v>
+        <v>1.025674443294571</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044194263208239</v>
+        <v>1.043756723521939</v>
       </c>
       <c r="J23">
-        <v>1.012496060029381</v>
+        <v>1.013000616179039</v>
       </c>
       <c r="K23">
-        <v>1.044998325626291</v>
+        <v>1.043281633047029</v>
       </c>
       <c r="L23">
-        <v>1.007630592371275</v>
+        <v>1.008085909774913</v>
       </c>
       <c r="M23">
-        <v>1.041389618064875</v>
+        <v>1.040452438303972</v>
       </c>
       <c r="N23">
-        <v>1.008094729577657</v>
+        <v>1.011266854737103</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041329496450289</v>
+        <v>1.040587781977084</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042946243538526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.04174693778097</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023944968826268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9870690328765757</v>
+        <v>0.9873350195455247</v>
       </c>
       <c r="D24">
-        <v>1.033249463818652</v>
+        <v>1.031231036903637</v>
       </c>
       <c r="E24">
-        <v>0.9963688720732551</v>
+        <v>0.9966023015991242</v>
       </c>
       <c r="F24">
-        <v>1.030086452547639</v>
+        <v>1.028926566332803</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045240511773013</v>
+        <v>1.044654462154364</v>
       </c>
       <c r="J24">
-        <v>1.015074099581848</v>
+        <v>1.015329467413982</v>
       </c>
       <c r="K24">
-        <v>1.046716801031917</v>
+        <v>1.044731034057025</v>
       </c>
       <c r="L24">
-        <v>1.010460055874881</v>
+        <v>1.010689348519693</v>
       </c>
       <c r="M24">
-        <v>1.043605043145727</v>
+        <v>1.042464053177782</v>
       </c>
       <c r="N24">
-        <v>1.008966622270123</v>
+        <v>1.011390461185101</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043082852725536</v>
+        <v>1.04217983832672</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044153846682448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04276354564841</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024198673824627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9932112046960818</v>
+        <v>0.9933532998117103</v>
       </c>
       <c r="D25">
-        <v>1.036594165816895</v>
+        <v>1.034318225002065</v>
       </c>
       <c r="E25">
-        <v>1.001065891450652</v>
+        <v>1.00119160863566</v>
       </c>
       <c r="F25">
-        <v>1.03401815135244</v>
+        <v>1.032687310510991</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046388229013893</v>
+        <v>1.045690404641439</v>
       </c>
       <c r="J25">
-        <v>1.017969218931472</v>
+        <v>1.01810644126771</v>
       </c>
       <c r="K25">
-        <v>1.048649774155806</v>
+        <v>1.046406169303301</v>
       </c>
       <c r="L25">
-        <v>1.013647683331247</v>
+        <v>1.013771454535911</v>
       </c>
       <c r="M25">
-        <v>1.04611037245898</v>
+        <v>1.044798537367664</v>
       </c>
       <c r="N25">
-        <v>1.009945487546652</v>
+        <v>1.012089435570433</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045065643132676</v>
+        <v>1.044027419399502</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045517701455037</v>
+        <v>1.043944802456451</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024488328992005</v>
       </c>
     </row>
   </sheetData>
